--- a/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.0008145658946062339</v>
+        <v>0.0008117423756870443</v>
       </c>
       <c r="F3">
         <v>0.5201991653174608</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.001578410347494783</v>
+        <v>0.05869535002919633</v>
       </c>
       <c r="F4">
         <v>0.5185221425172031</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>97</v>
       </c>
       <c r="E5">
-        <v>0.02684629341388176</v>
+        <v>0.007701964088017953</v>
       </c>
       <c r="F5">
         <v>0.5196679004327762</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.01239927670685548</v>
+        <v>0.007985624599653402</v>
       </c>
       <c r="F6">
         <v>0.5056824580279128</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0008145658946062339</v>
+        <v>0.0008117423756870443</v>
       </c>
       <c r="F3">
         <v>0.7061894773000961</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>113</v>
       </c>
       <c r="E4">
-        <v>0.001578410347494783</v>
+        <v>0.05869535002919633</v>
       </c>
       <c r="F4">
         <v>0.7065643916684754</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.02684629341388176</v>
+        <v>0.007701964088017953</v>
       </c>
       <c r="F5">
         <v>0.7134888867676877</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>109</v>
       </c>
       <c r="E6">
-        <v>0.01239927670685548</v>
+        <v>0.007985624599653402</v>
       </c>
       <c r="F6">
         <v>0.7069539339777966</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.0008145658946062339</v>
+        <v>0.0008117423756870443</v>
       </c>
       <c r="F3">
         <v>0.8015001291634579</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.001578410347494783</v>
+        <v>0.05869535002919633</v>
       </c>
       <c r="F4">
         <v>0.8086688684952724</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.02684629341388176</v>
+        <v>0.007701964088017953</v>
       </c>
       <c r="F5">
         <v>0.8059880742119803</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>125</v>
       </c>
       <c r="E6">
-        <v>0.01239927670685548</v>
+        <v>0.007985624599653402</v>
       </c>
       <c r="F6">
         <v>0.8105081598400778</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.0008145658946062339</v>
+        <v>0.0008117423756870443</v>
       </c>
       <c r="F3">
         <v>0.9019810119140717</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.001578410347494783</v>
+        <v>0.05869535002919633</v>
       </c>
       <c r="F4">
         <v>0.9013232970916814</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.02684629341388176</v>
+        <v>0.007701964088017953</v>
       </c>
       <c r="F5">
         <v>0.9023439571729657</v>
       </c>
       <c r="G5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.01239927670685548</v>
+        <v>0.007985624599653402</v>
       </c>
       <c r="F6">
         <v>0.9081584294860097</v>
       </c>
       <c r="G6">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H6">
         <v>44</v>

--- a/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.069054734153085E-06</v>
+        <v>9.667098483862347E-07</v>
       </c>
       <c r="C2">
-        <v>8.449548269937666E-07</v>
+        <v>7.426055163292072E-07</v>
       </c>
       <c r="D2">
-        <v>1.069054734153085E-06</v>
+        <v>9.667098483862347E-07</v>
       </c>
       <c r="E2">
-        <v>3.374969607820133E-06</v>
+        <v>3.272670252805935E-06</v>
       </c>
       <c r="F2">
-        <v>2.086521566658091E-05</v>
+        <v>2.076326165999055E-05</v>
       </c>
       <c r="G2">
-        <v>2.160756469029673E-06</v>
+        <v>2.058433139133002E-06</v>
       </c>
       <c r="H2">
-        <v>7.845033250625228E-06</v>
+        <v>7.742822157916106E-06</v>
       </c>
       <c r="I2">
-        <v>8.449548269937666E-07</v>
+        <v>7.426055163292072E-07</v>
       </c>
       <c r="J2">
-        <v>1.859534459406536E-08</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.30370966527856E-08</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.039251633200966E-08</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.923758961458315E-06</v>
+        <v>1.821430951998222E-06</v>
       </c>
       <c r="N2">
-        <v>8.449548269937666E-07</v>
+        <v>7.426055163292072E-07</v>
       </c>
       <c r="O2">
-        <v>1.023639732702212E-07</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.028738788441062E-06</v>
+        <v>8.9265510682357E-06</v>
       </c>
       <c r="Q2">
-        <v>2.153005068782039E-06</v>
+        <v>2.050681585832412E-06</v>
       </c>
       <c r="R2">
-        <v>4.559306445656134E-09</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.223473434927279E-06</v>
+        <v>4.121190833791689E-06</v>
       </c>
       <c r="T2">
-        <v>3.502625111898343E-06</v>
+        <v>3.400328277467731E-06</v>
       </c>
       <c r="U2">
-        <v>2.469518278893685E-05</v>
+        <v>2.459330440581711E-05</v>
       </c>
       <c r="V2">
-        <v>4.708231350413837E-06</v>
+        <v>4.605958320920722E-06</v>
       </c>
       <c r="W2">
-        <v>6.471838206755775E-07</v>
+        <v>5.448306049827479E-07</v>
       </c>
       <c r="X2">
-        <v>4.858793155223834E-06</v>
+        <v>4.756523098603817E-06</v>
       </c>
       <c r="Y2">
-        <v>2.264344072338986E-08</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.708231350413837E-06</v>
+        <v>4.605958320920722E-06</v>
       </c>
       <c r="AA2">
-        <v>2.621514083749494E-06</v>
+        <v>2.519199851604535E-06</v>
       </c>
       <c r="AB2">
-        <v>8.434155769445922E-06</v>
+        <v>8.331956309079343E-06</v>
       </c>
       <c r="AC2">
-        <v>4.695045149992578E-08</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.35976977538755E-06</v>
+        <v>2.257450375048613E-06</v>
       </c>
       <c r="AE2">
-        <v>3.822447722115714E-07</v>
+        <v>2.798863252439792E-07</v>
       </c>
       <c r="AF2">
-        <v>1.448213446266066E-06</v>
+        <v>1.345876047064194E-06</v>
       </c>
       <c r="AG2">
-        <v>1.095714635004789E-09</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.095714635004789E-09</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>6.022356192396176E-06</v>
+        <v>5.920109110562194E-06</v>
       </c>
       <c r="AJ2">
-        <v>1.485207247447907E-05</v>
+        <v>1.474999973716778E-05</v>
       </c>
       <c r="AK2">
-        <v>1.272346440647644E-05</v>
+        <v>1.262134963937101E-05</v>
       </c>
       <c r="AL2">
-        <v>5.889295188145275E-07</v>
+        <v>4.86575152878799E-07</v>
       </c>
       <c r="AM2">
-        <v>4.922647157263777E-09</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.069054734153085E-06</v>
+        <v>9.667098483862347E-07</v>
       </c>
       <c r="AO2">
-        <v>2.263135772300384E-06</v>
+        <v>2.160814463903634E-06</v>
       </c>
       <c r="AP2">
-        <v>1.60207655118153E-07</v>
+        <v>5.784482398305598E-08</v>
       </c>
       <c r="AQ2">
-        <v>4.355114639132819E-06</v>
+        <v>4.252834637279266E-06</v>
       </c>
       <c r="AR2">
-        <v>8.823067281870474E-06</v>
+        <v>8.720875500639877E-06</v>
       </c>
       <c r="AS2">
-        <v>3.365280107510583E-06</v>
+        <v>3.262980561175254E-06</v>
       </c>
       <c r="AT2">
-        <v>1.191809738074738E-05</v>
+        <v>1.181596671150816E-05</v>
       </c>
       <c r="AU2">
-        <v>1.14475153657137E-05</v>
+        <v>1.134537540473801E-05</v>
       </c>
       <c r="AV2">
-        <v>2.535350380996823E-07</v>
+        <v>1.511740497325203E-07</v>
       </c>
       <c r="AW2">
-        <v>2.118086067666482E-05</v>
+        <v>2.107891290254863E-05</v>
       </c>
       <c r="AX2">
-        <v>0.06142552796236096</v>
+        <v>0.06142663845576217</v>
       </c>
       <c r="AY2">
-        <v>0.001712875654721228</v>
+        <v>0.001712807109800838</v>
       </c>
       <c r="AZ2">
-        <v>0.06750794715667596</v>
+        <v>0.06750917774866669</v>
       </c>
       <c r="BA2">
-        <v>0.002969144094855228</v>
+        <v>0.002969100355207689</v>
       </c>
       <c r="BB2">
-        <v>0.008808960281419798</v>
+        <v>0.008809031850116621</v>
       </c>
       <c r="BC2">
-        <v>0.0005011544160103769</v>
+        <v>0.0005010619454105818</v>
       </c>
       <c r="BD2">
-        <v>7.343672234608251E-05</v>
+        <v>7.3335806374458E-05</v>
       </c>
       <c r="BE2">
-        <v>0.01266874640472836</v>
+        <v>0.01266889418567798</v>
       </c>
       <c r="BF2">
-        <v>0.007146468228308175</v>
+        <v>0.007146506970765261</v>
       </c>
       <c r="BG2">
-        <v>0.01282679040977739</v>
+        <v>0.01282694131133765</v>
       </c>
       <c r="BH2">
-        <v>0.03331430106429176</v>
+        <v>0.03331485649586773</v>
       </c>
       <c r="BI2">
-        <v>0.0002346622074967521</v>
+        <v>0.000234564474954737</v>
       </c>
       <c r="BJ2">
-        <v>0.000470307915024924</v>
+        <v>0.000470214835354767</v>
       </c>
       <c r="BK2">
-        <v>0.004505413743934424</v>
+        <v>0.004505400338239885</v>
       </c>
       <c r="BL2">
-        <v>0.0004223308134921999</v>
+        <v>0.0004222367865045301</v>
       </c>
       <c r="BM2">
-        <v>0.00153448304902212</v>
+        <v>0.001534410981703875</v>
       </c>
       <c r="BN2">
-        <v>0.02321718074171913</v>
+        <v>0.02321753680362488</v>
       </c>
       <c r="BO2">
-        <v>0.007512301939995462</v>
+        <v>0.007512347905912715</v>
       </c>
       <c r="BP2">
-        <v>0.002741124087570674</v>
+        <v>0.002741075845622261</v>
       </c>
       <c r="BQ2">
-        <v>2.211718770657766E-05</v>
+        <v>2.201525842042686E-05</v>
       </c>
       <c r="BR2">
-        <v>0.005303066169417022</v>
+        <v>0.005303068513529945</v>
       </c>
       <c r="BS2">
-        <v>7.226158230854033E-05</v>
+        <v>7.216064313353959E-05</v>
       </c>
       <c r="BT2">
-        <v>0.002702813186346756</v>
+        <v>0.002702764187941898</v>
       </c>
       <c r="BU2">
-        <v>0.003584537514515198</v>
+        <v>0.003584505925934419</v>
       </c>
       <c r="BV2">
-        <v>1.72623065514788E-05</v>
+        <v>1.71602814047238E-05</v>
       </c>
       <c r="BW2">
-        <v>0.006236584599240129</v>
+        <v>0.006236605375862079</v>
       </c>
       <c r="BX2">
-        <v>0.02891315592368841</v>
+        <v>0.02891362445376898</v>
       </c>
       <c r="BY2">
-        <v>0.01028258932849782</v>
+        <v>0.01028268999429636</v>
       </c>
       <c r="BZ2">
-        <v>0.004098796130944215</v>
+        <v>0.004098774696503179</v>
       </c>
       <c r="CA2">
-        <v>0.001225342439146007</v>
+        <v>0.001225264267784285</v>
       </c>
       <c r="CB2">
-        <v>0.0002734028787344</v>
+        <v>0.0002733059111347251</v>
       </c>
       <c r="CC2">
-        <v>0.007718558246584732</v>
+        <v>0.007718608285074215</v>
       </c>
       <c r="CD2">
-        <v>0.0001345881842996879</v>
+        <v>0.0001344884757759706</v>
       </c>
       <c r="CE2">
-        <v>1.274229640707806E-05</v>
+        <v>1.264018201181428E-05</v>
       </c>
       <c r="CF2">
-        <v>0.006087491494477053</v>
+        <v>0.006087509327225683</v>
       </c>
       <c r="CG2">
-        <v>0.004604531147100928</v>
+        <v>0.004604519698499436</v>
       </c>
       <c r="CH2">
-        <v>0.02068533266083419</v>
+        <v>0.02068563873089071</v>
       </c>
       <c r="CI2">
-        <v>0.006779296216578134</v>
+        <v>0.006779327709150049</v>
       </c>
       <c r="CJ2">
-        <v>0.0001100037435142889</v>
+        <v>0.0001099035495658471</v>
       </c>
       <c r="CK2">
-        <v>0.0005207450766362396</v>
+        <v>0.0005206529928579762</v>
       </c>
       <c r="CL2">
-        <v>0.002193695270081969</v>
+        <v>0.002193636219041525</v>
       </c>
       <c r="CM2">
-        <v>0.0009070399289771989</v>
+        <v>0.0009069554726684371</v>
       </c>
       <c r="CN2">
-        <v>0.009022970288256774</v>
+        <v>0.009023046082624197</v>
       </c>
       <c r="CO2">
-        <v>0.00907973229007015</v>
+        <v>0.009079809205214708</v>
       </c>
       <c r="CP2">
-        <v>0.03725247619010463</v>
+        <v>0.03725310938173999</v>
       </c>
       <c r="CQ2">
-        <v>0.0515106746456112</v>
+        <v>0.05151158936824086</v>
       </c>
       <c r="CR2">
-        <v>0.01992922063667869</v>
+        <v>0.01992951177715131</v>
       </c>
       <c r="CS2">
-        <v>0.0001404461444868321</v>
+        <v>0.0001403465516297161</v>
       </c>
       <c r="CT2">
-        <v>0.01661731753087334</v>
+        <v>0.01661754327715347</v>
       </c>
       <c r="CU2">
-        <v>0.04608491147227438</v>
+        <v>0.04608571906211965</v>
       </c>
       <c r="CV2">
-        <v>0.04079292830321143</v>
+        <v>0.04079363140178537</v>
       </c>
       <c r="CW2">
-        <v>0.01813236857927467</v>
+        <v>0.01813262424054226</v>
       </c>
       <c r="CX2">
-        <v>0.003249294903805204</v>
+        <v>0.003249256695791696</v>
       </c>
       <c r="CY2">
-        <v>0.002869954691686424</v>
+        <v>0.002869908993524184</v>
       </c>
       <c r="CZ2">
-        <v>0.001631246352113417</v>
+        <v>0.00163117619540604</v>
       </c>
       <c r="DA2">
-        <v>0.0005745535783552596</v>
+        <v>0.0005744625570366777</v>
       </c>
       <c r="DB2">
-        <v>0.001431781845741126</v>
+        <v>0.00143170775056698</v>
       </c>
       <c r="DC2">
-        <v>0.01347675343054176</v>
+        <v>0.0134769171657525</v>
       </c>
       <c r="DD2">
-        <v>0.03313861905867926</v>
+        <v>0.03313917102137871</v>
       </c>
       <c r="DE2">
-        <v>0.0154060224921761</v>
+        <v>0.01540622432119224</v>
       </c>
       <c r="DF2">
-        <v>0.01413459345155777</v>
+        <v>0.01413477017595195</v>
       </c>
       <c r="DG2">
-        <v>0.007653716744513241</v>
+        <v>0.007653765502694232</v>
       </c>
       <c r="DH2">
-        <v>0.0002423772777432254</v>
+        <v>0.0002422796975368229</v>
       </c>
       <c r="DI2">
-        <v>0.0009051265289160716</v>
+        <v>0.0009050420348268411</v>
       </c>
       <c r="DJ2">
-        <v>0.006621515611537517</v>
+        <v>0.006621543988699674</v>
       </c>
       <c r="DK2">
-        <v>0.007152736228508419</v>
+        <v>0.007152775094728429</v>
       </c>
       <c r="DL2">
-        <v>0.002412790777081412</v>
+        <v>0.002412736052125791</v>
       </c>
       <c r="DM2">
-        <v>0.003959305126487895</v>
+        <v>0.003959280937768941</v>
       </c>
       <c r="DN2">
-        <v>0.001021156032622865</v>
+        <v>0.001021073829559507</v>
       </c>
       <c r="DO2">
-        <v>0.01089704434812781</v>
+        <v>0.01089715714646422</v>
       </c>
       <c r="DP2">
-        <v>0.01346937743030611</v>
+        <v>0.01346954101987625</v>
       </c>
       <c r="DQ2">
-        <v>0.007240336631306989</v>
+        <v>0.00724037722721456</v>
       </c>
       <c r="DR2">
-        <v>0.00318681160180905</v>
+        <v>0.003186772160050186</v>
       </c>
       <c r="DS2">
-        <v>0.004184448133680538</v>
+        <v>0.004184428390455513</v>
       </c>
       <c r="DT2">
-        <v>0.01216756538871713</v>
+        <v>0.01216770327374686</v>
       </c>
       <c r="DU2">
-        <v>0.0106440593400457</v>
+        <v>0.01064416714314227</v>
       </c>
       <c r="DV2">
-        <v>0.009114751291188904</v>
+        <v>0.009114828897790677</v>
       </c>
       <c r="DW2">
-        <v>0.01339960842807721</v>
+        <v>0.01339977064004437</v>
       </c>
       <c r="DX2">
-        <v>0.002637324684254595</v>
+        <v>0.002637274392766101</v>
       </c>
       <c r="DY2">
-        <v>0.002430598577650318</v>
+        <v>0.002430544204313298</v>
       </c>
       <c r="DZ2">
-        <v>9.947362317788322E-06</v>
+        <v>9.845192735989183E-06</v>
       </c>
       <c r="EA2">
-        <v>0.001968701862894106</v>
+        <v>0.001968638369313616</v>
       </c>
       <c r="EB2">
-        <v>0.001913100661117815</v>
+        <v>0.00191303606968042</v>
       </c>
       <c r="EC2">
-        <v>0.004109425131283779</v>
+        <v>0.004109403906714492</v>
       </c>
       <c r="ED2">
-        <v>0.004011456528153976</v>
+        <v>0.004011433369174929</v>
       </c>
       <c r="EE2">
-        <v>0.001488981247568475</v>
+        <v>0.001488908281808014</v>
       </c>
       <c r="EF2">
-        <v>0.0008763628679971591</v>
+        <v>0.0008762778059636624</v>
       </c>
       <c r="EG2">
-        <v>0.000976914831209492</v>
+        <v>0.0009768317545947192</v>
       </c>
       <c r="EH2">
-        <v>0.0005690662181799549</v>
+        <v>0.0005689750885123434</v>
       </c>
       <c r="EI2">
-        <v>0.0003472477110935205</v>
+        <v>0.0003471522015749027</v>
       </c>
       <c r="EJ2">
-        <v>2.619988883700769E-05</v>
+        <v>2.60980401646113E-05</v>
       </c>
       <c r="EK2">
-        <v>0.0003777232320671217</v>
+        <v>0.0003776283242937909</v>
       </c>
       <c r="EL2">
-        <v>0.0008626740575598426</v>
+        <v>0.0008625887252380326</v>
       </c>
       <c r="EM2">
-        <v>0.00185213795917024</v>
+        <v>0.001852072164012042</v>
       </c>
       <c r="EN2">
-        <v>0.002076821466348203</v>
+        <v>0.002076760107611014</v>
       </c>
       <c r="EO2">
-        <v>1.72623065514788E-05</v>
+        <v>1.71602814047238E-05</v>
       </c>
       <c r="EP2">
-        <v>0.0007927097853246944</v>
+        <v>0.0007926230715442668</v>
       </c>
       <c r="EQ2">
-        <v>0.003570496014066614</v>
+        <v>0.003570464148233587</v>
       </c>
       <c r="ER2">
-        <v>0.002365424075568188</v>
+        <v>0.002365368415347525</v>
       </c>
       <c r="ES2">
-        <v>0.003912904125005523</v>
+        <v>0.003912879020089468</v>
       </c>
       <c r="ET2">
-        <v>0.0002342300474829458</v>
+        <v>0.0002341323064078444</v>
       </c>
       <c r="EU2">
-        <v>0.001353206243230871</v>
+        <v>0.001353130596565661</v>
       </c>
       <c r="EV2">
-        <v>0.004624795747748321</v>
+        <v>0.004624784699275441</v>
       </c>
       <c r="EW2">
-        <v>0.004631040147947811</v>
+        <v>0.004631029222771868</v>
       </c>
       <c r="EX2">
-        <v>0.008151877260427971</v>
+        <v>0.008151935854888477</v>
       </c>
       <c r="EY2">
-        <v>0.007023297524373242</v>
+        <v>0.007023333834800023</v>
       </c>
       <c r="EZ2">
-        <v>0.002485469279403271</v>
+        <v>0.002485415989499286</v>
       </c>
       <c r="FA2">
-        <v>0.001878132560000689</v>
+        <v>0.001878067278111109</v>
       </c>
       <c r="FB2">
-        <v>9.762553311884228E-07</v>
+        <v>8.739086130787092E-07</v>
       </c>
       <c r="FC2">
-        <v>0.003115666399536175</v>
+        <v>0.003115625553000992</v>
       </c>
       <c r="FD2">
-        <v>0.005558400577574188</v>
+        <v>0.005558407963316321</v>
       </c>
       <c r="FE2">
-        <v>0.004658830548835631</v>
+        <v>0.00465882017238674</v>
       </c>
       <c r="FF2">
-        <v>0.005191695165859053</v>
+        <v>0.005191695310929127</v>
       </c>
       <c r="FG2">
-        <v>0.004223131734916363</v>
+        <v>0.004223112755506819</v>
       </c>
       <c r="FH2">
-        <v>0.002470356478920463</v>
+        <v>0.002470302890611195</v>
       </c>
       <c r="FI2">
-        <v>0.005122483163647937</v>
+        <v>0.005122481942113116</v>
       </c>
       <c r="FJ2">
-        <v>0.001407572544967711</v>
+        <v>0.001407497971776055</v>
       </c>
       <c r="FK2">
-        <v>0.0007646828544293183</v>
+        <v>0.000764595587251507</v>
       </c>
       <c r="FL2">
-        <v>0.006591672710584127</v>
+        <v>0.006591700498492206</v>
       </c>
       <c r="FM2">
-        <v>0.01027614632829198</v>
+        <v>0.01027624686687219</v>
       </c>
       <c r="FN2">
-        <v>0.01046308433426409</v>
+        <v>0.0104631885639728</v>
       </c>
       <c r="FO2">
-        <v>0.003401462808666511</v>
+        <v>0.003401427605238869</v>
       </c>
       <c r="FP2">
-        <v>0.001852365059177495</v>
+        <v>0.001852299268503432</v>
       </c>
       <c r="FQ2">
-        <v>0.0002565950081974391</v>
+        <v>0.0002564977087229821</v>
       </c>
       <c r="FR2">
-        <v>0.0004176281133419627</v>
+        <v>0.0004175339934985333</v>
       </c>
       <c r="FS2">
-        <v>5.478732175029022E-05</v>
+        <v>5.468603754250256E-05</v>
       </c>
       <c r="FT2">
-        <v>0.00259273348283004</v>
+        <v>0.002592682310879311</v>
       </c>
       <c r="FU2">
-        <v>0.005378531471827912</v>
+        <v>0.005378535306018399</v>
       </c>
       <c r="FV2">
-        <v>0.007782739848635141</v>
+        <v>0.007782791154403257</v>
       </c>
       <c r="FW2">
-        <v>0.01239644239602907</v>
+        <v>0.0123965848002813</v>
       </c>
       <c r="FX2">
-        <v>0.001120068035782807</v>
+        <v>0.001119987785756831</v>
       </c>
       <c r="FY2">
-        <v>8.823067281870474E-06</v>
+        <v>8.720875500639877E-06</v>
       </c>
       <c r="FZ2">
-        <v>8.635268275870861E-06</v>
+        <v>8.533072786511144E-06</v>
       </c>
       <c r="GA2">
-        <v>0.0002471268078949586</v>
+        <v>0.0002470293214689836</v>
       </c>
       <c r="GB2">
-        <v>0.0009540981004805659</v>
+        <v>0.0009540145733448589</v>
       </c>
       <c r="GC2">
-        <v>0.001137205536330298</v>
+        <v>0.001137125624687715</v>
       </c>
       <c r="GD2">
-        <v>0.007706466846198448</v>
+        <v>0.007706516645940799</v>
       </c>
       <c r="GE2">
-        <v>0.005575916878133781</v>
+        <v>0.005575924609738789</v>
       </c>
       <c r="GF2">
-        <v>0.001598968951082251</v>
+        <v>0.001598898157051103</v>
       </c>
       <c r="GG2">
-        <v>1.216152838852427E-06</v>
+        <v>1.11381085756722E-06</v>
       </c>
       <c r="GH2">
-        <v>0.001404130844857759</v>
+        <v>0.001404056203709043</v>
       </c>
       <c r="GI2">
-        <v>0.002865984391559585</v>
+        <v>0.002865938615002971</v>
       </c>
       <c r="GJ2">
-        <v>0.001157234936970177</v>
+        <v>0.001157155420812136</v>
       </c>
       <c r="GK2">
-        <v>0.0001484433647423192</v>
+        <v>0.0001483439297919246</v>
       </c>
       <c r="GL2">
-        <v>4.294436837194347E-07</v>
+        <v>3.270861687038368E-07</v>
       </c>
       <c r="GM2">
-        <v>0.0009202185293982156</v>
+        <v>0.000920134333303568</v>
       </c>
       <c r="GN2">
-        <v>7.09025522651234E-05</v>
+        <v>7.08015862558013E-05</v>
       </c>
       <c r="GO2">
-        <v>9.576058305926275E-05</v>
+        <v>9.566010787675496E-05</v>
       </c>
       <c r="GP2">
-        <v>0.0009113505691149109</v>
+        <v>0.0009112661979206051</v>
       </c>
       <c r="GQ2">
-        <v>0.0007602473742876182</v>
+        <v>0.0007601600195303599</v>
       </c>
       <c r="GR2">
-        <v>0.000352398041258058</v>
+        <v>0.0003523026334337445</v>
       </c>
       <c r="GS2">
-        <v>0.0003592240814761294</v>
+        <v>0.000359128808433352</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.881114448260305E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.235735094377398E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.270274264687962E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.527633964486226E-05</v>
+        <v>6.776487197256137E-06</v>
       </c>
       <c r="F3">
-        <v>4.404550985929926E-05</v>
+        <v>3.558969436356806E-05</v>
       </c>
       <c r="G3">
-        <v>2.647502811759406E-05</v>
+        <v>1.79923174958265E-05</v>
       </c>
       <c r="H3">
-        <v>3.226806936213652E-05</v>
+        <v>2.379422614518439E-05</v>
       </c>
       <c r="I3">
-        <v>4.981182610271357E-05</v>
+        <v>4.136483710385435E-05</v>
       </c>
       <c r="J3">
-        <v>8.510209359242656E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.480009862475863E-05</v>
+        <v>6.299517195303992E-06</v>
       </c>
       <c r="L3">
-        <v>1.079557845571526E-05</v>
+        <v>2.288867309600326E-06</v>
       </c>
       <c r="M3">
-        <v>5.463335830624558E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.55830106578078E-11</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.531676449083151E-05</v>
+        <v>2.68475879097143E-05</v>
       </c>
       <c r="P3">
-        <v>6.936982692831819E-05</v>
+        <v>6.09527753497845E-05</v>
       </c>
       <c r="Q3">
-        <v>7.322113309089392E-05</v>
+        <v>6.480997670443122E-05</v>
       </c>
       <c r="R3">
-        <v>3.205912135331617E-05</v>
+        <v>2.358495829977021E-05</v>
       </c>
       <c r="S3">
-        <v>1.391066758721295E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7.025670696575619E-07</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>3.286881138749572E-05</v>
+        <v>2.43958877260074E-05</v>
       </c>
       <c r="V3">
-        <v>2.206710493152178E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3.949612766725556E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.787421159878938E-05</v>
+        <v>2.940894970045157E-05</v>
       </c>
       <c r="Y3">
-        <v>6.116708658205476E-05</v>
+        <v>5.273747907371225E-05</v>
       </c>
       <c r="Z3">
-        <v>2.101271188701254E-05</v>
+        <v>1.252164010101331E-05</v>
       </c>
       <c r="AA3">
-        <v>5.426489229069148E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.835701977490744E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.667141670375284E-05</v>
+        <v>8.17369969977774E-06</v>
       </c>
       <c r="AD3">
-        <v>1.311535755364042E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.185916387766371E-08</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.159348686644864E-10</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.981055868052867E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.572065350788093E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.490094147327831E-05</v>
+        <v>2.643112839211345E-05</v>
       </c>
       <c r="AJ3">
-        <v>1.835701977490744E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.205890846396415E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>8.357358352790336E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.440659945241059E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.103186342060936E-08</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.966385783007318E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.132773001096743E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.240193252352451E-05</v>
+        <v>3.897680222633506E-06</v>
       </c>
       <c r="AR3">
-        <v>5.341002825460499E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.777146943871511E-05</v>
+        <v>4.933666426121452E-05</v>
       </c>
       <c r="AT3">
-        <v>4.759580200916824E-05</v>
+        <v>3.914542094353635E-05</v>
       </c>
       <c r="AU3">
-        <v>1.55830106578078E-11</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>6.033975754713062E-07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.823518919189598E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.307140097391627E-05</v>
+        <v>1.458348042208785E-05</v>
       </c>
       <c r="AY3">
-        <v>0.05804967745045914</v>
+        <v>0.05813001082155458</v>
       </c>
       <c r="AZ3">
-        <v>0.0503554181256603</v>
+        <v>0.05042397389854648</v>
       </c>
       <c r="BA3">
-        <v>0.01004922742420944</v>
+        <v>0.01005608653476747</v>
       </c>
       <c r="BB3">
-        <v>0.001426538960218688</v>
+        <v>0.001420199326631823</v>
       </c>
       <c r="BC3">
-        <v>0.007827544330425222</v>
+        <v>0.007831002711982272</v>
       </c>
       <c r="BD3">
-        <v>0.00120830315100627</v>
+        <v>0.001201629463994991</v>
       </c>
       <c r="BE3">
-        <v>0.00104754634422022</v>
+        <v>0.001040626586859632</v>
       </c>
       <c r="BF3">
-        <v>0.07371575311177338</v>
+        <v>0.07382006653564142</v>
       </c>
       <c r="BG3">
-        <v>0.005790423244431945</v>
+        <v>0.00579076340594446</v>
       </c>
       <c r="BH3">
-        <v>0.005093186214999382</v>
+        <v>0.005092459116202278</v>
       </c>
       <c r="BI3">
-        <v>0.0158716836699936</v>
+        <v>0.0158874552108921</v>
       </c>
       <c r="BJ3">
-        <v>0.004072289571904128</v>
+        <v>0.004069999787217714</v>
       </c>
       <c r="BK3">
-        <v>0.0002420545702178834</v>
+        <v>0.000233901847074028</v>
       </c>
       <c r="BL3">
-        <v>7.717647825786145E-05</v>
+        <v>6.877137631591239E-05</v>
       </c>
       <c r="BM3">
-        <v>0.001770452674736366</v>
+        <v>0.001764639469669422</v>
       </c>
       <c r="BN3">
-        <v>0.02360071699626036</v>
+        <v>0.02362831936391166</v>
       </c>
       <c r="BO3">
-        <v>0.007917833334236605</v>
+        <v>0.007921429921118521</v>
       </c>
       <c r="BP3">
-        <v>0.007818234330032217</v>
+        <v>0.007821678460777158</v>
       </c>
       <c r="BQ3">
-        <v>0.000129760875477614</v>
+        <v>0.0001214362644414671</v>
       </c>
       <c r="BR3">
-        <v>0.0128146095409449</v>
+        <v>0.01282570162027758</v>
       </c>
       <c r="BS3">
-        <v>2.774470417119107E-05</v>
+        <v>1.926393704180971E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0005885582248448906</v>
+        <v>0.0005809358946407536</v>
       </c>
       <c r="BU3">
-        <v>0.008319330351185053</v>
+        <v>0.008323541509313951</v>
       </c>
       <c r="BV3">
-        <v>0.002714772614599075</v>
+        <v>0.002710404879506979</v>
       </c>
       <c r="BW3">
-        <v>0.0004412024486245406</v>
+        <v>0.0004333545610206754</v>
       </c>
       <c r="BX3">
-        <v>0.01685228871138802</v>
+        <v>0.01686956126384488</v>
       </c>
       <c r="BY3">
-        <v>0.01443163760920473</v>
+        <v>0.01444520487244754</v>
       </c>
       <c r="BZ3">
-        <v>0.005390390527545308</v>
+        <v>0.005390118359214083</v>
       </c>
       <c r="CA3">
-        <v>0.003389206843069062</v>
+        <v>0.003385871464052603</v>
       </c>
       <c r="CB3">
-        <v>0.003759347258693851</v>
+        <v>0.003756578453393226</v>
       </c>
       <c r="CC3">
-        <v>0.002107750088974749</v>
+        <v>0.002102453184860791</v>
       </c>
       <c r="CD3">
-        <v>0.002482299804785669</v>
+        <v>0.002477576223700738</v>
       </c>
       <c r="CE3">
-        <v>0.0009434572798262939</v>
+        <v>0.000936378193396245</v>
       </c>
       <c r="CF3">
-        <v>0.0009619231406057958</v>
+        <v>0.0009548723198579481</v>
       </c>
       <c r="CG3">
-        <v>0.008740597368968057</v>
+        <v>0.00874545336027255</v>
       </c>
       <c r="CH3">
-        <v>0.005858844247320211</v>
+        <v>0.005859289140821482</v>
       </c>
       <c r="CI3">
-        <v>0.0209874628859467</v>
+        <v>0.02101106514707302</v>
       </c>
       <c r="CJ3">
-        <v>0.003090787530471845</v>
+        <v>0.003086995361189646</v>
       </c>
       <c r="CK3">
-        <v>0.001761604974362877</v>
+        <v>0.00175577822612619</v>
       </c>
       <c r="CL3">
-        <v>0.001292036754540928</v>
+        <v>0.001285491238507181</v>
       </c>
       <c r="CM3">
-        <v>0.000457603939316899</v>
+        <v>0.0004497811574651606</v>
       </c>
       <c r="CN3">
-        <v>0.007190522303534523</v>
+        <v>0.007193005595850821</v>
       </c>
       <c r="CO3">
-        <v>0.01851293078148893</v>
+        <v>0.0185327452777828</v>
       </c>
       <c r="CP3">
-        <v>0.02106097788905</v>
+        <v>0.0210846926795482</v>
       </c>
       <c r="CQ3">
-        <v>0.03633823353395092</v>
+        <v>0.03638533321065199</v>
       </c>
       <c r="CR3">
-        <v>0.04278158580594505</v>
+        <v>0.04283854831816761</v>
       </c>
       <c r="CS3">
-        <v>0.009653779407516338</v>
+        <v>0.009660033206028507</v>
       </c>
       <c r="CT3">
-        <v>0.003119138631668635</v>
+        <v>0.003115389859400312</v>
       </c>
       <c r="CU3">
-        <v>0.0230674029737475</v>
+        <v>0.02309418899793916</v>
       </c>
       <c r="CV3">
-        <v>0.04866511605430734</v>
+        <v>0.0487310844828101</v>
       </c>
       <c r="CW3">
-        <v>0.03832485661781252</v>
+        <v>0.03837499721729604</v>
       </c>
       <c r="CX3">
-        <v>0.01118037447195871</v>
+        <v>0.01118896502863541</v>
       </c>
       <c r="CY3">
-        <v>0.005100826515321902</v>
+        <v>0.005100111111527994</v>
       </c>
       <c r="CZ3">
-        <v>0.001473975062221115</v>
+        <v>0.0014677080390476</v>
       </c>
       <c r="DA3">
-        <v>0.001977721783485846</v>
+        <v>0.001972225845121386</v>
       </c>
       <c r="DB3">
-        <v>6.676431681833143E-06</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00258821330925661</v>
+        <v>0.002583651849910489</v>
       </c>
       <c r="DD3">
-        <v>0.01948255582241985</v>
+        <v>0.01950385452319185</v>
       </c>
       <c r="DE3">
-        <v>0.02134967490123681</v>
+        <v>0.02137383160008124</v>
       </c>
       <c r="DF3">
-        <v>0.01185799950056339</v>
+        <v>0.01186762729747161</v>
       </c>
       <c r="DG3">
-        <v>0.01824653577024356</v>
+        <v>0.01826594249585088</v>
       </c>
       <c r="DH3">
-        <v>0.005328738824942796</v>
+        <v>0.005328372286386769</v>
       </c>
       <c r="DI3">
-        <v>9.100074384142711E-05</v>
+        <v>8.261680269465121E-05</v>
       </c>
       <c r="DJ3">
-        <v>0.002276106596081606</v>
+        <v>0.002271067395173755</v>
       </c>
       <c r="DK3">
-        <v>0.01023119643189092</v>
+        <v>0.01023833408230166</v>
       </c>
       <c r="DL3">
-        <v>0.001234053052093254</v>
+        <v>0.001227418780440378</v>
       </c>
       <c r="DM3">
-        <v>0.005185125218880414</v>
+        <v>0.005184538851062312</v>
       </c>
       <c r="DN3">
-        <v>0.0002256903295270974</v>
+        <v>0.0002175125576496707</v>
       </c>
       <c r="DO3">
-        <v>0.002630423611038439</v>
+        <v>0.002625926762976354</v>
       </c>
       <c r="DP3">
-        <v>0.01254022852936242</v>
+        <v>0.01255090061384254</v>
       </c>
       <c r="DQ3">
-        <v>0.006436444671702538</v>
+        <v>0.006437773697832657</v>
       </c>
       <c r="DR3">
-        <v>0.01046499244176019</v>
+        <v>0.0104724879635853</v>
       </c>
       <c r="DS3">
-        <v>7.083878299032744E-05</v>
+        <v>6.242397994197127E-05</v>
       </c>
       <c r="DT3">
-        <v>0.008491277358443476</v>
+        <v>0.008495751715754944</v>
       </c>
       <c r="DU3">
-        <v>0.011601482489735</v>
+        <v>0.01161071763620608</v>
       </c>
       <c r="DV3">
-        <v>0.01093298746151573</v>
+        <v>0.01094119934304149</v>
       </c>
       <c r="DW3">
-        <v>0.009781762412918902</v>
+        <v>0.009788212114941937</v>
       </c>
       <c r="DX3">
-        <v>0.006683546282133473</v>
+        <v>0.006685253546552902</v>
       </c>
       <c r="DY3">
-        <v>0.001165930049217568</v>
+        <v>0.001159191501724379</v>
       </c>
       <c r="DZ3">
-        <v>2.181644892094081E-05</v>
+        <v>1.332660741474525E-05</v>
       </c>
       <c r="EA3">
-        <v>0.001105100346649755</v>
+        <v>0.001098268687166732</v>
       </c>
       <c r="EB3">
-        <v>0.0008582272962284687</v>
+        <v>0.0008510177483128078</v>
       </c>
       <c r="EC3">
-        <v>0.003800443260428642</v>
+        <v>0.003797737360753628</v>
       </c>
       <c r="ED3">
-        <v>0.004028741870065844</v>
+        <v>0.004026385426937918</v>
       </c>
       <c r="EE3">
-        <v>0.00355156644992277</v>
+        <v>0.003548479594660739</v>
       </c>
       <c r="EF3">
-        <v>0.001672912970618909</v>
+        <v>0.001666950461584415</v>
       </c>
       <c r="EG3">
-        <v>0.0003726394957302831</v>
+        <v>0.0003646866588548712</v>
       </c>
       <c r="EH3">
-        <v>0.001504441863507215</v>
+        <v>0.001498221475848454</v>
       </c>
       <c r="EI3">
-        <v>0.0003427817544698941</v>
+        <v>0.0003347832143675494</v>
       </c>
       <c r="EJ3">
-        <v>0.0001711993172268607</v>
+        <v>0.0001629381359890529</v>
       </c>
       <c r="EK3">
-        <v>3.906026664885649E-05</v>
+        <v>3.059682024428411E-05</v>
       </c>
       <c r="EL3">
-        <v>0.0007048445697537023</v>
+        <v>0.0006974002389891142</v>
       </c>
       <c r="EM3">
-        <v>0.000922557438944046</v>
+        <v>0.0009154463611398884</v>
       </c>
       <c r="EN3">
-        <v>0.001847984578009231</v>
+        <v>0.001842290050980887</v>
       </c>
       <c r="EO3">
-        <v>4.196319977139841E-05</v>
+        <v>3.350419688484412E-05</v>
       </c>
       <c r="EP3">
-        <v>0.000106686948503591</v>
+        <v>9.832701822103747E-05</v>
       </c>
       <c r="EQ3">
-        <v>0.00258821330925661</v>
+        <v>0.002583651849910489</v>
       </c>
       <c r="ER3">
-        <v>0.003337316140878592</v>
+        <v>0.003333901332794903</v>
       </c>
       <c r="ES3">
-        <v>0.003353552341563973</v>
+        <v>0.003350162386223095</v>
       </c>
       <c r="ET3">
-        <v>0.001668538870434264</v>
+        <v>0.001662569665967199</v>
       </c>
       <c r="EU3">
-        <v>9.16714378697392E-05</v>
+        <v>8.328852335391677E-05</v>
       </c>
       <c r="EV3">
-        <v>0.002244410694743622</v>
+        <v>0.002239322976938292</v>
       </c>
       <c r="EW3">
-        <v>0.003163387933536536</v>
+        <v>0.003159706893648478</v>
       </c>
       <c r="EX3">
-        <v>0.003919250465443867</v>
+        <v>0.00391672642388748</v>
       </c>
       <c r="EY3">
-        <v>0.00645052827229705</v>
+        <v>0.006451878856186291</v>
       </c>
       <c r="EZ3">
-        <v>0.004893715706579104</v>
+        <v>0.004892683278392439</v>
       </c>
       <c r="FA3">
-        <v>0.001998059784344377</v>
+        <v>0.001992594977345833</v>
       </c>
       <c r="FB3">
-        <v>0.0008882967874977964</v>
+        <v>0.000881133266934682</v>
       </c>
       <c r="FC3">
-        <v>0.0002776400517200583</v>
+        <v>0.0002695417992517447</v>
       </c>
       <c r="FD3">
-        <v>0.004347624183526866</v>
+        <v>0.004345755853368031</v>
       </c>
       <c r="FE3">
-        <v>0.004557161792372107</v>
+        <v>0.004555614201307514</v>
       </c>
       <c r="FF3">
-        <v>0.001926484681322967</v>
+        <v>0.001920910314356454</v>
       </c>
       <c r="FG3">
-        <v>0.003578698451068097</v>
+        <v>0.003575653126744213</v>
       </c>
       <c r="FH3">
-        <v>0.002925202823481995</v>
+        <v>0.002921157193786493</v>
       </c>
       <c r="FI3">
-        <v>0.003948852166693448</v>
+        <v>0.0039463734364437</v>
       </c>
       <c r="FJ3">
-        <v>0.004676369197404225</v>
+        <v>0.00467500407704419</v>
       </c>
       <c r="FK3">
-        <v>0.0005276123222721726</v>
+        <v>0.0005198967022109225</v>
       </c>
       <c r="FL3">
-        <v>0.002633123811152423</v>
+        <v>0.00262863109628506</v>
       </c>
       <c r="FM3">
-        <v>0.008354573852672792</v>
+        <v>0.008358838958008626</v>
       </c>
       <c r="FN3">
-        <v>0.009896795417774808</v>
+        <v>0.009903421200750512</v>
       </c>
       <c r="FO3">
-        <v>0.005901897249137612</v>
+        <v>0.005902408043843367</v>
       </c>
       <c r="FP3">
-        <v>0.003876531163640551</v>
+        <v>0.003873941731674096</v>
       </c>
       <c r="FQ3">
-        <v>0.0002325952198185745</v>
+        <v>0.0002244280172526434</v>
       </c>
       <c r="FR3">
-        <v>0.0003814971561041927</v>
+        <v>0.0003735578776442897</v>
       </c>
       <c r="FS3">
-        <v>0.0005928222950248904</v>
+        <v>0.0005852064918304623</v>
       </c>
       <c r="FT3">
-        <v>0.0007705890825289846</v>
+        <v>0.0007632453868513159</v>
       </c>
       <c r="FU3">
-        <v>0.003014116127235305</v>
+        <v>0.003010206597081404</v>
       </c>
       <c r="FV3">
-        <v>0.004699192698367678</v>
+        <v>0.004697862513927101</v>
       </c>
       <c r="FW3">
-        <v>0.01004553442405355</v>
+        <v>0.01005238788173841</v>
       </c>
       <c r="FX3">
-        <v>0.004362675584162234</v>
+        <v>0.004360830293173471</v>
       </c>
       <c r="FY3">
-        <v>0.0002093652988379666</v>
+        <v>0.000201162538245695</v>
       </c>
       <c r="FZ3">
-        <v>4.049873170957862E-05</v>
+        <v>3.203748716262606E-05</v>
       </c>
       <c r="GA3">
-        <v>6.157253859917017E-07</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0004819388203441507</v>
+        <v>0.0004741532878804444</v>
       </c>
       <c r="GC3">
-        <v>0.001033398243622984</v>
+        <v>0.001026456829773158</v>
       </c>
       <c r="GD3">
-        <v>0.004119448173894842</v>
+        <v>0.004117230574852675</v>
       </c>
       <c r="GE3">
-        <v>0.005901897249137612</v>
+        <v>0.005902408043843367</v>
       </c>
       <c r="GF3">
-        <v>0.003031575127972304</v>
+        <v>0.003027692322300531</v>
       </c>
       <c r="GG3">
-        <v>0.0007316921308870221</v>
+        <v>0.0007242888956684221</v>
       </c>
       <c r="GH3">
-        <v>0.0003125866531952641</v>
+        <v>0.0003045418934692119</v>
       </c>
       <c r="GI3">
-        <v>0.001296392154724783</v>
+        <v>0.001289853305499528</v>
       </c>
       <c r="GJ3">
-        <v>0.0008819809372311845</v>
+        <v>0.000874807748999793</v>
       </c>
       <c r="GK3">
-        <v>0.0003018242527409493</v>
+        <v>0.000293763019014871</v>
       </c>
       <c r="GL3">
-        <v>4.449138687812113E-06</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0003166321433660369</v>
+        <v>0.0003085935760694025</v>
       </c>
       <c r="GN3">
-        <v>0.001587141066998208</v>
+        <v>0.001581047266961443</v>
       </c>
       <c r="GO3">
-        <v>2.812023918704358E-07</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>6.270274264687962E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0006261709764326429</v>
+        <v>0.0006186062200451717</v>
       </c>
       <c r="GR3">
-        <v>0.0001725794672851211</v>
+        <v>0.0001643203986421933</v>
       </c>
       <c r="GS3">
-        <v>5.992480052961398E-05</v>
+        <v>5.149329145474387E-05</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.926112348353644E-05</v>
+        <v>4.045432212949408E-05</v>
       </c>
       <c r="C4">
-        <v>4.320692866990989E-05</v>
+        <v>3.439018223369062E-05</v>
       </c>
       <c r="D4">
-        <v>3.308122898162131E-05</v>
+        <v>2.424784929876912E-05</v>
       </c>
       <c r="E4">
-        <v>4.484312561954091E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.789851883332496E-05</v>
+        <v>2.907305239821587E-05</v>
       </c>
       <c r="G4">
-        <v>4.745364453917821E-05</v>
+        <v>3.864387408235868E-05</v>
       </c>
       <c r="H4">
-        <v>6.7649767917457E-05</v>
+        <v>5.887317315333241E-05</v>
       </c>
       <c r="I4">
-        <v>3.863328181070589E-05</v>
+        <v>2.980902235330656E-05</v>
       </c>
       <c r="J4">
-        <v>5.500354130676078E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.809882851931674E-07</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.873145726847437E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.06656906716654E-05</v>
+        <v>1.795489515868423E-06</v>
       </c>
       <c r="N4">
-        <v>5.380774534357239E-05</v>
+        <v>4.500841261738516E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001480068654437292</v>
+        <v>0.0001393622713771373</v>
       </c>
       <c r="P4">
-        <v>7.955078755109381E-05</v>
+        <v>7.079374230955466E-05</v>
       </c>
       <c r="Q4">
-        <v>5.231190838962052E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.048094267735272E-05</v>
+        <v>1.61043804040886E-06</v>
       </c>
       <c r="S4">
-        <v>5.660224825754589E-05</v>
+        <v>4.780750599499234E-05</v>
       </c>
       <c r="T4">
-        <v>1.521485953162294E-05</v>
+        <v>6.352131187577435E-06</v>
       </c>
       <c r="U4">
-        <v>9.480571708148324E-06</v>
+        <v>6.084237855484205E-07</v>
       </c>
       <c r="V4">
-        <v>2.117954834800486E-05</v>
+        <v>1.232661805675824E-05</v>
       </c>
       <c r="W4">
-        <v>0.0001207055862841769</v>
+        <v>0.0001120161450540669</v>
       </c>
       <c r="X4">
-        <v>3.949942278404244E-05</v>
+        <v>3.067658611586972E-05</v>
       </c>
       <c r="Y4">
-        <v>1.018072868659456E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.623216065325503E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5.096235843116531E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>7.569125766990629E-05</v>
+        <v>6.692787247020354E-05</v>
       </c>
       <c r="AC4">
-        <v>9.066165720905473E-05</v>
+        <v>8.192286352948329E-05</v>
       </c>
       <c r="AD4">
-        <v>1.06656906716654E-05</v>
+        <v>1.795489515868423E-06</v>
       </c>
       <c r="AE4">
-        <v>8.440118340177832E-10</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>6.274749306836953E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1.47550665457773E-05</v>
+        <v>5.891582910703108E-06</v>
       </c>
       <c r="AH4">
-        <v>6.739192792539439E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.263218261112855E-05</v>
+        <v>3.765211764983017E-06</v>
       </c>
       <c r="AJ4">
-        <v>1.230473262120883E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.424401802230024E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.342370897107835E-05</v>
+        <v>2.459089187197906E-05</v>
       </c>
       <c r="AM4">
-        <v>4.714195154877342E-08</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.601123419926535E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1.020671268579466E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.113164965732123E-05</v>
+        <v>2.262213921294524E-06</v>
       </c>
       <c r="AQ4">
-        <v>2.73465901581575E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.502309392184258E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.497494492332481E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.409978256594968E-07</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.195786863188676E-07</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>2.941645209443849E-05</v>
+        <v>2.057705236954518E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0003510780391923486</v>
+        <v>0.0003427670253247533</v>
       </c>
       <c r="AX4">
-        <v>0.02202447032199462</v>
+        <v>0.02205176167540136</v>
       </c>
       <c r="AY4">
-        <v>0.02722416916192613</v>
+        <v>0.02726000193724779</v>
       </c>
       <c r="AZ4">
-        <v>0.0001264557361071632</v>
+        <v>0.0001177757405117379</v>
       </c>
       <c r="BA4">
-        <v>0.007741844461673625</v>
+        <v>0.007745674084452963</v>
       </c>
       <c r="BB4">
-        <v>0.01183834063556633</v>
+        <v>0.01184889947541597</v>
       </c>
       <c r="BC4">
-        <v>0.001782310945133009</v>
+        <v>0.001776350983602193</v>
       </c>
       <c r="BD4">
-        <v>0.002602747319876544</v>
+        <v>0.002598135069712628</v>
       </c>
       <c r="BE4">
-        <v>0.02819586613201323</v>
+        <v>0.02823329509089291</v>
       </c>
       <c r="BF4">
-        <v>0.0460052485837659</v>
+        <v>0.04607193259264896</v>
       </c>
       <c r="BG4">
-        <v>0.001503996053700707</v>
+        <v>0.001497578910901107</v>
       </c>
       <c r="BH4">
-        <v>0.001506300153629777</v>
+        <v>0.001499886795720463</v>
       </c>
       <c r="BI4">
-        <v>0.001170208763976076</v>
+        <v>0.001163243316715171</v>
       </c>
       <c r="BJ4">
-        <v>2.202613332194343E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003853062681386604</v>
+        <v>0.0003770514801706472</v>
       </c>
       <c r="BL4">
-        <v>0.0002031505637461754</v>
+        <v>0.000194596552924431</v>
       </c>
       <c r="BM4">
-        <v>0.02542885721719334</v>
+        <v>0.02546174087617944</v>
       </c>
       <c r="BN4">
-        <v>0.01976776439146547</v>
+        <v>0.01979134870758333</v>
       </c>
       <c r="BO4">
-        <v>0.002145113933964415</v>
+        <v>0.002139749940295392</v>
       </c>
       <c r="BP4">
-        <v>7.400085772194388E-05</v>
+        <v>6.523469574235349E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.005700936324501319</v>
+        <v>0.00570141339590685</v>
       </c>
       <c r="BR4">
-        <v>0.001002635569134681</v>
+        <v>0.0009953948533624956</v>
       </c>
       <c r="BS4">
-        <v>0.003075979905308464</v>
+        <v>0.003072145023084596</v>
       </c>
       <c r="BT4">
-        <v>0.004501358861429334</v>
+        <v>0.004499865415397768</v>
       </c>
       <c r="BU4">
-        <v>0.00387652388066437</v>
+        <v>0.003874004033034902</v>
       </c>
       <c r="BV4">
-        <v>0.0008313690744069802</v>
+        <v>0.0008238470232274199</v>
       </c>
       <c r="BW4">
-        <v>0.01028774468330016</v>
+        <v>0.01029575639596886</v>
       </c>
       <c r="BX4">
-        <v>0.009118237219302494</v>
+        <v>0.009124327809808132</v>
       </c>
       <c r="BY4">
-        <v>0.008679406732811534</v>
+        <v>0.008684776466888821</v>
       </c>
       <c r="BZ4">
-        <v>0.001622160250063118</v>
+        <v>0.001615937212785288</v>
       </c>
       <c r="CA4">
-        <v>0.003453478893687465</v>
+        <v>0.003450264120095167</v>
       </c>
       <c r="CB4">
-        <v>0.0003184874901956221</v>
+        <v>0.0003101229406064418</v>
       </c>
       <c r="CC4">
-        <v>0.001012772068822637</v>
+        <v>0.001005548004037988</v>
       </c>
       <c r="CD4">
-        <v>0.0002831371612838531</v>
+        <v>0.0002747145425481007</v>
       </c>
       <c r="CE4">
-        <v>0.0001653461049099548</v>
+        <v>0.0001567299936006387</v>
       </c>
       <c r="CF4">
-        <v>0.005254337838249489</v>
+        <v>0.005254081292917768</v>
       </c>
       <c r="CG4">
-        <v>0.01623411750024592</v>
+        <v>0.0162518971784558</v>
       </c>
       <c r="CH4">
-        <v>0.01560222751969813</v>
+        <v>0.01561896920722937</v>
       </c>
       <c r="CI4">
-        <v>0.002411471125764826</v>
+        <v>0.002406544670735112</v>
       </c>
       <c r="CJ4">
-        <v>0.005189960840231283</v>
+        <v>0.005189598544332343</v>
       </c>
       <c r="CK4">
-        <v>0.007145861780020466</v>
+        <v>0.007148712396189095</v>
       </c>
       <c r="CL4">
-        <v>3.193783901681964E-05</v>
+        <v>2.310258111440064E-05</v>
       </c>
       <c r="CM4">
-        <v>0.005633870826565877</v>
+        <v>0.005634237731069162</v>
       </c>
       <c r="CN4">
-        <v>0.0133984185875406</v>
+        <v>0.01341154013042713</v>
       </c>
       <c r="CO4">
-        <v>0.04323720466897787</v>
+        <v>0.04329934167779746</v>
       </c>
       <c r="CP4">
-        <v>0.02993724907840617</v>
+        <v>0.02997753856573538</v>
       </c>
       <c r="CQ4">
-        <v>0.042671000686408</v>
+        <v>0.04273220760537932</v>
       </c>
       <c r="CR4">
-        <v>0.01900665441489563</v>
+        <v>0.01902898847371327</v>
       </c>
       <c r="CS4">
-        <v>0.001475061854591422</v>
+        <v>0.001468597182269446</v>
       </c>
       <c r="CT4">
-        <v>0.02227234031436415</v>
+        <v>0.02230003883792632</v>
       </c>
       <c r="CU4">
-        <v>0.03378408895998435</v>
+        <v>0.03383069755991588</v>
       </c>
       <c r="CV4">
-        <v>0.04349333666109306</v>
+        <v>0.04355589441185903</v>
       </c>
       <c r="CW4">
-        <v>0.02046123937011741</v>
+        <v>0.02048596284112913</v>
       </c>
       <c r="CX4">
-        <v>0.01205906562877149</v>
+        <v>0.01206998704833049</v>
       </c>
       <c r="CY4">
-        <v>0.005696647124633358</v>
+        <v>0.005697117150272032</v>
       </c>
       <c r="CZ4">
-        <v>0.002367922227105443</v>
+        <v>0.002362924235333155</v>
       </c>
       <c r="DA4">
-        <v>0.000371825428553657</v>
+        <v>0.0003635484959303075</v>
       </c>
       <c r="DB4">
-        <v>0.004273048468457684</v>
+        <v>0.004271179982360536</v>
       </c>
       <c r="DC4">
-        <v>0.01969509739370247</v>
+        <v>0.01971856234146722</v>
       </c>
       <c r="DD4">
-        <v>0.01854550642909169</v>
+        <v>0.01856708297105437</v>
       </c>
       <c r="DE4">
-        <v>0.01705355947502006</v>
+        <v>0.01707268523111961</v>
       </c>
       <c r="DF4">
-        <v>0.02095369735495749</v>
+        <v>0.02097922977501672</v>
       </c>
       <c r="DG4">
-        <v>0.01125523165351686</v>
+        <v>0.01126483263407669</v>
       </c>
       <c r="DH4">
-        <v>0.001006400169018791</v>
+        <v>0.0009991656372655153</v>
       </c>
       <c r="DI4">
-        <v>0.001854912042898044</v>
+        <v>0.001849071341467973</v>
       </c>
       <c r="DJ4">
-        <v>0.008954759724335017</v>
+        <v>0.008960581774238382</v>
       </c>
       <c r="DK4">
-        <v>0.001994724338594036</v>
+        <v>0.001989113303504881</v>
       </c>
       <c r="DL4">
-        <v>0.006479386500537364</v>
+        <v>0.006481142313577355</v>
       </c>
       <c r="DM4">
-        <v>0.002231232931313312</v>
+        <v>0.002226010403277951</v>
       </c>
       <c r="DN4">
-        <v>0.005441084832500636</v>
+        <v>0.005441135052025562</v>
       </c>
       <c r="DO4">
-        <v>0.01305719159804499</v>
+        <v>0.01306975261545192</v>
       </c>
       <c r="DP4">
-        <v>0.0081852287480244</v>
+        <v>0.008189786707651074</v>
       </c>
       <c r="DQ4">
-        <v>0.0128903296031817</v>
+        <v>0.01290261652034868</v>
       </c>
       <c r="DR4">
-        <v>0.0002051673636840898</v>
+        <v>0.0001966166658117523</v>
       </c>
       <c r="DS4">
-        <v>0.007295357275418369</v>
+        <v>0.007298453464290319</v>
       </c>
       <c r="DT4">
-        <v>0.008444935740029533</v>
+        <v>0.008449920314170098</v>
       </c>
       <c r="DU4">
-        <v>0.01670633348570913</v>
+        <v>0.01672488886191442</v>
       </c>
       <c r="DV4">
-        <v>0.01917350440975929</v>
+        <v>0.01919611254910476</v>
       </c>
       <c r="DW4">
-        <v>0.006926452086774814</v>
+        <v>0.006928942283846121</v>
       </c>
       <c r="DX4">
-        <v>0.005144238841638797</v>
+        <v>0.005143801439297581</v>
       </c>
       <c r="DY4">
-        <v>9.198594716828755E-05</v>
+        <v>8.324932886841169E-05</v>
       </c>
       <c r="DZ4">
-        <v>0.000997082869305616</v>
+        <v>0.0009898330322451665</v>
       </c>
       <c r="EA4">
-        <v>0.0001159956924291671</v>
+        <v>0.0001072985143681697</v>
       </c>
       <c r="EB4">
-        <v>0.002753331215240941</v>
+        <v>0.002748966325669147</v>
       </c>
       <c r="EC4">
-        <v>0.005172860840757692</v>
+        <v>0.005172470455095336</v>
       </c>
       <c r="ED4">
-        <v>0.002480988323624795</v>
+        <v>0.002476176062846623</v>
       </c>
       <c r="EE4">
-        <v>0.003122267403883541</v>
+        <v>0.003118508557035353</v>
       </c>
       <c r="EF4">
-        <v>0.001232042262072582</v>
+        <v>0.001225178387231922</v>
       </c>
       <c r="EG4">
-        <v>0.0009808960698039135</v>
+        <v>0.0009736196430719748</v>
       </c>
       <c r="EH4">
-        <v>0.001800745544565515</v>
+        <v>0.001794815865113802</v>
       </c>
       <c r="EI4">
-        <v>0.0001582951951270113</v>
+        <v>0.0001496675014554865</v>
       </c>
       <c r="EJ4">
-        <v>4.484312561954091E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>5.045859844667315E-06</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0004013519376447075</v>
+        <v>0.0003931235075172881</v>
       </c>
       <c r="EM4">
-        <v>0.001763032345726485</v>
+        <v>0.001757040715697833</v>
       </c>
       <c r="EN4">
-        <v>3.987356877252467E-05</v>
+        <v>3.105134670509014E-05</v>
       </c>
       <c r="EO4">
-        <v>0.0004511961461102942</v>
+        <v>0.0004430495938815043</v>
       </c>
       <c r="EP4">
-        <v>0.002638084518788717</v>
+        <v>0.002633530316203034</v>
       </c>
       <c r="EQ4">
-        <v>0.003178793102143444</v>
+        <v>0.003175127108718644</v>
       </c>
       <c r="ER4">
-        <v>0.005942604817061751</v>
+        <v>0.005943478871566121</v>
       </c>
       <c r="ES4">
-        <v>0.001874462942296185</v>
+        <v>0.001868654356664686</v>
       </c>
       <c r="ET4">
-        <v>0.0003320543497779773</v>
+        <v>0.0003237120861471421</v>
       </c>
       <c r="EU4">
-        <v>0.0005260277338066647</v>
+        <v>0.0005180041056515096</v>
       </c>
       <c r="EV4">
-        <v>0.002270680930098937</v>
+        <v>0.002265523202355229</v>
       </c>
       <c r="EW4">
-        <v>0.004809284851950083</v>
+        <v>0.004808297228637212</v>
       </c>
       <c r="EX4">
-        <v>0.006572141797681967</v>
+        <v>0.00657404997764784</v>
       </c>
       <c r="EY4">
-        <v>0.00796817675470617</v>
+        <v>0.007972378168173254</v>
       </c>
       <c r="EZ4">
-        <v>0.005445466232365757</v>
+        <v>0.005445523649112287</v>
       </c>
       <c r="FA4">
-        <v>0.001825190343813002</v>
+        <v>0.001819300819253029</v>
       </c>
       <c r="FB4">
-        <v>0.0001262043361149023</v>
+        <v>0.0001175239275506745</v>
       </c>
       <c r="FC4">
-        <v>0.002367797227109291</v>
+        <v>0.002362799030002475</v>
       </c>
       <c r="FD4">
-        <v>0.005318924136261253</v>
+        <v>0.005318773685308884</v>
       </c>
       <c r="FE4">
-        <v>0.003638545887990329</v>
+        <v>0.003635635119558623</v>
       </c>
       <c r="FF4">
-        <v>0.004177822171389148</v>
+        <v>0.00417579725931317</v>
       </c>
       <c r="FG4">
-        <v>0.004231737869729396</v>
+        <v>0.004229801523691863</v>
       </c>
       <c r="FH4">
-        <v>0.007246403276925378</v>
+        <v>0.007249419050225498</v>
       </c>
       <c r="FI4">
-        <v>0.005003228845979675</v>
+        <v>0.005002559809864231</v>
       </c>
       <c r="FJ4">
-        <v>0.0004911511848803108</v>
+        <v>0.0004830702658457246</v>
       </c>
       <c r="FK4">
-        <v>0.0004069754874715912</v>
+        <v>0.0003987562950160465</v>
       </c>
       <c r="FL4">
-        <v>0.007922296756118549</v>
+        <v>0.007926422803600513</v>
       </c>
       <c r="FM4">
-        <v>0.01210911862723065</v>
+        <v>0.01212012226766264</v>
       </c>
       <c r="FN4">
-        <v>0.006125800111422234</v>
+        <v>0.006126975096490109</v>
       </c>
       <c r="FO4">
-        <v>0.005539363529475206</v>
+        <v>0.005539575189083866</v>
       </c>
       <c r="FP4">
-        <v>0.001949886339974337</v>
+        <v>0.001944201650568689</v>
       </c>
       <c r="FQ4">
-        <v>0.0007137709780271419</v>
+        <v>0.0007060557512448219</v>
       </c>
       <c r="FR4">
-        <v>0.0008842006727806026</v>
+        <v>0.0008767654068141943</v>
       </c>
       <c r="FS4">
-        <v>0.000141780525635402</v>
+        <v>0.0001331257037081348</v>
       </c>
       <c r="FT4">
-        <v>0.002709741416582818</v>
+        <v>0.002705304923082992</v>
       </c>
       <c r="FU4">
-        <v>0.005753372822887104</v>
+        <v>0.005753936030484411</v>
       </c>
       <c r="FV4">
-        <v>0.01008196368963496</v>
+        <v>0.01008963737074779</v>
       </c>
       <c r="FW4">
-        <v>0.004079874474404388</v>
+        <v>0.004077688665970506</v>
       </c>
       <c r="FX4">
-        <v>0.001200881963031827</v>
+        <v>0.00119396690190725</v>
       </c>
       <c r="FY4">
-        <v>0.0001220141062438951</v>
+        <v>0.0001133268144884767</v>
       </c>
       <c r="FZ4">
-        <v>1.777537945279942E-05</v>
+        <v>8.916857214076859E-06</v>
       </c>
       <c r="GA4">
-        <v>0.0001166362164094491</v>
+        <v>0.0001079400905219969</v>
       </c>
       <c r="GB4">
-        <v>0.0015164052533187</v>
+        <v>0.001510008494816888</v>
       </c>
       <c r="GC4">
-        <v>0.004865738450212205</v>
+        <v>0.004864843561885766</v>
       </c>
       <c r="GD4">
-        <v>0.005672764825368556</v>
+        <v>0.005673195620120866</v>
       </c>
       <c r="GE4">
-        <v>0.002628057919097378</v>
+        <v>0.002623487246054276</v>
       </c>
       <c r="GF4">
-        <v>0.0009276957714416413</v>
+        <v>0.0009203319538418273</v>
       </c>
       <c r="GG4">
-        <v>0.0004001629876813084</v>
+        <v>0.0003919326044939934</v>
       </c>
       <c r="GH4">
-        <v>0.00118993046336896</v>
+        <v>0.001182997412475725</v>
       </c>
       <c r="GI4">
-        <v>0.0007653774764384778</v>
+        <v>0.0007577470224266687</v>
       </c>
       <c r="GJ4">
-        <v>0.0007441665770914381</v>
+        <v>0.0007365012804385271</v>
       </c>
       <c r="GK4">
-        <v>1.752586546048051E-05</v>
+        <v>8.666933351042797E-06</v>
       </c>
       <c r="GL4">
-        <v>0.0004703175855216562</v>
+        <v>0.000462202443627707</v>
       </c>
       <c r="GM4">
-        <v>0.0009789564698636224</v>
+        <v>0.0009716768569968812</v>
       </c>
       <c r="GN4">
-        <v>0.0001039326268005187</v>
+        <v>9.521563302782466E-05</v>
       </c>
       <c r="GO4">
-        <v>0.0002266875730216077</v>
+        <v>0.0002181722258865548</v>
       </c>
       <c r="GP4">
-        <v>0.0006603334796721717</v>
+        <v>0.0006525304723791763</v>
       </c>
       <c r="GQ4">
-        <v>0.0002706625616678735</v>
+        <v>0.0002622194512033076</v>
       </c>
       <c r="GR4">
-        <v>0.0001045389867818524</v>
+        <v>9.582298906231304E-05</v>
       </c>
       <c r="GS4">
-        <v>0.0002854737612119228</v>
+        <v>0.0002770549807534335</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>8.819739289427329E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.342399776662782E-06</v>
+        <v>2.990337045786211E-06</v>
       </c>
       <c r="D5">
-        <v>1.446469549064944E-05</v>
+        <v>1.111778767618731E-05</v>
       </c>
       <c r="E5">
-        <v>1.494367747378288E-05</v>
+        <v>1.159707365121835E-05</v>
       </c>
       <c r="F5">
-        <v>3.764341867444868E-08</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.964433330825698E-05</v>
+        <v>1.630071281562441E-05</v>
       </c>
       <c r="H5">
-        <v>1.490851547502105E-05</v>
+        <v>1.156188933645487E-05</v>
       </c>
       <c r="I5">
-        <v>1.719490239450968E-05</v>
+        <v>1.38497273399567E-05</v>
       </c>
       <c r="J5">
-        <v>1.814788736095188E-07</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.353959381895815E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.256633285322994E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6.477938571890006E-06</v>
+        <v>3.125961862402574E-06</v>
       </c>
       <c r="N5">
-        <v>1.820913635879509E-05</v>
+        <v>1.486460500049434E-05</v>
       </c>
       <c r="O5">
-        <v>1.944788831517447E-05</v>
+        <v>1.610414314627364E-05</v>
       </c>
       <c r="P5">
-        <v>3.256633285322994E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.13904175989051E-05</v>
+        <v>8.041558655584236E-06</v>
       </c>
       <c r="R5">
-        <v>2.507787711692364E-05</v>
+        <v>2.17377050907289E-05</v>
       </c>
       <c r="S5">
-        <v>6.319499977469161E-06</v>
+        <v>2.967422712949036E-06</v>
       </c>
       <c r="T5">
-        <v>7.673044229806318E-05</v>
+        <v>7.34230522174508E-05</v>
       </c>
       <c r="U5">
-        <v>3.879287863397233E-06</v>
+        <v>5.256618877830434E-07</v>
       </c>
       <c r="V5">
-        <v>1.869819134157382E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.510504246810067E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.362418416811305E-05</v>
+        <v>2.028308953753314E-05</v>
       </c>
       <c r="Y5">
-        <v>3.985446559659029E-06</v>
+        <v>6.318879589872404E-07</v>
       </c>
       <c r="Z5">
-        <v>2.473165712911521E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.540742304891837E-05</v>
+        <v>5.208650004783582E-05</v>
       </c>
       <c r="AB5">
-        <v>3.376544481100517E-05</v>
+        <v>3.043078645814673E-05</v>
       </c>
       <c r="AC5">
-        <v>5.517261805718664E-06</v>
+        <v>2.164675390723666E-06</v>
       </c>
       <c r="AD5">
-        <v>1.007506564522307E-05</v>
+        <v>6.725371897357336E-06</v>
       </c>
       <c r="AE5">
-        <v>1.16505575897447E-07</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.886137133582771E-05</v>
+        <v>1.55172539266009E-05</v>
       </c>
       <c r="AG5">
-        <v>2.389691815850918E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.59389354387365E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.839923935210093E-05</v>
+        <v>1.505482864503907E-05</v>
       </c>
       <c r="AJ5">
-        <v>9.905856651181487E-06</v>
+        <v>6.55605551271443E-06</v>
       </c>
       <c r="AK5">
-        <v>8.499398700707597E-06</v>
+        <v>5.148704936136984E-06</v>
       </c>
       <c r="AL5">
-        <v>1.964433330825698E-05</v>
+        <v>1.630071281562441E-05</v>
       </c>
       <c r="AM5">
-        <v>2.343418617480353E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.062642421727341E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.628309942661733E-05</v>
+        <v>1.293734568492324E-05</v>
       </c>
       <c r="AP5">
-        <v>1.869819134157382E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>7.539669434502893E-06</v>
+        <v>4.1883665657674E-06</v>
       </c>
       <c r="AR5">
-        <v>4.59531413818354E-06</v>
+        <v>1.242142597587113E-06</v>
       </c>
       <c r="AS5">
-        <v>2.10855812575058E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.646289442028614E-05</v>
+        <v>1.311725478773025E-05</v>
       </c>
       <c r="AU5">
-        <v>4.59531413818354E-06</v>
+        <v>1.242142597587113E-06</v>
       </c>
       <c r="AV5">
-        <v>4.522922840732681E-05</v>
+        <v>4.190184568789926E-05</v>
       </c>
       <c r="AW5">
-        <v>0.007120336149269027</v>
+        <v>0.007121499071518108</v>
       </c>
       <c r="AX5">
-        <v>0.01914432932586381</v>
+        <v>0.01915312342555036</v>
       </c>
       <c r="AY5">
-        <v>0.01793564236842574</v>
+        <v>0.01794366935983943</v>
       </c>
       <c r="AZ5">
-        <v>0.008280637708410908</v>
+        <v>0.008282537030535534</v>
       </c>
       <c r="BA5">
-        <v>0.04523770840702821</v>
+        <v>0.04526306299562947</v>
       </c>
       <c r="BB5">
-        <v>0.002397497615576049</v>
+        <v>0.002395663129366076</v>
       </c>
       <c r="BC5">
-        <v>0.001757289938119914</v>
+        <v>0.001755049136111873</v>
       </c>
       <c r="BD5">
-        <v>0.0006549464069371352</v>
+        <v>0.0006520059888398344</v>
       </c>
       <c r="BE5">
-        <v>0.01259337255654502</v>
+        <v>0.01259800900970286</v>
       </c>
       <c r="BF5">
-        <v>0.04698697834543053</v>
+        <v>0.04701344313004487</v>
       </c>
       <c r="BG5">
-        <v>0.01213502857268485</v>
+        <v>0.01213937413210907</v>
       </c>
       <c r="BH5">
-        <v>0.0004132138954493496</v>
+        <v>0.0004101200587946298</v>
       </c>
       <c r="BI5">
-        <v>0.0002795060901576509</v>
+        <v>0.0002763273941744227</v>
       </c>
       <c r="BJ5">
-        <v>0.00496942812500973</v>
+        <v>0.004969225946618471</v>
       </c>
       <c r="BK5">
-        <v>2.55807270992166E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0001377178551504913</v>
+        <v>0.000134449171493119</v>
       </c>
       <c r="BM5">
-        <v>0.0143049844962734</v>
+        <v>0.01431070724532516</v>
       </c>
       <c r="BN5">
-        <v>0.008949668684852079</v>
+        <v>0.008951992615841446</v>
       </c>
       <c r="BO5">
-        <v>0.009151689677738242</v>
+        <v>0.00915414182387379</v>
       </c>
       <c r="BP5">
-        <v>0.001015619964236607</v>
+        <v>0.001012908452116907</v>
       </c>
       <c r="BQ5">
-        <v>0.0003991878859432525</v>
+        <v>0.0003960851475064285</v>
       </c>
       <c r="BR5">
-        <v>8.764606691368734E-05</v>
+        <v>8.434560457056277E-05</v>
       </c>
       <c r="BS5">
-        <v>8.806253689902202E-05</v>
+        <v>8.476233887377495E-05</v>
       </c>
       <c r="BT5">
-        <v>0.004439655543664803</v>
+        <v>0.004439117138488452</v>
       </c>
       <c r="BU5">
-        <v>0.001565696644866558</v>
+        <v>0.001563334245782141</v>
       </c>
       <c r="BV5">
-        <v>0.0001742032938657164</v>
+        <v>0.0001709577661476923</v>
       </c>
       <c r="BW5">
-        <v>0.00498517722445515</v>
+        <v>0.004984985041426545</v>
       </c>
       <c r="BX5">
-        <v>0.01170254758791396</v>
+        <v>0.01170661866787993</v>
       </c>
       <c r="BY5">
-        <v>0.01600353143646186</v>
+        <v>0.0160103321895424</v>
       </c>
       <c r="BZ5">
-        <v>0.01015333164246706</v>
+        <v>0.01015641949318505</v>
       </c>
       <c r="CA5">
-        <v>0.01185749258245782</v>
+        <v>0.01186166200019969</v>
       </c>
       <c r="CB5">
-        <v>0.0003548555675043425</v>
+        <v>0.0003517246930079538</v>
       </c>
       <c r="CC5">
-        <v>0.0004758142532449805</v>
+        <v>0.0004727601466891531</v>
       </c>
       <c r="CD5">
-        <v>0.001260266955621764</v>
+        <v>0.001257710711770549</v>
       </c>
       <c r="CE5">
-        <v>0.004102677455530935</v>
+        <v>0.004101925183002422</v>
       </c>
       <c r="CF5">
-        <v>0.004982015424566489</v>
+        <v>0.004981821234862098</v>
       </c>
       <c r="CG5">
-        <v>0.01814897136091371</v>
+        <v>0.01815713374423675</v>
       </c>
       <c r="CH5">
-        <v>0.02308258918718444</v>
+        <v>0.023093882752677</v>
       </c>
       <c r="CI5">
-        <v>0.006341060776709933</v>
+        <v>0.00634172912211143</v>
       </c>
       <c r="CJ5">
-        <v>0.004036650857855952</v>
+        <v>0.004035856680722616</v>
       </c>
       <c r="CK5">
-        <v>0.001964666830817476</v>
+        <v>0.001962557643144322</v>
       </c>
       <c r="CL5">
-        <v>0.0003777354266986657</v>
+        <v>0.0003746190731906618</v>
       </c>
       <c r="CM5">
-        <v>0.003506036376540672</v>
+        <v>0.003504905438299913</v>
       </c>
       <c r="CN5">
-        <v>0.02259048320451314</v>
+        <v>0.02260146444879788</v>
       </c>
       <c r="CO5">
-        <v>0.04419814644363468</v>
+        <v>0.04422284126125276</v>
       </c>
       <c r="CP5">
-        <v>0.03374171881184065</v>
+        <v>0.03375977732707164</v>
       </c>
       <c r="CQ5">
-        <v>0.03680767370387807</v>
+        <v>0.03682767806567207</v>
       </c>
       <c r="CR5">
-        <v>0.008665825694847144</v>
+        <v>0.008667969481337983</v>
       </c>
       <c r="CS5">
-        <v>0.002425539414588603</v>
+        <v>0.002423722725456588</v>
       </c>
       <c r="CT5">
-        <v>0.02709885804575811</v>
+        <v>0.02711270058644105</v>
       </c>
       <c r="CU5">
-        <v>0.04795699431127301</v>
+        <v>0.04798407472863463</v>
       </c>
       <c r="CV5">
-        <v>0.03461094078123242</v>
+        <v>0.03462955095904201</v>
       </c>
       <c r="CW5">
-        <v>0.01572145044639488</v>
+        <v>0.01572807217325216</v>
       </c>
       <c r="CX5">
-        <v>0.01036750963492513</v>
+        <v>0.01037073341638091</v>
       </c>
       <c r="CY5">
-        <v>0.002997125394461139</v>
+        <v>0.002995671469509801</v>
       </c>
       <c r="CZ5">
-        <v>0.001156692659268963</v>
+        <v>0.001154070680697026</v>
       </c>
       <c r="DA5">
-        <v>0.0001009819564440858</v>
+        <v>9.7689957889804E-05</v>
       </c>
       <c r="DB5">
-        <v>0.006556739769115151</v>
+        <v>0.006557544997882798</v>
       </c>
       <c r="DC5">
-        <v>0.01911224532699359</v>
+        <v>0.01912101906416957</v>
       </c>
       <c r="DD5">
-        <v>0.01915173732560295</v>
+        <v>0.01916053612686905</v>
       </c>
       <c r="DE5">
-        <v>0.01900876933063733</v>
+        <v>0.0190174773954799</v>
       </c>
       <c r="DF5">
-        <v>0.01707979939856284</v>
+        <v>0.01708728321854707</v>
       </c>
       <c r="DG5">
-        <v>0.005981824189359861</v>
+        <v>0.005982264540774682</v>
       </c>
       <c r="DH5">
-        <v>0.0007696317328986794</v>
+        <v>0.0007667641012758078</v>
       </c>
       <c r="DI5">
-        <v>0.001992448129839203</v>
+        <v>0.001990356573914434</v>
       </c>
       <c r="DJ5">
-        <v>0.009406087668780032</v>
+        <v>0.009408701271777778</v>
       </c>
       <c r="DK5">
-        <v>0.005343541311835946</v>
+        <v>0.005343576569051016</v>
       </c>
       <c r="DL5">
-        <v>0.006376635775457217</v>
+        <v>0.006377326698975966</v>
       </c>
       <c r="DM5">
-        <v>0.0005867166793397333</v>
+        <v>0.0005837329583936899</v>
       </c>
       <c r="DN5">
-        <v>0.005658511800744777</v>
+        <v>0.005658746957914306</v>
       </c>
       <c r="DO5">
-        <v>0.008934480685386898</v>
+        <v>0.008936794977122723</v>
       </c>
       <c r="DP5">
-        <v>0.008442178702722507</v>
+        <v>0.008444180548856661</v>
       </c>
       <c r="DQ5">
-        <v>0.009504995665297149</v>
+        <v>0.009507672041490148</v>
       </c>
       <c r="DR5">
-        <v>1.175464108607957E-05</v>
+        <v>8.406013301743635E-06</v>
       </c>
       <c r="DS5">
-        <v>0.004909866327107101</v>
+        <v>0.004909626347076934</v>
       </c>
       <c r="DT5">
-        <v>0.008864634687846411</v>
+        <v>0.008866904650947588</v>
       </c>
       <c r="DU5">
-        <v>0.01571587944659105</v>
+        <v>0.01572249763774373</v>
       </c>
       <c r="DV5">
-        <v>0.01277223055024682</v>
+        <v>0.01277698051786413</v>
       </c>
       <c r="DW5">
-        <v>0.005718417298635302</v>
+        <v>0.00571869047557723</v>
       </c>
       <c r="DX5">
-        <v>0.003469151977839497</v>
+        <v>0.003467997630454452</v>
       </c>
       <c r="DY5">
-        <v>1.988232629987645E-05</v>
+        <v>1.653885685246831E-05</v>
       </c>
       <c r="DZ5">
-        <v>0.0008099948714773575</v>
+        <v>0.0008071528568244812</v>
       </c>
       <c r="EA5">
-        <v>0.001467718848316685</v>
+        <v>0.001465294266400041</v>
       </c>
       <c r="EB5">
-        <v>0.003398557880325352</v>
+        <v>0.003397358729514668</v>
       </c>
       <c r="EC5">
-        <v>0.003002989894254631</v>
+        <v>0.003001539691281329</v>
       </c>
       <c r="ED5">
-        <v>0.002866689499054226</v>
+        <v>0.002865152791332851</v>
       </c>
       <c r="EE5">
-        <v>0.002706564604692761</v>
+        <v>0.002704926271707377</v>
       </c>
       <c r="EF5">
-        <v>0.0006231413780570973</v>
+        <v>0.0006201807745010039</v>
       </c>
       <c r="EG5">
-        <v>0.0004512280841107422</v>
+        <v>0.0004481583736356165</v>
       </c>
       <c r="EH5">
-        <v>0.0001357334952203673</v>
+        <v>0.0001324635521641827</v>
       </c>
       <c r="EI5">
-        <v>1.581769644300573E-05</v>
+        <v>1.247164732749567E-05</v>
       </c>
       <c r="EJ5">
-        <v>7.665386730075964E-05</v>
+        <v>7.334642862086887E-05</v>
       </c>
       <c r="EK5">
-        <v>9.135998678290774E-05</v>
+        <v>8.806188152541141E-05</v>
       </c>
       <c r="EL5">
-        <v>0.0006627330766629404</v>
+        <v>0.000659797600472829</v>
       </c>
       <c r="EM5">
-        <v>0.001242282956255041</v>
+        <v>0.001239715298634025</v>
       </c>
       <c r="EN5">
-        <v>0.000167439934103877</v>
+        <v>0.0001641901139351123</v>
       </c>
       <c r="EO5">
-        <v>0.0004709648334157449</v>
+        <v>0.0004679076491150584</v>
       </c>
       <c r="EP5">
-        <v>0.00157737594445529</v>
+        <v>0.00157502095778422</v>
       </c>
       <c r="EQ5">
-        <v>0.002867176599037073</v>
+        <v>0.002865640200459786</v>
       </c>
       <c r="ER5">
-        <v>0.004508299141247631</v>
+        <v>0.004507804301587777</v>
       </c>
       <c r="ES5">
-        <v>0.001600136943653799</v>
+        <v>0.001597796402535133</v>
       </c>
       <c r="ET5">
-        <v>0.0001697570040222852</v>
+        <v>0.0001665086544108821</v>
       </c>
       <c r="EU5">
-        <v>0.0006433482773455443</v>
+        <v>0.0006404004983504488</v>
       </c>
       <c r="EV5">
-        <v>0.001627730242682146</v>
+        <v>0.001625407213995322</v>
       </c>
       <c r="EW5">
-        <v>0.00528889461376024</v>
+        <v>0.005288895188765892</v>
       </c>
       <c r="EX5">
-        <v>0.006762783261859666</v>
+        <v>0.006763719258703266</v>
       </c>
       <c r="EY5">
-        <v>0.008669962694701466</v>
+        <v>0.008672109106790929</v>
       </c>
       <c r="EZ5">
-        <v>0.004424211444208642</v>
+        <v>0.004423663237241689</v>
       </c>
       <c r="FA5">
-        <v>0.0009386559669467678</v>
+        <v>0.0009358956086649827</v>
       </c>
       <c r="FB5">
-        <v>0.0004334057547383263</v>
+        <v>0.0004303247330992809</v>
       </c>
       <c r="FC5">
-        <v>0.003807033465941553</v>
+        <v>0.003806093559262742</v>
       </c>
       <c r="FD5">
-        <v>0.004390459845397148</v>
+        <v>0.004389890217556485</v>
       </c>
       <c r="FE5">
-        <v>0.003114020390344874</v>
+        <v>0.003112640654262578</v>
       </c>
       <c r="FF5">
-        <v>0.002428624914479952</v>
+        <v>0.002426810183598978</v>
       </c>
       <c r="FG5">
-        <v>0.002934453396668031</v>
+        <v>0.002932959696150581</v>
       </c>
       <c r="FH5">
-        <v>0.00767273942981705</v>
+        <v>0.007674252941707109</v>
       </c>
       <c r="FI5">
-        <v>0.004232284450967037</v>
+        <v>0.004231614435136841</v>
       </c>
       <c r="FJ5">
-        <v>0.0006390599074965523</v>
+        <v>0.0006361094068339745</v>
       </c>
       <c r="FK5">
-        <v>0.001520832046446391</v>
+        <v>0.001518441173484272</v>
       </c>
       <c r="FL5">
-        <v>0.0104841226308188</v>
+        <v>0.01048742042216881</v>
       </c>
       <c r="FM5">
-        <v>0.01194605157933936</v>
+        <v>0.01195027720215462</v>
       </c>
       <c r="FN5">
-        <v>0.006446651772991719</v>
+        <v>0.006447387133037734</v>
       </c>
       <c r="FO5">
-        <v>0.004246797250455992</v>
+        <v>0.004246136445355243</v>
       </c>
       <c r="FP5">
-        <v>0.001223791656906181</v>
+        <v>0.001221212263551096</v>
       </c>
       <c r="FQ5">
-        <v>0.0007600035732377192</v>
+        <v>0.0007571298309830725</v>
       </c>
       <c r="FR5">
-        <v>0.0005906133192025195</v>
+        <v>0.0005876320713076303</v>
       </c>
       <c r="FS5">
-        <v>4.723232833679093E-05</v>
+        <v>4.390621690975037E-05</v>
       </c>
       <c r="FT5">
-        <v>0.00220535802234193</v>
+        <v>0.002203401592339475</v>
       </c>
       <c r="FU5">
-        <v>0.006083000785797093</v>
+        <v>0.006083505350202439</v>
       </c>
       <c r="FV5">
-        <v>0.01145675559656912</v>
+        <v>0.01146067068157808</v>
       </c>
       <c r="FW5">
-        <v>0.007512582735456706</v>
+        <v>0.007513994601900488</v>
       </c>
       <c r="FX5">
-        <v>0.002101031326015624</v>
+        <v>0.002099008683772406</v>
       </c>
       <c r="FY5">
-        <v>5.291237813677729E-05</v>
+        <v>4.958987162428057E-05</v>
       </c>
       <c r="FZ5">
-        <v>7.030566752430111E-05</v>
+        <v>6.699419988013939E-05</v>
       </c>
       <c r="GA5">
-        <v>0.0002283843419578196</v>
+        <v>0.0002251732009186355</v>
       </c>
       <c r="GB5">
-        <v>0.001044830463208007</v>
+        <v>0.00104213748989629</v>
       </c>
       <c r="GC5">
-        <v>0.003867266563820543</v>
+        <v>0.003866364884829554</v>
       </c>
       <c r="GD5">
-        <v>0.004554535139619506</v>
+        <v>0.004554069644213461</v>
       </c>
       <c r="GE5">
-        <v>0.002250411720755438</v>
+        <v>0.002248483884645358</v>
       </c>
       <c r="GF5">
-        <v>0.0009829033653886681</v>
+        <v>0.0009801710892709111</v>
       </c>
       <c r="GG5">
-        <v>7.560211733779528E-09</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0003528414875752651</v>
+        <v>0.0003497093348178955</v>
       </c>
       <c r="GI5">
-        <v>0.0005646713301160241</v>
+        <v>0.0005616736178137711</v>
       </c>
       <c r="GJ5">
-        <v>0.0007411860739003467</v>
+        <v>0.0007383003888847333</v>
       </c>
       <c r="GK5">
-        <v>0.0001473027948129734</v>
+        <v>0.0001440401943572645</v>
       </c>
       <c r="GL5">
-        <v>0.0007445907737804557</v>
+        <v>0.0007417072496001426</v>
       </c>
       <c r="GM5">
-        <v>0.0003441801078802613</v>
+        <v>0.0003410424580700961</v>
       </c>
       <c r="GN5">
-        <v>4.212856051651176E-07</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0004188520152508124</v>
+        <v>0.0004157617568992393</v>
       </c>
       <c r="GP5">
-        <v>0.0008166106712443929</v>
+        <v>0.0008137728553914636</v>
       </c>
       <c r="GQ5">
-        <v>0.0003110796590458394</v>
+        <v>0.0003079210016224291</v>
       </c>
       <c r="GR5">
-        <v>0.0005378584810601947</v>
+        <v>0.0005348437516484221</v>
       </c>
       <c r="GS5">
-        <v>0.000455982533943322</v>
+        <v>0.000452915840939161</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.444747033916452E-05</v>
+        <v>3.237824774361286E-05</v>
       </c>
       <c r="C6">
-        <v>1.76950351468592E-05</v>
+        <v>1.561896545805467E-05</v>
       </c>
       <c r="D6">
-        <v>9.516635541169038E-13</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.099480446990124E-05</v>
+        <v>8.915996247639667E-06</v>
       </c>
       <c r="F6">
-        <v>5.11241535351221E-05</v>
+        <v>4.906174707129581E-05</v>
       </c>
       <c r="G6">
-        <v>5.076087955263683E-05</v>
+        <v>4.869832461064568E-05</v>
       </c>
       <c r="H6">
-        <v>1.116422046173309E-05</v>
+        <v>9.085481483559394E-06</v>
       </c>
       <c r="I6">
-        <v>9.702108532226722E-07</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.448071737329018E-05</v>
+        <v>5.241968281183781E-05</v>
       </c>
       <c r="K6">
-        <v>5.890751715985836E-06</v>
+        <v>3.809857353722977E-06</v>
       </c>
       <c r="L6">
-        <v>1.408094432110742E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.331246935815834E-05</v>
+        <v>1.123460841713897E-05</v>
       </c>
       <c r="N6">
-        <v>7.559406635534028E-06</v>
+        <v>5.479194289689073E-06</v>
       </c>
       <c r="O6">
-        <v>6.319391695319574E-05</v>
+        <v>6.11364436704094E-05</v>
       </c>
       <c r="P6">
-        <v>2.371850185644638E-05</v>
+        <v>2.164489409259739E-05</v>
       </c>
       <c r="Q6">
-        <v>2.08245089959761E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.08245089959761E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3.291926341284483E-06</v>
+        <v>1.209969781228631E-06</v>
       </c>
       <c r="T6">
-        <v>3.200227445705613E-06</v>
+        <v>1.11823340626948E-06</v>
       </c>
       <c r="U6">
-        <v>9.045173563899901E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>4.350643790239936E-06</v>
+        <v>2.269119951577615E-06</v>
       </c>
       <c r="W6">
-        <v>2.767649866561722E-06</v>
+        <v>6.854790230377354E-07</v>
       </c>
       <c r="X6">
-        <v>8.609004584929165E-06</v>
+        <v>6.529221233135227E-06</v>
       </c>
       <c r="Y6">
-        <v>3.287268041509076E-05</v>
+        <v>3.080281416783473E-05</v>
       </c>
       <c r="Z6">
-        <v>3.708508121199588E-05</v>
+        <v>3.501693666673386E-05</v>
       </c>
       <c r="AA6">
-        <v>6.397450691556071E-05</v>
+        <v>6.191735267727169E-05</v>
       </c>
       <c r="AB6">
-        <v>6.302813696118857E-05</v>
+        <v>6.097059592042844E-05</v>
       </c>
       <c r="AC6">
-        <v>4.046493104904126E-05</v>
+        <v>3.839816792365935E-05</v>
       </c>
       <c r="AD6">
-        <v>8.298603999894683E-05</v>
+        <v>8.093665619751715E-05</v>
       </c>
       <c r="AE6">
-        <v>4.014180806462018E-05</v>
+        <v>3.807491287168026E-05</v>
       </c>
       <c r="AF6">
-        <v>4.045829804936106E-06</v>
+        <v>1.964181382011366E-06</v>
       </c>
       <c r="AG6">
-        <v>1.709146717595937E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.217457993088436E-05</v>
+        <v>2.010034113176927E-05</v>
       </c>
       <c r="AI6">
-        <v>4.745965071180086E-05</v>
+        <v>4.539574648408122E-05</v>
       </c>
       <c r="AJ6">
-        <v>3.649133424062254E-05</v>
+        <v>3.442294701775365E-05</v>
       </c>
       <c r="AK6">
-        <v>1.946651406144988E-05</v>
+        <v>1.739116841551938E-05</v>
       </c>
       <c r="AL6">
-        <v>1.31274123670806E-05</v>
+        <v>1.104947578914871E-05</v>
       </c>
       <c r="AM6">
-        <v>4.822844767473442E-06</v>
+        <v>2.741513927863981E-06</v>
       </c>
       <c r="AN6">
-        <v>1.244617839992532E-05</v>
+        <v>1.036796338650352E-05</v>
       </c>
       <c r="AO6">
-        <v>1.705855617754612E-05</v>
+        <v>1.498222634561575E-05</v>
       </c>
       <c r="AP6">
-        <v>3.384920836800886E-06</v>
+        <v>1.303002285665856E-06</v>
       </c>
       <c r="AQ6">
-        <v>1.198545642213837E-05</v>
+        <v>9.907053101386358E-06</v>
       </c>
       <c r="AR6">
-        <v>1.924259907224562E-05</v>
+        <v>1.716716190727361E-05</v>
       </c>
       <c r="AS6">
-        <v>7.031416860990299E-09</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.380582485223622E-06</v>
+        <v>2.982534386429007E-07</v>
       </c>
       <c r="AU6">
-        <v>1.13349314535025E-05</v>
+        <v>9.256262248711991E-06</v>
       </c>
       <c r="AV6">
-        <v>0.0001113396746319169</v>
+        <v>0.00010930187959225</v>
       </c>
       <c r="AW6">
-        <v>0.006912584666719622</v>
+        <v>0.006913326691936648</v>
       </c>
       <c r="AX6">
-        <v>0.004002650507017934</v>
+        <v>0.004002203177354759</v>
       </c>
       <c r="AY6">
-        <v>0.000411001600184146</v>
+        <v>0.0004090862836453681</v>
       </c>
       <c r="AZ6">
-        <v>0.007659257030719883</v>
+        <v>0.007660304237556594</v>
       </c>
       <c r="BA6">
-        <v>0.07736469626997187</v>
+        <v>0.07739423364180402</v>
       </c>
       <c r="BB6">
-        <v>6.633397080180253E-05</v>
+        <v>6.427778092893683E-05</v>
       </c>
       <c r="BC6">
-        <v>0.004044621104994381</v>
+        <v>0.004044190929649067</v>
       </c>
       <c r="BD6">
-        <v>0.0002755625067141481</v>
+        <v>0.0002735918332023433</v>
       </c>
       <c r="BE6">
-        <v>0.01954384405772153</v>
+        <v>0.01954974875988424</v>
       </c>
       <c r="BF6">
-        <v>0.03497149631389935</v>
+        <v>0.03498370664103291</v>
       </c>
       <c r="BG6">
-        <v>0.009131892559718869</v>
+        <v>0.009133541665484232</v>
       </c>
       <c r="BH6">
-        <v>0.005390575740101105</v>
+        <v>0.005390695686382583</v>
       </c>
       <c r="BI6">
-        <v>0.000902731056476114</v>
+        <v>0.0009010167207143853</v>
       </c>
       <c r="BJ6">
-        <v>0.006305554095986733</v>
+        <v>0.00630604801429408</v>
       </c>
       <c r="BK6">
-        <v>0.0001506938627345111</v>
+        <v>0.0001486721526277352</v>
       </c>
       <c r="BL6">
-        <v>0.0003710904421084054</v>
+        <v>0.0003691588129907075</v>
       </c>
       <c r="BM6">
-        <v>0.01701698717955032</v>
+        <v>0.01702185909904694</v>
       </c>
       <c r="BN6">
-        <v>0.01014383051092973</v>
+        <v>0.01014589321826636</v>
       </c>
       <c r="BO6">
-        <v>0.009134761559580543</v>
+        <v>0.009136411837970027</v>
       </c>
       <c r="BP6">
-        <v>9.481700542853377E-05</v>
+        <v>9.277245720608937E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.00043622055896825</v>
+        <v>0.0004343155499794225</v>
       </c>
       <c r="BR6">
-        <v>0.0003376389037212234</v>
+        <v>0.0003356936022149946</v>
       </c>
       <c r="BS6">
-        <v>0.0004562063080046657</v>
+        <v>0.0004543094676364483</v>
       </c>
       <c r="BT6">
-        <v>0.004137694200506995</v>
+        <v>0.004137302066208072</v>
       </c>
       <c r="BU6">
-        <v>0.000955998383907906</v>
+        <v>0.0009543058196888857</v>
       </c>
       <c r="BV6">
-        <v>0.0004004863206911252</v>
+        <v>0.0003985667063234978</v>
       </c>
       <c r="BW6">
-        <v>0.005466827736424724</v>
+        <v>0.005466978848594835</v>
       </c>
       <c r="BX6">
-        <v>0.01056196149077014</v>
+        <v>0.01056419509754784</v>
       </c>
       <c r="BY6">
-        <v>0.01247207739867664</v>
+        <v>0.01247509171235426</v>
       </c>
       <c r="BZ6">
-        <v>0.006074945107105215</v>
+        <v>0.006075344770384341</v>
       </c>
       <c r="CA6">
-        <v>0.008228069603295399</v>
+        <v>0.008229349296495025</v>
       </c>
       <c r="CB6">
-        <v>0.0001706851717706587</v>
+        <v>0.0001686716325569886</v>
       </c>
       <c r="CC6">
-        <v>0.001168623943656469</v>
+        <v>0.001167018284237786</v>
       </c>
       <c r="CD6">
-        <v>0.00223806559209487</v>
+        <v>0.002236897037288819</v>
       </c>
       <c r="CE6">
-        <v>0.001653730320267759</v>
+        <v>0.001652322934625998</v>
       </c>
       <c r="CF6">
-        <v>0.00281982486404618</v>
+        <v>0.002818894087207334</v>
       </c>
       <c r="CG6">
-        <v>0.02101439698682092</v>
+        <v>0.02102090273670734</v>
       </c>
       <c r="CH6">
-        <v>0.01356115684616823</v>
+        <v>0.01356461629086419</v>
       </c>
       <c r="CI6">
-        <v>0.006879855668297605</v>
+        <v>0.00688058431644427</v>
       </c>
       <c r="CJ6">
-        <v>0.004697857173499539</v>
+        <v>0.004697693990279599</v>
       </c>
       <c r="CK6">
-        <v>0.0004704482673180101</v>
+        <v>0.0004685572479556585</v>
       </c>
       <c r="CL6">
-        <v>0.0005180456750231692</v>
+        <v>0.0005161741097810939</v>
       </c>
       <c r="CM6">
-        <v>0.001409726632032048</v>
+        <v>0.001408219516650209</v>
       </c>
       <c r="CN6">
-        <v>0.02100020898750498</v>
+        <v>0.02100670893844019</v>
       </c>
       <c r="CO6">
-        <v>0.04385256588571129</v>
+        <v>0.04386840610371418</v>
       </c>
       <c r="CP6">
-        <v>0.03475608532428508</v>
+        <v>0.03476820760815111</v>
       </c>
       <c r="CQ6">
-        <v>0.04223698196360436</v>
+        <v>0.04225216185648761</v>
       </c>
       <c r="CR6">
-        <v>0.01239829240223407</v>
+        <v>0.01240127655834084</v>
       </c>
       <c r="CS6">
-        <v>0.0009078357562299982</v>
+        <v>0.0009061235068727142</v>
       </c>
       <c r="CT6">
-        <v>0.02943192258098197</v>
+        <v>0.02944186876099334</v>
       </c>
       <c r="CU6">
-        <v>0.04956542461027399</v>
+        <v>0.04958359980083332</v>
       </c>
       <c r="CV6">
-        <v>0.03694918621854786</v>
+        <v>0.03696220487157834</v>
       </c>
       <c r="CW6">
-        <v>0.01722343516959672</v>
+        <v>0.0172283914689834</v>
       </c>
       <c r="CX6">
-        <v>0.01032059400240733</v>
+        <v>0.01032272895691853</v>
       </c>
       <c r="CY6">
-        <v>0.00413005830087515</v>
+        <v>0.004129663045614035</v>
       </c>
       <c r="CZ6">
-        <v>0.002560316276558015</v>
+        <v>0.002559279432781553</v>
       </c>
       <c r="DA6">
-        <v>1.643253820772869E-06</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.005067950755656007</v>
+        <v>0.005067938837923158</v>
       </c>
       <c r="DC6">
-        <v>0.0169843161811255</v>
+        <v>0.01698917474725765</v>
       </c>
       <c r="DD6">
-        <v>0.02041186701587104</v>
+        <v>0.02041812649834313</v>
       </c>
       <c r="DE6">
-        <v>0.02114304898061815</v>
+        <v>0.02114960731343885</v>
       </c>
       <c r="DF6">
-        <v>0.01691363518453328</v>
+        <v>0.01691846486176843</v>
       </c>
       <c r="DG6">
-        <v>0.007603279633418753</v>
+        <v>0.007604303961046861</v>
       </c>
       <c r="DH6">
-        <v>0.001174564643370047</v>
+        <v>0.001172961412047605</v>
       </c>
       <c r="DI6">
-        <v>0.001722739016940604</v>
+        <v>0.001721359836689638</v>
       </c>
       <c r="DJ6">
-        <v>0.00857604258651838</v>
+        <v>0.008577464504023802</v>
       </c>
       <c r="DK6">
-        <v>0.006218289700194061</v>
+        <v>0.006218747951599922</v>
       </c>
       <c r="DL6">
-        <v>0.006327128194946569</v>
+        <v>0.006327630931068504</v>
       </c>
       <c r="DM6">
-        <v>0.0007112508657080573</v>
+        <v>0.0007094582677290918</v>
       </c>
       <c r="DN6">
-        <v>0.005008665158514377</v>
+        <v>0.005008629009437993</v>
       </c>
       <c r="DO6">
-        <v>0.006492840286956997</v>
+        <v>0.006493410753300485</v>
       </c>
       <c r="DP6">
-        <v>0.008810149075231271</v>
+        <v>0.008811666677270966</v>
       </c>
       <c r="DQ6">
-        <v>0.008814927575000882</v>
+        <v>0.008816447130119826</v>
       </c>
       <c r="DR6">
-        <v>3.145165348360353E-05</v>
+        <v>2.938120643100172E-05</v>
       </c>
       <c r="DS6">
-        <v>0.003886508312617564</v>
+        <v>0.003886013513053653</v>
       </c>
       <c r="DT6">
-        <v>0.008991386566493164</v>
+        <v>0.008992978244330756</v>
       </c>
       <c r="DU6">
-        <v>0.01728411916667093</v>
+        <v>0.01728910026895833</v>
       </c>
       <c r="DV6">
-        <v>0.01190088342621594</v>
+        <v>0.01190366428019949</v>
       </c>
       <c r="DW6">
-        <v>0.005674488126412676</v>
+        <v>0.005674724114007694</v>
       </c>
       <c r="DX6">
-        <v>0.003447999033759661</v>
+        <v>0.003447325005690155</v>
       </c>
       <c r="DY6">
-        <v>0.0001525259226461809</v>
+        <v>0.0001505049613430814</v>
       </c>
       <c r="DZ6">
-        <v>0.0007053809659910662</v>
+        <v>0.0007035859688533942</v>
       </c>
       <c r="EA6">
-        <v>0.001238660240279769</v>
+        <v>0.001237083206254861</v>
       </c>
       <c r="EB6">
-        <v>0.002875048861383634</v>
+        <v>0.002874140655822052</v>
       </c>
       <c r="EC6">
-        <v>0.003104134550338595</v>
+        <v>0.003103319977198638</v>
       </c>
       <c r="ED6">
-        <v>0.002376590885416072</v>
+        <v>0.00237547894898164</v>
       </c>
       <c r="EE6">
-        <v>0.002279186490112285</v>
+        <v>0.002278034742332802</v>
       </c>
       <c r="EF6">
-        <v>0.0007112508657080573</v>
+        <v>0.0007094582677290918</v>
       </c>
       <c r="EG6">
-        <v>0.000998424451862394</v>
+        <v>0.000996749228121955</v>
       </c>
       <c r="EH6">
-        <v>0.0007391190643644321</v>
+        <v>0.0007373378567387376</v>
       </c>
       <c r="EI6">
-        <v>4.766675370181569E-05</v>
+        <v>4.560293412169918E-05</v>
       </c>
       <c r="EJ6">
-        <v>4.816351567786502E-05</v>
+        <v>4.609989913542843E-05</v>
       </c>
       <c r="EK6">
-        <v>0.000139056373295596</v>
+        <v>0.0001370299066877799</v>
       </c>
       <c r="EL6">
-        <v>0.0008110020008986991</v>
+        <v>0.000809250173429626</v>
       </c>
       <c r="EM6">
-        <v>0.0009498341542051055</v>
+        <v>0.0009481390705281602</v>
       </c>
       <c r="EN6">
-        <v>4.816351567786502E-05</v>
+        <v>4.609989913542843E-05</v>
       </c>
       <c r="EO6">
-        <v>0.0003672536822933893</v>
+        <v>0.0003653204850065304</v>
       </c>
       <c r="EP6">
-        <v>0.001317026236501465</v>
+        <v>0.001315481232404016</v>
       </c>
       <c r="EQ6">
-        <v>0.003303108840745334</v>
+        <v>0.003302375592827991</v>
       </c>
       <c r="ER6">
-        <v>0.005275354045656354</v>
+        <v>0.005275426898265922</v>
       </c>
       <c r="ES6">
-        <v>0.001442401030456699</v>
+        <v>0.001440907269828985</v>
       </c>
       <c r="ET6">
-        <v>8.32417159866198E-06</v>
+        <v>6.244271829284802E-06</v>
       </c>
       <c r="EU6">
-        <v>0.0004266250794308824</v>
+        <v>0.0004247161485559264</v>
       </c>
       <c r="EV6">
-        <v>0.002204482593714027</v>
+        <v>0.002203300312788817</v>
       </c>
       <c r="EW6">
-        <v>0.00492496876254968</v>
+        <v>0.004924898404892781</v>
       </c>
       <c r="EX6">
-        <v>0.006522950685505268</v>
+        <v>0.006523533458639044</v>
       </c>
       <c r="EY6">
-        <v>0.009103977561064751</v>
+        <v>0.009105615257348642</v>
       </c>
       <c r="EZ6">
-        <v>0.005717728524327902</v>
+        <v>0.005717982185236288</v>
       </c>
       <c r="FA6">
-        <v>0.0006883622668115984</v>
+        <v>0.0006865603137526535</v>
       </c>
       <c r="FB6">
-        <v>0.0003385748236760994</v>
+        <v>0.0003366299047011942</v>
       </c>
       <c r="FC6">
-        <v>0.00314513224836195</v>
+        <v>0.003144334431893981</v>
       </c>
       <c r="FD6">
-        <v>0.006130610304421398</v>
+        <v>0.006131032719306042</v>
       </c>
       <c r="FE6">
-        <v>0.004304381792470392</v>
+        <v>0.004304057787101571</v>
       </c>
       <c r="FF6">
-        <v>0.002594968874887289</v>
+        <v>0.002593946194399298</v>
       </c>
       <c r="FG6">
-        <v>0.004640160776281289</v>
+        <v>0.004639974011259207</v>
       </c>
       <c r="FH6">
-        <v>0.008847181573445802</v>
+        <v>0.008848714311492039</v>
       </c>
       <c r="FI6">
-        <v>0.004075972203482833</v>
+        <v>0.004075554842029497</v>
       </c>
       <c r="FJ6">
-        <v>0.001086727747604977</v>
+        <v>0.001085088615387564</v>
       </c>
       <c r="FK6">
-        <v>0.00148770692827234</v>
+        <v>0.001486231685173791</v>
       </c>
       <c r="FL6">
-        <v>0.01193379442462918</v>
+        <v>0.01193658873007054</v>
       </c>
       <c r="FM6">
-        <v>0.01232994440552938</v>
+        <v>0.01233290062628814</v>
       </c>
       <c r="FN6">
-        <v>0.007148392155350502</v>
+        <v>0.007149230560338339</v>
       </c>
       <c r="FO6">
-        <v>0.004635273276516932</v>
+        <v>0.004635084513864877</v>
       </c>
       <c r="FP6">
-        <v>0.001298478937395696</v>
+        <v>0.001296926352604151</v>
       </c>
       <c r="FQ6">
-        <v>0.0008674014981794781</v>
+        <v>0.0008656727224406678</v>
       </c>
       <c r="FR6">
-        <v>0.0005014867758215328</v>
+        <v>0.0004996084425886731</v>
       </c>
       <c r="FS6">
-        <v>0.0001179199943146562</v>
+        <v>0.0001158848887981532</v>
       </c>
       <c r="FT6">
-        <v>0.002275324990298462</v>
+        <v>0.002274171664238029</v>
       </c>
       <c r="FU6">
-        <v>0.00555625433211315</v>
+        <v>0.005556441994923985</v>
       </c>
       <c r="FV6">
-        <v>0.009723200531209801</v>
+        <v>0.009725091317708472</v>
       </c>
       <c r="FW6">
-        <v>0.005797841320465378</v>
+        <v>0.005798127725257241</v>
       </c>
       <c r="FX6">
-        <v>0.002172125895274058</v>
+        <v>0.002170930389445781</v>
       </c>
       <c r="FY6">
-        <v>1.323644136182392E-05</v>
+        <v>1.11585493464697E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.0003313617640238668</v>
+        <v>0.0003294138969108843</v>
       </c>
       <c r="GA6">
-        <v>0.0001614531122157692</v>
+        <v>0.000159435799653809</v>
       </c>
       <c r="GB6">
-        <v>0.0009460575043871913</v>
+        <v>0.0009443608771093792</v>
       </c>
       <c r="GC6">
-        <v>0.004400379787841985</v>
+        <v>0.00440009501899125</v>
       </c>
       <c r="GD6">
-        <v>0.004317491991838302</v>
+        <v>0.004317173344899859</v>
       </c>
       <c r="GE6">
-        <v>0.002500576579438279</v>
+        <v>0.002499515318717511</v>
       </c>
       <c r="GF6">
-        <v>0.0007423512642085962</v>
+        <v>0.0007405713776549423</v>
       </c>
       <c r="GG6">
-        <v>0.0001120982045953455</v>
+        <v>0.0001100607195837632</v>
       </c>
       <c r="GH6">
-        <v>0.0008095531609685529</v>
+        <v>0.0008078007413263422</v>
       </c>
       <c r="GI6">
-        <v>0.0015326909261035</v>
+        <v>0.001531234068966425</v>
       </c>
       <c r="GJ6">
-        <v>0.001152573444430321</v>
+        <v>0.001150961224815242</v>
       </c>
       <c r="GK6">
-        <v>0.000295988355729345</v>
+        <v>0.0002940260307168104</v>
       </c>
       <c r="GL6">
-        <v>0.0009529739540537246</v>
+        <v>0.0009512801536828844</v>
       </c>
       <c r="GM6">
-        <v>0.0004849950766166564</v>
+        <v>0.0004831100028591472</v>
       </c>
       <c r="GN6">
-        <v>0.0002129141097346509</v>
+        <v>0.000210917830428146</v>
       </c>
       <c r="GO6">
-        <v>0.0003273590542168517</v>
+        <v>0.0003254095511072516</v>
       </c>
       <c r="GP6">
-        <v>0.000717145065423877</v>
+        <v>0.0007153548765355686</v>
       </c>
       <c r="GQ6">
-        <v>0.0001498141927769231</v>
+        <v>0.0001477921231294499</v>
       </c>
       <c r="GR6">
-        <v>0.0003237560843905637</v>
+        <v>0.0003218051086669762</v>
       </c>
       <c r="GS6">
-        <v>0.000348955023175633</v>
+        <v>0.0003470143468193765</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.069054734153085E-06</v>
+        <v>9.667098483862347E-07</v>
       </c>
       <c r="C2">
-        <v>1.914009561146851E-06</v>
+        <v>1.709315364715442E-06</v>
       </c>
       <c r="D2">
-        <v>2.983064295299936E-06</v>
+        <v>2.676025213101676E-06</v>
       </c>
       <c r="E2">
-        <v>6.358033903120069E-06</v>
+        <v>5.948695465907611E-06</v>
       </c>
       <c r="F2">
-        <v>2.722324956970098E-05</v>
+        <v>2.671195712589816E-05</v>
       </c>
       <c r="G2">
-        <v>2.938400603873065E-05</v>
+        <v>2.877039026503117E-05</v>
       </c>
       <c r="H2">
-        <v>3.722903928935589E-05</v>
+        <v>3.651321242294727E-05</v>
       </c>
       <c r="I2">
-        <v>3.807399411634965E-05</v>
+        <v>3.725581793927648E-05</v>
       </c>
       <c r="J2">
-        <v>3.809258946094371E-05</v>
+        <v>3.725581793927648E-05</v>
       </c>
       <c r="K2">
-        <v>3.81756265575965E-05</v>
+        <v>3.725581793927648E-05</v>
       </c>
       <c r="L2">
-        <v>3.818601907392851E-05</v>
+        <v>3.725581793927648E-05</v>
       </c>
       <c r="M2">
-        <v>4.010977803538683E-05</v>
+        <v>3.90772488912747E-05</v>
       </c>
       <c r="N2">
-        <v>4.095473286238059E-05</v>
+        <v>3.981985440760391E-05</v>
       </c>
       <c r="O2">
-        <v>4.105709683565082E-05</v>
+        <v>3.981985440760391E-05</v>
       </c>
       <c r="P2">
-        <v>5.008583562409188E-05</v>
+        <v>4.874640547583961E-05</v>
       </c>
       <c r="Q2">
-        <v>5.223884069287392E-05</v>
+        <v>5.079708706167203E-05</v>
       </c>
       <c r="R2">
-        <v>5.224339999931958E-05</v>
+        <v>5.079708706167203E-05</v>
       </c>
       <c r="S2">
-        <v>5.646687343424686E-05</v>
+        <v>5.491827789546372E-05</v>
       </c>
       <c r="T2">
-        <v>5.99694985461452E-05</v>
+        <v>5.831860617293145E-05</v>
       </c>
       <c r="U2">
-        <v>8.466468133508205E-05</v>
+        <v>8.291191057874856E-05</v>
       </c>
       <c r="V2">
-        <v>8.937291268549589E-05</v>
+        <v>8.751786889966928E-05</v>
       </c>
       <c r="W2">
-        <v>9.002009650617147E-05</v>
+        <v>8.806269950465202E-05</v>
       </c>
       <c r="X2">
-        <v>9.48788896613953E-05</v>
+        <v>9.281922260325584E-05</v>
       </c>
       <c r="Y2">
-        <v>9.490153310211869E-05</v>
+        <v>9.281922260325584E-05</v>
       </c>
       <c r="Z2">
-        <v>9.960976445253253E-05</v>
+        <v>9.742518092417656E-05</v>
       </c>
       <c r="AA2">
-        <v>0.000102231278536282</v>
+        <v>9.994438077578109E-05</v>
       </c>
       <c r="AB2">
-        <v>0.0001106654343057279</v>
+        <v>0.0001082763370848604</v>
       </c>
       <c r="AC2">
-        <v>0.0001107123847572279</v>
+        <v>0.0001082763370848604</v>
       </c>
       <c r="AD2">
-        <v>0.0001130721545326154</v>
+        <v>0.0001105337874599091</v>
       </c>
       <c r="AE2">
-        <v>0.000113454399304827</v>
+        <v>0.000110813673785153</v>
       </c>
       <c r="AF2">
-        <v>0.000114902612751093</v>
+        <v>0.0001121595498322172</v>
       </c>
       <c r="AG2">
-        <v>0.0001149037084657281</v>
+        <v>0.0001121595498322172</v>
       </c>
       <c r="AH2">
-        <v>0.0001149048041803631</v>
+        <v>0.0001121595498322172</v>
       </c>
       <c r="AI2">
-        <v>0.0001209271603727592</v>
+        <v>0.0001180796589427794</v>
       </c>
       <c r="AJ2">
-        <v>0.0001357792328472383</v>
+        <v>0.0001328296586799472</v>
       </c>
       <c r="AK2">
-        <v>0.0001485026972537147</v>
+        <v>0.0001454510083193182</v>
       </c>
       <c r="AL2">
-        <v>0.0001490916267725293</v>
+        <v>0.000145937583472197</v>
       </c>
       <c r="AM2">
-        <v>0.0001490965494196865</v>
+        <v>0.000145937583472197</v>
       </c>
       <c r="AN2">
-        <v>0.0001501656041538396</v>
+        <v>0.0001469042933205833</v>
       </c>
       <c r="AO2">
-        <v>0.00015242873992614</v>
+        <v>0.0001490651077844869</v>
       </c>
       <c r="AP2">
-        <v>0.0001525889475812581</v>
+        <v>0.0001491229526084699</v>
       </c>
       <c r="AQ2">
-        <v>0.0001569440622203909</v>
+        <v>0.0001533757872457492</v>
       </c>
       <c r="AR2">
-        <v>0.0001657671295022614</v>
+        <v>0.0001620966627463891</v>
       </c>
       <c r="AS2">
-        <v>0.000169132409609772</v>
+        <v>0.0001653596433075643</v>
       </c>
       <c r="AT2">
-        <v>0.0001810505069905194</v>
+        <v>0.0001771756100190725</v>
       </c>
       <c r="AU2">
-        <v>0.0001924980223562331</v>
+        <v>0.0001885209854238105</v>
       </c>
       <c r="AV2">
-        <v>0.0001927515573943327</v>
+        <v>0.000188672159473543</v>
       </c>
       <c r="AW2">
-        <v>0.0002139324180709976</v>
+        <v>0.0002097510723760916</v>
       </c>
       <c r="AX2">
-        <v>0.06163946038043195</v>
+        <v>0.06163638952813826</v>
       </c>
       <c r="AY2">
-        <v>0.06335233603515318</v>
+        <v>0.0633491966379391</v>
       </c>
       <c r="AZ2">
-        <v>0.1308602831918291</v>
+        <v>0.1308583743866058</v>
       </c>
       <c r="BA2">
-        <v>0.1338294272866843</v>
+        <v>0.1338274747418135</v>
       </c>
       <c r="BB2">
-        <v>0.1426383875681042</v>
+        <v>0.1426365065919301</v>
       </c>
       <c r="BC2">
-        <v>0.1431395419841145</v>
+        <v>0.1431375685373407</v>
       </c>
       <c r="BD2">
-        <v>0.1432129787064606</v>
+        <v>0.1432109043437151</v>
       </c>
       <c r="BE2">
-        <v>0.155881725111189</v>
+        <v>0.1558797985293931</v>
       </c>
       <c r="BF2">
-        <v>0.1630281933394971</v>
+        <v>0.1630263055001584</v>
       </c>
       <c r="BG2">
-        <v>0.1758549837492745</v>
+        <v>0.1758532468114961</v>
       </c>
       <c r="BH2">
-        <v>0.2091692848135663</v>
+        <v>0.2091681033073638</v>
       </c>
       <c r="BI2">
-        <v>0.209403947021063</v>
+        <v>0.2094026677823185</v>
       </c>
       <c r="BJ2">
-        <v>0.2098742549360879</v>
+        <v>0.2098728826176733</v>
       </c>
       <c r="BK2">
-        <v>0.2143796686800224</v>
+        <v>0.2143782829559132</v>
       </c>
       <c r="BL2">
-        <v>0.2148019994935146</v>
+        <v>0.2148005197424177</v>
       </c>
       <c r="BM2">
-        <v>0.2163364825425367</v>
+        <v>0.2163349307241215</v>
       </c>
       <c r="BN2">
-        <v>0.2395536632842558</v>
+        <v>0.2395524675277464</v>
       </c>
       <c r="BO2">
-        <v>0.2470659652242513</v>
+        <v>0.2470648154336591</v>
       </c>
       <c r="BP2">
-        <v>0.249807089311822</v>
+        <v>0.2498058912792814</v>
       </c>
       <c r="BQ2">
-        <v>0.2498292064995286</v>
+        <v>0.2498279065377018</v>
       </c>
       <c r="BR2">
-        <v>0.2551322726689456</v>
+        <v>0.2551309750512318</v>
       </c>
       <c r="BS2">
-        <v>0.2552045342512541</v>
+        <v>0.2552031356943653</v>
       </c>
       <c r="BT2">
-        <v>0.2579073474376009</v>
+        <v>0.2579058998823072</v>
       </c>
       <c r="BU2">
-        <v>0.2614918849521161</v>
+        <v>0.2614904058082416</v>
       </c>
       <c r="BV2">
-        <v>0.2615091472586675</v>
+        <v>0.2615075660896464</v>
       </c>
       <c r="BW2">
-        <v>0.2677457318579077</v>
+        <v>0.2677441714655084</v>
       </c>
       <c r="BX2">
-        <v>0.2966588877815961</v>
+        <v>0.2966577959192774</v>
       </c>
       <c r="BY2">
-        <v>0.3069414771100939</v>
+        <v>0.3069404859135738</v>
       </c>
       <c r="BZ2">
-        <v>0.3110402732410381</v>
+        <v>0.311039260610077</v>
       </c>
       <c r="CA2">
-        <v>0.3122656156801841</v>
+        <v>0.3122645248778613</v>
       </c>
       <c r="CB2">
-        <v>0.3125390185589185</v>
+        <v>0.312537830788996</v>
       </c>
       <c r="CC2">
-        <v>0.3202575768055033</v>
+        <v>0.3202564390740702</v>
       </c>
       <c r="CD2">
-        <v>0.3203921649898029</v>
+        <v>0.3203909275498462</v>
       </c>
       <c r="CE2">
-        <v>0.32040490728621</v>
+        <v>0.320403567731858</v>
       </c>
       <c r="CF2">
-        <v>0.3264923987806871</v>
+        <v>0.3264910770590836</v>
       </c>
       <c r="CG2">
-        <v>0.331096929927788</v>
+        <v>0.3310955967575831</v>
       </c>
       <c r="CH2">
-        <v>0.3517822625886222</v>
+        <v>0.3517812354884738</v>
       </c>
       <c r="CI2">
-        <v>0.3585615588052004</v>
+        <v>0.3585605631976239</v>
       </c>
       <c r="CJ2">
-        <v>0.3586715625487146</v>
+        <v>0.3586704667471897</v>
       </c>
       <c r="CK2">
-        <v>0.3591923076253509</v>
+        <v>0.3591911197400477</v>
       </c>
       <c r="CL2">
-        <v>0.3613860028954328</v>
+        <v>0.3613847559590892</v>
       </c>
       <c r="CM2">
-        <v>0.36229304282441</v>
+        <v>0.3622917114317576</v>
       </c>
       <c r="CN2">
-        <v>0.3713160131126668</v>
+        <v>0.3713147575143819</v>
       </c>
       <c r="CO2">
-        <v>0.3803957454027369</v>
+        <v>0.3803945667195966</v>
       </c>
       <c r="CP2">
-        <v>0.4176482215928415</v>
+        <v>0.4176476761013366</v>
       </c>
       <c r="CQ2">
-        <v>0.4691588962384527</v>
+        <v>0.4691592654695774</v>
       </c>
       <c r="CR2">
-        <v>0.4890881168751314</v>
+        <v>0.4890887772467287</v>
       </c>
       <c r="CS2">
-        <v>0.4892285630196183</v>
+        <v>0.4892291237983584</v>
       </c>
       <c r="CT2">
-        <v>0.5058458805504916</v>
+        <v>0.5058466670755118</v>
       </c>
       <c r="CU2">
-        <v>0.551930792022766</v>
+        <v>0.5519323861376315</v>
       </c>
       <c r="CV2">
-        <v>0.5927237203259774</v>
+        <v>0.5927260175394169</v>
       </c>
       <c r="CW2">
-        <v>0.6108560889052521</v>
+        <v>0.6108586417799592</v>
       </c>
       <c r="CX2">
-        <v>0.6141053838090573</v>
+        <v>0.6141078984757509</v>
       </c>
       <c r="CY2">
-        <v>0.6169753385007437</v>
+        <v>0.616977807469275</v>
       </c>
       <c r="CZ2">
-        <v>0.6186065848528571</v>
+        <v>0.6186089836646811</v>
       </c>
       <c r="DA2">
-        <v>0.6191811384312124</v>
+        <v>0.6191834462217177</v>
       </c>
       <c r="DB2">
-        <v>0.6206129202769535</v>
+        <v>0.6206151539722847</v>
       </c>
       <c r="DC2">
-        <v>0.6340896737074952</v>
+        <v>0.6340920711380372</v>
       </c>
       <c r="DD2">
-        <v>0.6672282927661745</v>
+        <v>0.667231242159416</v>
       </c>
       <c r="DE2">
-        <v>0.6826343152583506</v>
+        <v>0.6826374664806082</v>
       </c>
       <c r="DF2">
-        <v>0.6967689087099084</v>
+        <v>0.6967722366565602</v>
       </c>
       <c r="DG2">
-        <v>0.7044226254544216</v>
+        <v>0.7044260021592544</v>
       </c>
       <c r="DH2">
-        <v>0.7046650027321648</v>
+        <v>0.7046682818567913</v>
       </c>
       <c r="DI2">
-        <v>0.7055701292610809</v>
+        <v>0.7055733238916182</v>
       </c>
       <c r="DJ2">
-        <v>0.7121916448726184</v>
+        <v>0.7121948678803178</v>
       </c>
       <c r="DK2">
-        <v>0.7193443811011269</v>
+        <v>0.7193476429750463</v>
       </c>
       <c r="DL2">
-        <v>0.7217571718782083</v>
+        <v>0.721760379027172</v>
       </c>
       <c r="DM2">
-        <v>0.7257164770046962</v>
+        <v>0.725719659964941</v>
       </c>
       <c r="DN2">
-        <v>0.7267376330373191</v>
+        <v>0.7267407337945005</v>
       </c>
       <c r="DO2">
-        <v>0.7376346773854469</v>
+        <v>0.7376378909409648</v>
       </c>
       <c r="DP2">
-        <v>0.7511040548157529</v>
+        <v>0.7511074319608411</v>
       </c>
       <c r="DQ2">
-        <v>0.7583443914470599</v>
+        <v>0.7583478091880557</v>
       </c>
       <c r="DR2">
-        <v>0.7615312030488689</v>
+        <v>0.7615345813481058</v>
       </c>
       <c r="DS2">
-        <v>0.7657156511825495</v>
+        <v>0.7657190097385613</v>
       </c>
       <c r="DT2">
-        <v>0.7778832165712666</v>
+        <v>0.7778867130123082</v>
       </c>
       <c r="DU2">
-        <v>0.7885272759113122</v>
+        <v>0.7885308801554505</v>
       </c>
       <c r="DV2">
-        <v>0.7976420272025011</v>
+        <v>0.7976457090532412</v>
       </c>
       <c r="DW2">
-        <v>0.8110416356305783</v>
+        <v>0.8110454796932856</v>
       </c>
       <c r="DX2">
-        <v>0.8136789603148329</v>
+        <v>0.8136827540860516</v>
       </c>
       <c r="DY2">
-        <v>0.8161095588924832</v>
+        <v>0.8161132982903649</v>
       </c>
       <c r="DZ2">
-        <v>0.8161195062548009</v>
+        <v>0.8161231434831009</v>
       </c>
       <c r="EA2">
-        <v>0.818088208117695</v>
+        <v>0.8180917818524145</v>
       </c>
       <c r="EB2">
-        <v>0.8200013087788128</v>
+        <v>0.8200048179220949</v>
       </c>
       <c r="EC2">
-        <v>0.8241107339100966</v>
+        <v>0.8241142218288093</v>
       </c>
       <c r="ED2">
-        <v>0.8281221904382505</v>
+        <v>0.8281256551979843</v>
       </c>
       <c r="EE2">
-        <v>0.829611171685819</v>
+        <v>0.8296145634797923</v>
       </c>
       <c r="EF2">
-        <v>0.8304875345538162</v>
+        <v>0.830490841285756</v>
       </c>
       <c r="EG2">
-        <v>0.8314644493850257</v>
+        <v>0.8314676730403507</v>
       </c>
       <c r="EH2">
-        <v>0.8320335156032057</v>
+        <v>0.8320366481288631</v>
       </c>
       <c r="EI2">
-        <v>0.8323807633142992</v>
+        <v>0.832383800330438</v>
       </c>
       <c r="EJ2">
-        <v>0.8324069632031362</v>
+        <v>0.8324098983706026</v>
       </c>
       <c r="EK2">
-        <v>0.8327846864352033</v>
+        <v>0.8327875266948964</v>
       </c>
       <c r="EL2">
-        <v>0.8336473604927631</v>
+        <v>0.8336501154201345</v>
       </c>
       <c r="EM2">
-        <v>0.8354994984519334</v>
+        <v>0.8355021875841465</v>
       </c>
       <c r="EN2">
-        <v>0.8375763199182816</v>
+        <v>0.8375789476917576</v>
       </c>
       <c r="EO2">
-        <v>0.8375935822248332</v>
+        <v>0.8375961079731623</v>
       </c>
       <c r="EP2">
-        <v>0.8383862920101578</v>
+        <v>0.8383887310447066</v>
       </c>
       <c r="EQ2">
-        <v>0.8419567880242244</v>
+        <v>0.8419591951929402</v>
       </c>
       <c r="ER2">
-        <v>0.8443222120997925</v>
+        <v>0.8443245636082877</v>
       </c>
       <c r="ES2">
-        <v>0.8482351162247981</v>
+        <v>0.8482374426283772</v>
       </c>
       <c r="ET2">
-        <v>0.848469346272281</v>
+        <v>0.8484715749347851</v>
       </c>
       <c r="EU2">
-        <v>0.8498225525155119</v>
+        <v>0.8498247055313507</v>
       </c>
       <c r="EV2">
-        <v>0.8544473482632602</v>
+        <v>0.8544494902306261</v>
       </c>
       <c r="EW2">
-        <v>0.859078388411208</v>
+        <v>0.859080519453398</v>
       </c>
       <c r="EX2">
-        <v>0.867230265671636</v>
+        <v>0.8672324553082865</v>
       </c>
       <c r="EY2">
-        <v>0.8742535631960092</v>
+        <v>0.8742557891430865</v>
       </c>
       <c r="EZ2">
-        <v>0.8767390324754125</v>
+        <v>0.8767412051325858</v>
       </c>
       <c r="FA2">
-        <v>0.8786171650354132</v>
+        <v>0.8786192724106969</v>
       </c>
       <c r="FB2">
-        <v>0.8786181412907444</v>
+        <v>0.87862014631931</v>
       </c>
       <c r="FC2">
-        <v>0.8817338076902806</v>
+        <v>0.881735771872311</v>
       </c>
       <c r="FD2">
-        <v>0.8872922082678548</v>
+        <v>0.8872941798356273</v>
       </c>
       <c r="FE2">
-        <v>0.8919510388166905</v>
+        <v>0.891953000008014</v>
       </c>
       <c r="FF2">
-        <v>0.8971427339825495</v>
+        <v>0.8971446953189431</v>
       </c>
       <c r="FG2">
-        <v>0.9013658657174659</v>
+        <v>0.9013678080744499</v>
       </c>
       <c r="FH2">
-        <v>0.9038362221963864</v>
+        <v>0.9038381109650612</v>
       </c>
       <c r="FI2">
-        <v>0.9089587053600343</v>
+        <v>0.9089605929071742</v>
       </c>
       <c r="FJ2">
-        <v>0.910366277905002</v>
+        <v>0.9103680908789503</v>
       </c>
       <c r="FK2">
-        <v>0.9111309607594313</v>
+        <v>0.9111326864662018</v>
       </c>
       <c r="FL2">
-        <v>0.9177226334700155</v>
+        <v>0.917724386964694</v>
       </c>
       <c r="FM2">
-        <v>0.9279987797983075</v>
+        <v>0.9280006338315663</v>
       </c>
       <c r="FN2">
-        <v>0.9384618641325716</v>
+        <v>0.938463822395539</v>
       </c>
       <c r="FO2">
-        <v>0.9418633269412381</v>
+        <v>0.9418652500007779</v>
       </c>
       <c r="FP2">
-        <v>0.9437156920004156</v>
+        <v>0.9437175492692813</v>
       </c>
       <c r="FQ2">
-        <v>0.943972287008613</v>
+        <v>0.9439740469780042</v>
       </c>
       <c r="FR2">
-        <v>0.944389915121955</v>
+        <v>0.9443915809715028</v>
       </c>
       <c r="FS2">
-        <v>0.9444447024437053</v>
+        <v>0.9444462670090453</v>
       </c>
       <c r="FT2">
-        <v>0.9470374359265353</v>
+        <v>0.9470389493199246</v>
       </c>
       <c r="FU2">
-        <v>0.9524159673983632</v>
+        <v>0.952417484625943</v>
       </c>
       <c r="FV2">
-        <v>0.9601987072469983</v>
+        <v>0.9602002757803463</v>
       </c>
       <c r="FW2">
-        <v>0.9725951496430274</v>
+        <v>0.9725968605806276</v>
       </c>
       <c r="FX2">
-        <v>0.9737152176788102</v>
+        <v>0.9737168483663844</v>
       </c>
       <c r="FY2">
-        <v>0.9737240407460921</v>
+        <v>0.973725569241885</v>
       </c>
       <c r="FZ2">
-        <v>0.973732676014368</v>
+        <v>0.9737341023146715</v>
       </c>
       <c r="GA2">
-        <v>0.9739798028222629</v>
+        <v>0.9739811316361405</v>
       </c>
       <c r="GB2">
-        <v>0.9749339009227435</v>
+        <v>0.9749351462094854</v>
       </c>
       <c r="GC2">
-        <v>0.9760711064590738</v>
+        <v>0.9760722718341731</v>
       </c>
       <c r="GD2">
-        <v>0.9837775733052723</v>
+        <v>0.9837787884801139</v>
       </c>
       <c r="GE2">
-        <v>0.989353490183406</v>
+        <v>0.9893547130898527</v>
       </c>
       <c r="GF2">
-        <v>0.9909524591344883</v>
+        <v>0.9909536112469037</v>
       </c>
       <c r="GG2">
-        <v>0.9909536752873271</v>
+        <v>0.9909547250577613</v>
       </c>
       <c r="GH2">
-        <v>0.9923578061321849</v>
+        <v>0.9923587812614704</v>
       </c>
       <c r="GI2">
-        <v>0.9952237905237445</v>
+        <v>0.9952247198764733</v>
       </c>
       <c r="GJ2">
-        <v>0.9963810254607147</v>
+        <v>0.9963818752972855</v>
       </c>
       <c r="GK2">
-        <v>0.996529468825457</v>
+        <v>0.9965302192270774</v>
       </c>
       <c r="GL2">
-        <v>0.9965298982691407</v>
+        <v>0.9965305463132461</v>
       </c>
       <c r="GM2">
-        <v>0.9974501167985389</v>
+        <v>0.9974506806465496</v>
       </c>
       <c r="GN2">
-        <v>0.9975210193508041</v>
+        <v>0.9975214822328055</v>
       </c>
       <c r="GO2">
-        <v>0.9976167799338633</v>
+        <v>0.9976171423406822</v>
       </c>
       <c r="GP2">
-        <v>0.9985281305029783</v>
+        <v>0.9985284085386028</v>
       </c>
       <c r="GQ2">
-        <v>0.9992883778772659</v>
+        <v>0.9992885685581332</v>
       </c>
       <c r="GR2">
-        <v>0.999640775918524</v>
+        <v>0.999640871191567</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.881114448260305E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.116849542637703E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.438712380732567E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.966346345218793E-05</v>
+        <v>6.776487197256137E-06</v>
       </c>
       <c r="F3">
-        <v>7.370897331148719E-05</v>
+        <v>4.23661815608242E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001001840014290812</v>
+        <v>6.035849905665069E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001324520707912178</v>
+        <v>8.415272520183508E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001822638968939314</v>
+        <v>0.0001255175623056894</v>
       </c>
       <c r="J3">
-        <v>0.000190774106253174</v>
+        <v>0.0001255175623056894</v>
       </c>
       <c r="K3">
-        <v>0.0002055742048779326</v>
+        <v>0.0001318170795009934</v>
       </c>
       <c r="L3">
-        <v>0.0002163697833336479</v>
+        <v>0.0001341059468105938</v>
       </c>
       <c r="M3">
-        <v>0.0002218331191642724</v>
+        <v>0.0001341059468105938</v>
       </c>
       <c r="N3">
-        <v>0.0002218331347472831</v>
+        <v>0.0001341059468105938</v>
       </c>
       <c r="O3">
-        <v>0.0002571498992381146</v>
+        <v>0.0001609535347203081</v>
       </c>
       <c r="P3">
-        <v>0.0003265197261664328</v>
+        <v>0.0002219063100700926</v>
       </c>
       <c r="Q3">
-        <v>0.0003997408592573267</v>
+        <v>0.0002867162867745238</v>
       </c>
       <c r="R3">
-        <v>0.0004317999806106429</v>
+        <v>0.000310301245074294</v>
       </c>
       <c r="S3">
-        <v>0.0004331910473693642</v>
+        <v>0.000310301245074294</v>
       </c>
       <c r="T3">
-        <v>0.0004338936144390217</v>
+        <v>0.000310301245074294</v>
       </c>
       <c r="U3">
-        <v>0.0004667624258265175</v>
+        <v>0.0003346971328003014</v>
       </c>
       <c r="V3">
-        <v>0.0004669830968758327</v>
+        <v>0.0003346971328003014</v>
       </c>
       <c r="W3">
-        <v>0.0004709327096425582</v>
+        <v>0.0003346971328003014</v>
       </c>
       <c r="X3">
-        <v>0.0005088069212413476</v>
+        <v>0.000364106082500753</v>
       </c>
       <c r="Y3">
-        <v>0.0005699740078234024</v>
+        <v>0.0004168435615744652</v>
       </c>
       <c r="Z3">
-        <v>0.0005909867197104149</v>
+        <v>0.0004293652016754785</v>
       </c>
       <c r="AA3">
-        <v>0.0005964132089394841</v>
+        <v>0.0004293652016754785</v>
       </c>
       <c r="AB3">
-        <v>0.0005982489109169748</v>
+        <v>0.0004293652016754785</v>
       </c>
       <c r="AC3">
-        <v>0.0006149203276207277</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AD3">
-        <v>0.0006162318633760917</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AE3">
-        <v>0.0006163237225399694</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AF3">
-        <v>0.000616324638474838</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AG3">
-        <v>0.0006203056943428908</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AH3">
-        <v>0.000623877759693679</v>
+        <v>0.0004375389013752563</v>
       </c>
       <c r="AI3">
-        <v>0.0006587787011669572</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AJ3">
-        <v>0.000660614403144448</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AK3">
-        <v>0.0006688202939908443</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AL3">
-        <v>0.0006771776523436347</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AM3">
-        <v>0.0006806183122888758</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AN3">
-        <v>0.0006806993441522964</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AO3">
-        <v>0.0006808959827305971</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AP3">
-        <v>0.0006880287557316938</v>
+        <v>0.0004639700297673697</v>
       </c>
       <c r="AQ3">
-        <v>0.0007004306882552184</v>
+        <v>0.0004678677099900033</v>
       </c>
       <c r="AR3">
-        <v>0.0007057716910806789</v>
+        <v>0.0004678677099900033</v>
       </c>
       <c r="AS3">
-        <v>0.000763543160519394</v>
+        <v>0.0005172043742512177</v>
       </c>
       <c r="AT3">
-        <v>0.0008111389625285623</v>
+        <v>0.000556349795194754</v>
       </c>
       <c r="AU3">
-        <v>0.0008111389781115729</v>
+        <v>0.000556349795194754</v>
       </c>
       <c r="AV3">
-        <v>0.0008117423756870443</v>
+        <v>0.000556349795194754</v>
       </c>
       <c r="AW3">
-        <v>0.0008145658946062339</v>
+        <v>0.000556349795194754</v>
       </c>
       <c r="AX3">
-        <v>0.0008376372955801501</v>
+        <v>0.0005709332756168419</v>
       </c>
       <c r="AY3">
-        <v>0.0588873147460393</v>
+        <v>0.05870094409717143</v>
       </c>
       <c r="AZ3">
-        <v>0.1092427328716996</v>
+        <v>0.1091249179957179</v>
       </c>
       <c r="BA3">
-        <v>0.119291960295909</v>
+        <v>0.1191810045304854</v>
       </c>
       <c r="BB3">
-        <v>0.1207184992561277</v>
+        <v>0.1206012038571172</v>
       </c>
       <c r="BC3">
-        <v>0.1285460435865529</v>
+        <v>0.1284322065690995</v>
       </c>
       <c r="BD3">
-        <v>0.1297543467375592</v>
+        <v>0.1296338360330945</v>
       </c>
       <c r="BE3">
-        <v>0.1308018930817794</v>
+        <v>0.1306744626199541</v>
       </c>
       <c r="BF3">
-        <v>0.2045176461935528</v>
+        <v>0.2044945291555955</v>
       </c>
       <c r="BG3">
-        <v>0.2103080694379847</v>
+        <v>0.21028529256154</v>
       </c>
       <c r="BH3">
-        <v>0.2154012556529841</v>
+        <v>0.2153777516777423</v>
       </c>
       <c r="BI3">
-        <v>0.2312729393229777</v>
+        <v>0.2312652068886344</v>
       </c>
       <c r="BJ3">
-        <v>0.2353452288948819</v>
+        <v>0.2353352066758521</v>
       </c>
       <c r="BK3">
-        <v>0.2355872834650997</v>
+        <v>0.2355691085229261</v>
       </c>
       <c r="BL3">
-        <v>0.2356644599433576</v>
+        <v>0.235637879899242</v>
       </c>
       <c r="BM3">
-        <v>0.237434912618094</v>
+        <v>0.2374025193689115</v>
       </c>
       <c r="BN3">
-        <v>0.2610356296143543</v>
+        <v>0.2610308387328231</v>
       </c>
       <c r="BO3">
-        <v>0.268953462948591</v>
+        <v>0.2689522686539416</v>
       </c>
       <c r="BP3">
-        <v>0.2767716972786232</v>
+        <v>0.2767739471147188</v>
       </c>
       <c r="BQ3">
-        <v>0.2769014581541008</v>
+        <v>0.2768953833791602</v>
       </c>
       <c r="BR3">
-        <v>0.2897160676950457</v>
+        <v>0.2897210849994378</v>
       </c>
       <c r="BS3">
-        <v>0.2897438123992169</v>
+        <v>0.2897403489364796</v>
       </c>
       <c r="BT3">
-        <v>0.2903323706240618</v>
+        <v>0.2903212848311204</v>
       </c>
       <c r="BU3">
-        <v>0.2986517009752468</v>
+        <v>0.2986448263404343</v>
       </c>
       <c r="BV3">
-        <v>0.3013664735898459</v>
+        <v>0.3013552312199413</v>
       </c>
       <c r="BW3">
-        <v>0.3018076760384704</v>
+        <v>0.301788585780962</v>
       </c>
       <c r="BX3">
-        <v>0.3186599647498584</v>
+        <v>0.3186581470448068</v>
       </c>
       <c r="BY3">
-        <v>0.3330916023590632</v>
+        <v>0.3331033519172544</v>
       </c>
       <c r="BZ3">
-        <v>0.3384819928866085</v>
+        <v>0.3384934702764685</v>
       </c>
       <c r="CA3">
-        <v>0.3418711997296775</v>
+        <v>0.3418793417405211</v>
       </c>
       <c r="CB3">
-        <v>0.3456305469883714</v>
+        <v>0.3456359201939143</v>
       </c>
       <c r="CC3">
-        <v>0.3477382970773461</v>
+        <v>0.3477383733787751</v>
       </c>
       <c r="CD3">
-        <v>0.3502205968821318</v>
+        <v>0.3502159496024759</v>
       </c>
       <c r="CE3">
-        <v>0.3511640541619581</v>
+        <v>0.3511523277958721</v>
       </c>
       <c r="CF3">
-        <v>0.3521259773025638</v>
+        <v>0.3521072001157301</v>
       </c>
       <c r="CG3">
-        <v>0.3608665746715319</v>
+        <v>0.3608526534760026</v>
       </c>
       <c r="CH3">
-        <v>0.3667254189188521</v>
+        <v>0.3667119426168241</v>
       </c>
       <c r="CI3">
-        <v>0.3877128818047988</v>
+        <v>0.3877230077638971</v>
       </c>
       <c r="CJ3">
-        <v>0.3908036693352707</v>
+        <v>0.3908100031250868</v>
       </c>
       <c r="CK3">
-        <v>0.3925652743096336</v>
+        <v>0.392565781351213</v>
       </c>
       <c r="CL3">
-        <v>0.3938573110641745</v>
+        <v>0.3938512725897202</v>
       </c>
       <c r="CM3">
-        <v>0.3943149150034914</v>
+        <v>0.3943010537471853</v>
       </c>
       <c r="CN3">
-        <v>0.4015054373070259</v>
+        <v>0.4014940593430362</v>
       </c>
       <c r="CO3">
-        <v>0.4200183680885148</v>
+        <v>0.420026804620819</v>
       </c>
       <c r="CP3">
-        <v>0.4410793459775648</v>
+        <v>0.4411114973003672</v>
       </c>
       <c r="CQ3">
-        <v>0.4774175795115157</v>
+        <v>0.4774968305110192</v>
       </c>
       <c r="CR3">
-        <v>0.5201991653174608</v>
+        <v>0.5203353788291868</v>
       </c>
       <c r="CS3">
-        <v>0.5298529447249771</v>
+        <v>0.5299954120352153</v>
       </c>
       <c r="CT3">
-        <v>0.5329720833566458</v>
+        <v>0.5331108018946156</v>
       </c>
       <c r="CU3">
-        <v>0.5560394863303934</v>
+        <v>0.5562049908925547</v>
       </c>
       <c r="CV3">
-        <v>0.6047046023847007</v>
+        <v>0.6049360753753648</v>
       </c>
       <c r="CW3">
-        <v>0.6430294590025132</v>
+        <v>0.6433110725926608</v>
       </c>
       <c r="CX3">
-        <v>0.6542098334744719</v>
+        <v>0.6545000376212963</v>
       </c>
       <c r="CY3">
-        <v>0.6593106599897939</v>
+        <v>0.6596001487328242</v>
       </c>
       <c r="CZ3">
-        <v>0.660784635052015</v>
+        <v>0.6610678567718719</v>
       </c>
       <c r="DA3">
-        <v>0.6627623568355009</v>
+        <v>0.6630400826169932</v>
       </c>
       <c r="DB3">
-        <v>0.6627690332671827</v>
+        <v>0.6630400826169932</v>
       </c>
       <c r="DC3">
-        <v>0.6653572465764394</v>
+        <v>0.6656237344669037</v>
       </c>
       <c r="DD3">
-        <v>0.6848398023988592</v>
+        <v>0.6851275889900955</v>
       </c>
       <c r="DE3">
-        <v>0.7061894773000961</v>
+        <v>0.7065014205901767</v>
       </c>
       <c r="DF3">
-        <v>0.7180474768006595</v>
+        <v>0.7183690478876483</v>
       </c>
       <c r="DG3">
-        <v>0.7362940125709031</v>
+        <v>0.7366349903834992</v>
       </c>
       <c r="DH3">
-        <v>0.7416227513958459</v>
+        <v>0.7419633626698859</v>
       </c>
       <c r="DI3">
-        <v>0.7417137521396873</v>
+        <v>0.7420459794725806</v>
       </c>
       <c r="DJ3">
-        <v>0.7439898587357688</v>
+        <v>0.7443170468677544</v>
       </c>
       <c r="DK3">
-        <v>0.7542210551676598</v>
+        <v>0.754555380950056</v>
       </c>
       <c r="DL3">
-        <v>0.755455108219753</v>
+        <v>0.7557827997304964</v>
       </c>
       <c r="DM3">
-        <v>0.7606402334386334</v>
+        <v>0.7609673385815587</v>
       </c>
       <c r="DN3">
-        <v>0.7608659237681605</v>
+        <v>0.7611848511392084</v>
       </c>
       <c r="DO3">
-        <v>0.763496347379199</v>
+        <v>0.7638107779021848</v>
       </c>
       <c r="DP3">
-        <v>0.7760365759085615</v>
+        <v>0.7763616785160273</v>
       </c>
       <c r="DQ3">
-        <v>0.782473020580264</v>
+        <v>0.7827994522138599</v>
       </c>
       <c r="DR3">
-        <v>0.7929380130220242</v>
+        <v>0.7932719401774453</v>
       </c>
       <c r="DS3">
-        <v>0.7930088518050145</v>
+        <v>0.7933343641573872</v>
       </c>
       <c r="DT3">
-        <v>0.8015001291634579</v>
+        <v>0.8018301158731421</v>
       </c>
       <c r="DU3">
-        <v>0.8131016116531929</v>
+        <v>0.8134408335093481</v>
       </c>
       <c r="DV3">
-        <v>0.8240345991147087</v>
+        <v>0.8243820328523896</v>
       </c>
       <c r="DW3">
-        <v>0.8338163615276276</v>
+        <v>0.8341702449673316</v>
       </c>
       <c r="DX3">
-        <v>0.8404999078097611</v>
+        <v>0.8408554985138845</v>
       </c>
       <c r="DY3">
-        <v>0.8416658378589787</v>
+        <v>0.8420146900156089</v>
       </c>
       <c r="DZ3">
-        <v>0.8416876543078997</v>
+        <v>0.8420280166230236</v>
       </c>
       <c r="EA3">
-        <v>0.8427927546545495</v>
+        <v>0.8431262853101904</v>
       </c>
       <c r="EB3">
-        <v>0.8436509819507779</v>
+        <v>0.8439773030585032</v>
       </c>
       <c r="EC3">
-        <v>0.8474514252112065</v>
+        <v>0.8477750404192568</v>
       </c>
       <c r="ED3">
-        <v>0.8514801670812724</v>
+        <v>0.8518014258461947</v>
       </c>
       <c r="EE3">
-        <v>0.8550317335311951</v>
+        <v>0.8553499054408554</v>
       </c>
       <c r="EF3">
-        <v>0.856704646501814</v>
+        <v>0.8570168559024398</v>
       </c>
       <c r="EG3">
-        <v>0.8570772859975443</v>
+        <v>0.8573815425612947</v>
       </c>
       <c r="EH3">
-        <v>0.8585817278610515</v>
+        <v>0.8588797640371432</v>
       </c>
       <c r="EI3">
-        <v>0.8589245096155214</v>
+        <v>0.8592145472515107</v>
       </c>
       <c r="EJ3">
-        <v>0.8590957089327482</v>
+        <v>0.8593774853874997</v>
       </c>
       <c r="EK3">
-        <v>0.8591347691993971</v>
+        <v>0.859408082207744</v>
       </c>
       <c r="EL3">
-        <v>0.8598396137691509</v>
+        <v>0.8601054824467331</v>
       </c>
       <c r="EM3">
-        <v>0.860762171208095</v>
+        <v>0.8610209288078731</v>
       </c>
       <c r="EN3">
-        <v>0.8626101557861042</v>
+        <v>0.862863218858854</v>
       </c>
       <c r="EO3">
-        <v>0.8626521189858756</v>
+        <v>0.8628967230557388</v>
       </c>
       <c r="EP3">
-        <v>0.8627588059343791</v>
+        <v>0.8629950500739598</v>
       </c>
       <c r="EQ3">
-        <v>0.8653470192436358</v>
+        <v>0.8655787019238703</v>
       </c>
       <c r="ER3">
-        <v>0.8686843353845144</v>
+        <v>0.8689126032566652</v>
       </c>
       <c r="ES3">
-        <v>0.8720378877260784</v>
+        <v>0.8722627656428883</v>
       </c>
       <c r="ET3">
-        <v>0.8737064265965127</v>
+        <v>0.8739253353088555</v>
       </c>
       <c r="EU3">
-        <v>0.8737980980343824</v>
+        <v>0.8740086238322095</v>
       </c>
       <c r="EV3">
-        <v>0.8760425087291259</v>
+        <v>0.8762479468091477</v>
       </c>
       <c r="EW3">
-        <v>0.8792058966626625</v>
+        <v>0.8794076537027963</v>
       </c>
       <c r="EX3">
-        <v>0.8831251471281063</v>
+        <v>0.8833243801266838</v>
       </c>
       <c r="EY3">
-        <v>0.8895756754004034</v>
+        <v>0.88977625898287</v>
       </c>
       <c r="EZ3">
-        <v>0.8944693911069825</v>
+        <v>0.8946689422612625</v>
       </c>
       <c r="FA3">
-        <v>0.896467450891327</v>
+        <v>0.8966615372386083</v>
       </c>
       <c r="FB3">
-        <v>0.8973557476788248</v>
+        <v>0.897542670505543</v>
       </c>
       <c r="FC3">
-        <v>0.8976333877305448</v>
+        <v>0.8978122123047948</v>
       </c>
       <c r="FD3">
-        <v>0.9019810119140717</v>
+        <v>0.9021579681581628</v>
       </c>
       <c r="FE3">
-        <v>0.9065381737064437</v>
+        <v>0.9067135823594704</v>
       </c>
       <c r="FF3">
-        <v>0.9084646583877667</v>
+        <v>0.9086344926738269</v>
       </c>
       <c r="FG3">
-        <v>0.9120433568388348</v>
+        <v>0.9122101458005711</v>
       </c>
       <c r="FH3">
-        <v>0.9149685596623167</v>
+        <v>0.9151313029943576</v>
       </c>
       <c r="FI3">
-        <v>0.9189174118290102</v>
+        <v>0.9190776764308013</v>
       </c>
       <c r="FJ3">
-        <v>0.9235937810264144</v>
+        <v>0.9237526805078455</v>
       </c>
       <c r="FK3">
-        <v>0.9241213933486866</v>
+        <v>0.9242725772100565</v>
       </c>
       <c r="FL3">
-        <v>0.926754517159839</v>
+        <v>0.9269012083063416</v>
       </c>
       <c r="FM3">
-        <v>0.9351090910125118</v>
+        <v>0.9352600472643502</v>
       </c>
       <c r="FN3">
-        <v>0.9450058864302866</v>
+        <v>0.9451634684651007</v>
       </c>
       <c r="FO3">
-        <v>0.9509077836794242</v>
+        <v>0.951065876508944</v>
       </c>
       <c r="FP3">
-        <v>0.9547843148430647</v>
+        <v>0.9549398182406181</v>
       </c>
       <c r="FQ3">
-        <v>0.9550169100628833</v>
+        <v>0.9551642462578708</v>
       </c>
       <c r="FR3">
-        <v>0.9553984072189874</v>
+        <v>0.955537804135515</v>
       </c>
       <c r="FS3">
-        <v>0.9559912295140123</v>
+        <v>0.9561230106273455</v>
       </c>
       <c r="FT3">
-        <v>0.9567618185965413</v>
+        <v>0.9568862560141969</v>
       </c>
       <c r="FU3">
-        <v>0.9597759347237766</v>
+        <v>0.9598964626112783</v>
       </c>
       <c r="FV3">
-        <v>0.9644751274221444</v>
+        <v>0.9645943251252054</v>
       </c>
       <c r="FW3">
-        <v>0.9745206618461979</v>
+        <v>0.9746467130069438</v>
       </c>
       <c r="FX3">
-        <v>0.9788833374303602</v>
+        <v>0.9790075433001173</v>
       </c>
       <c r="FY3">
-        <v>0.9790927027291981</v>
+        <v>0.9792087058383629</v>
       </c>
       <c r="FZ3">
-        <v>0.9791332014609077</v>
+        <v>0.9792407433255256</v>
       </c>
       <c r="GA3">
-        <v>0.9791338171862937</v>
+        <v>0.9792407433255256</v>
       </c>
       <c r="GB3">
-        <v>0.9796157560066379</v>
+        <v>0.979714896613406</v>
       </c>
       <c r="GC3">
-        <v>0.9806491542502609</v>
+        <v>0.9807413534431793</v>
       </c>
       <c r="GD3">
-        <v>0.9847686024241558</v>
+        <v>0.9848585840180319</v>
       </c>
       <c r="GE3">
-        <v>0.9906704996732933</v>
+        <v>0.9907609920618753</v>
       </c>
       <c r="GF3">
-        <v>0.9937020748012656</v>
+        <v>0.9937886843841758</v>
       </c>
       <c r="GG3">
-        <v>0.9944337669321526</v>
+        <v>0.9945129732798442</v>
       </c>
       <c r="GH3">
-        <v>0.9947463535853478</v>
+        <v>0.9948175151733134</v>
       </c>
       <c r="GI3">
-        <v>0.9960427457400726</v>
+        <v>0.996107368478813</v>
       </c>
       <c r="GJ3">
-        <v>0.9969247266773037</v>
+        <v>0.9969821762278128</v>
       </c>
       <c r="GK3">
-        <v>0.9972265509300446</v>
+        <v>0.9972759392468277</v>
       </c>
       <c r="GL3">
-        <v>0.9972310000687324</v>
+        <v>0.9972759392468277</v>
       </c>
       <c r="GM3">
-        <v>0.9975476322120985</v>
+        <v>0.9975845328228971</v>
       </c>
       <c r="GN3">
-        <v>0.9991347732790967</v>
+        <v>0.9991655800898585</v>
       </c>
       <c r="GO3">
-        <v>0.9991350544814885</v>
+        <v>0.9991655800898585</v>
       </c>
       <c r="GP3">
-        <v>0.9991413247557532</v>
+        <v>0.9991655800898585</v>
       </c>
       <c r="GQ3">
-        <v>0.9997674957321859</v>
+        <v>0.9997841863099036</v>
       </c>
       <c r="GR3">
-        <v>0.999940075199471</v>
+        <v>0.9999485067085458</v>
       </c>
       <c r="GS3">
         <v>1.000000000000001</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.926112348353644E-05</v>
+        <v>4.045432212949408E-05</v>
       </c>
       <c r="C4">
-        <v>9.246805215344634E-05</v>
+        <v>7.48445043631847E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001255492811350676</v>
+        <v>9.909235366195381E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001300335936970217</v>
+        <v>9.909235366195381E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001679321125303467</v>
+        <v>0.0001281654060601697</v>
       </c>
       <c r="G4">
-        <v>0.0002153857570695249</v>
+        <v>0.0001668092801425284</v>
       </c>
       <c r="H4">
-        <v>0.0002830355249869819</v>
+        <v>0.0002256824532958608</v>
       </c>
       <c r="I4">
-        <v>0.0003216688067976878</v>
+        <v>0.0002554914756491673</v>
       </c>
       <c r="J4">
-        <v>0.0003271691609283639</v>
+        <v>0.0002554914756491673</v>
       </c>
       <c r="K4">
-        <v>0.0003276501492135571</v>
+        <v>0.0002554914756491673</v>
       </c>
       <c r="L4">
-        <v>0.0003365232949404045</v>
+        <v>0.0002554914756491673</v>
       </c>
       <c r="M4">
-        <v>0.0003471889856120699</v>
+        <v>0.0002572869651650357</v>
       </c>
       <c r="N4">
-        <v>0.0004009967309556423</v>
+        <v>0.0003022953777824209</v>
       </c>
       <c r="O4">
-        <v>0.0005490035963993715</v>
+        <v>0.0004416576491595582</v>
       </c>
       <c r="P4">
-        <v>0.0006285543839504653</v>
+        <v>0.0005124513914691129</v>
       </c>
       <c r="Q4">
-        <v>0.0006337855747894273</v>
+        <v>0.0005124513914691129</v>
       </c>
       <c r="R4">
-        <v>0.00064426651746678</v>
+        <v>0.0005140618295095217</v>
       </c>
       <c r="S4">
-        <v>0.000700868765724326</v>
+        <v>0.000561869335504514</v>
       </c>
       <c r="T4">
-        <v>0.0007160836252559489</v>
+        <v>0.0005682214666920915</v>
       </c>
       <c r="U4">
-        <v>0.0007255641969640972</v>
+        <v>0.0005688298904776399</v>
       </c>
       <c r="V4">
-        <v>0.0007467437453121021</v>
+        <v>0.0005811565085343982</v>
       </c>
       <c r="W4">
-        <v>0.0008674493315962789</v>
+        <v>0.0006931726535884651</v>
       </c>
       <c r="X4">
-        <v>0.0009069487543803213</v>
+        <v>0.0007238492397043348</v>
       </c>
       <c r="Y4">
-        <v>0.0009079668272489808</v>
+        <v>0.0007238492397043348</v>
       </c>
       <c r="Z4">
-        <v>0.0009155900433143062</v>
+        <v>0.0007238492397043348</v>
       </c>
       <c r="AA4">
-        <v>0.0009206862791574228</v>
+        <v>0.0007238492397043348</v>
       </c>
       <c r="AB4">
-        <v>0.000996377536827329</v>
+        <v>0.0007907771121745383</v>
       </c>
       <c r="AC4">
-        <v>0.001087039194036384</v>
+        <v>0.0008726999757040216</v>
       </c>
       <c r="AD4">
-        <v>0.001097704884708049</v>
+        <v>0.00087449546521989</v>
       </c>
       <c r="AE4">
-        <v>0.001097705728719883</v>
+        <v>0.00087449546521989</v>
       </c>
       <c r="AF4">
-        <v>0.00110398047802672</v>
+        <v>0.00087449546521989</v>
       </c>
       <c r="AG4">
-        <v>0.001118735544572497</v>
+        <v>0.0008803870481305932</v>
       </c>
       <c r="AH4">
-        <v>0.001119409463851751</v>
+        <v>0.0008803870481305932</v>
       </c>
       <c r="AI4">
-        <v>0.00113204164646288</v>
+        <v>0.0008841522598955762</v>
       </c>
       <c r="AJ4">
-        <v>0.001133272119725001</v>
+        <v>0.0008841522598955762</v>
       </c>
       <c r="AK4">
-        <v>0.001139696521527231</v>
+        <v>0.0008841522598955762</v>
       </c>
       <c r="AL4">
-        <v>0.001173120230498309</v>
+        <v>0.0009087431517675553</v>
       </c>
       <c r="AM4">
-        <v>0.001173167372449858</v>
+        <v>0.0009087431517675553</v>
       </c>
       <c r="AN4">
-        <v>0.001175768495869784</v>
+        <v>0.0009087431517675553</v>
       </c>
       <c r="AO4">
-        <v>0.001176789167138364</v>
+        <v>0.0009087431517675553</v>
       </c>
       <c r="AP4">
-        <v>0.001187920816795685</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AQ4">
-        <v>0.001190655475811501</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AR4">
-        <v>0.001194157785203685</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AS4">
-        <v>0.001197655279696017</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AT4">
-        <v>0.001197796277521677</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AU4">
-        <v>0.001197915856207996</v>
+        <v>0.0009110053656888499</v>
       </c>
       <c r="AV4">
-        <v>0.001227332308302434</v>
+        <v>0.000931582418058395</v>
       </c>
       <c r="AW4">
-        <v>0.001578410347494783</v>
+        <v>0.001274349443383148</v>
       </c>
       <c r="AX4">
-        <v>0.0236028806694894</v>
+        <v>0.0233261111187845</v>
       </c>
       <c r="AY4">
-        <v>0.05082704983141553</v>
+        <v>0.05058611305603229</v>
       </c>
       <c r="AZ4">
-        <v>0.0509535055675227</v>
+        <v>0.05070388879654403</v>
       </c>
       <c r="BA4">
-        <v>0.05869535002919633</v>
+        <v>0.05844956288099699</v>
       </c>
       <c r="BB4">
-        <v>0.07053369066476266</v>
+        <v>0.07029846235641296</v>
       </c>
       <c r="BC4">
-        <v>0.07231600160989567</v>
+        <v>0.07207481334001516</v>
       </c>
       <c r="BD4">
-        <v>0.07491874892977221</v>
+        <v>0.07467294840972778</v>
       </c>
       <c r="BE4">
-        <v>0.1031146150617854</v>
+        <v>0.1029062435006207</v>
       </c>
       <c r="BF4">
-        <v>0.1491198636455513</v>
+        <v>0.1489781760932697</v>
       </c>
       <c r="BG4">
-        <v>0.150623859699252</v>
+        <v>0.1504757550041708</v>
       </c>
       <c r="BH4">
-        <v>0.1521301598528818</v>
+        <v>0.1519756417998912</v>
       </c>
       <c r="BI4">
-        <v>0.1533003686168579</v>
+        <v>0.1531388851166064</v>
       </c>
       <c r="BJ4">
-        <v>0.1533025712301901</v>
+        <v>0.1531388851166064</v>
       </c>
       <c r="BK4">
-        <v>0.1536878774983287</v>
+        <v>0.153515936596777</v>
       </c>
       <c r="BL4">
-        <v>0.1538910280620749</v>
+        <v>0.1537105331497015</v>
       </c>
       <c r="BM4">
-        <v>0.1793198852792683</v>
+        <v>0.1791722740258809</v>
       </c>
       <c r="BN4">
-        <v>0.1990876496707337</v>
+        <v>0.1989636227334642</v>
       </c>
       <c r="BO4">
-        <v>0.2012327636046981</v>
+        <v>0.2011033726737596</v>
       </c>
       <c r="BP4">
-        <v>0.2013067644624201</v>
+        <v>0.201168607369502</v>
       </c>
       <c r="BQ4">
-        <v>0.2070077007869214</v>
+        <v>0.2068700207654088</v>
       </c>
       <c r="BR4">
-        <v>0.2080103363560561</v>
+        <v>0.2078654156187713</v>
       </c>
       <c r="BS4">
-        <v>0.2110863162613646</v>
+        <v>0.2109375606418559</v>
       </c>
       <c r="BT4">
-        <v>0.2155876751227939</v>
+        <v>0.2154374260572537</v>
       </c>
       <c r="BU4">
-        <v>0.2194641990034583</v>
+        <v>0.2193114300902886</v>
       </c>
       <c r="BV4">
-        <v>0.2202955680778652</v>
+        <v>0.220135277113516</v>
       </c>
       <c r="BW4">
-        <v>0.2305833127611654</v>
+        <v>0.2304310335094849</v>
       </c>
       <c r="BX4">
-        <v>0.2397015499804679</v>
+        <v>0.239555361319293</v>
       </c>
       <c r="BY4">
-        <v>0.2483809567132794</v>
+        <v>0.2482401377861818</v>
       </c>
       <c r="BZ4">
-        <v>0.2500031169633425</v>
+        <v>0.2498560749989671</v>
       </c>
       <c r="CA4">
-        <v>0.25345659585703</v>
+        <v>0.2533063391190623</v>
       </c>
       <c r="CB4">
-        <v>0.2537750833472256</v>
+        <v>0.2536164620596687</v>
       </c>
       <c r="CC4">
-        <v>0.2547878554160483</v>
+        <v>0.2546220100637067</v>
       </c>
       <c r="CD4">
-        <v>0.2550709925773321</v>
+        <v>0.2548967246062548</v>
       </c>
       <c r="CE4">
-        <v>0.2552363386822421</v>
+        <v>0.2550534545998555</v>
       </c>
       <c r="CF4">
-        <v>0.2604906765204916</v>
+        <v>0.2603075358927732</v>
       </c>
       <c r="CG4">
-        <v>0.2767247940207375</v>
+        <v>0.276559433071229</v>
       </c>
       <c r="CH4">
-        <v>0.2923270215404356</v>
+        <v>0.2921784022784584</v>
       </c>
       <c r="CI4">
-        <v>0.2947384926662004</v>
+        <v>0.2945849469491935</v>
       </c>
       <c r="CJ4">
-        <v>0.2999284535064317</v>
+        <v>0.2997745454935258</v>
       </c>
       <c r="CK4">
-        <v>0.3070743152864522</v>
+        <v>0.3069232578897149</v>
       </c>
       <c r="CL4">
-        <v>0.307106253125469</v>
+        <v>0.3069463604708293</v>
       </c>
       <c r="CM4">
-        <v>0.3127401239520349</v>
+        <v>0.3125805982018984</v>
       </c>
       <c r="CN4">
-        <v>0.3261385425395755</v>
+        <v>0.3259921383323255</v>
       </c>
       <c r="CO4">
-        <v>0.3693757472085534</v>
+        <v>0.369291480010123</v>
       </c>
       <c r="CP4">
-        <v>0.3993129962869595</v>
+        <v>0.3992690185758584</v>
       </c>
       <c r="CQ4">
-        <v>0.4419839969733675</v>
+        <v>0.4420012261812377</v>
       </c>
       <c r="CR4">
-        <v>0.4609906513882632</v>
+        <v>0.461030214654951</v>
       </c>
       <c r="CS4">
-        <v>0.4624657132428546</v>
+        <v>0.4624988118372204</v>
       </c>
       <c r="CT4">
-        <v>0.4847380535572187</v>
+        <v>0.4847988506751467</v>
       </c>
       <c r="CU4">
-        <v>0.5185221425172031</v>
+        <v>0.5186295482350626</v>
       </c>
       <c r="CV4">
-        <v>0.5620154791782961</v>
+        <v>0.5621854426469216</v>
       </c>
       <c r="CW4">
-        <v>0.5824767185484135</v>
+        <v>0.5826714054880507</v>
       </c>
       <c r="CX4">
-        <v>0.594535784177185</v>
+        <v>0.5947413925363813</v>
       </c>
       <c r="CY4">
-        <v>0.6002324313018184</v>
+        <v>0.6004385096866532</v>
       </c>
       <c r="CZ4">
-        <v>0.6026003535289238</v>
+        <v>0.6028014339219864</v>
       </c>
       <c r="DA4">
-        <v>0.6029721789574775</v>
+        <v>0.6031649824179167</v>
       </c>
       <c r="DB4">
-        <v>0.6072452274259351</v>
+        <v>0.6074361624002772</v>
       </c>
       <c r="DC4">
-        <v>0.6269403248196376</v>
+        <v>0.6271547247417444</v>
       </c>
       <c r="DD4">
-        <v>0.6454858312487293</v>
+        <v>0.6457218077127987</v>
       </c>
       <c r="DE4">
-        <v>0.6625393907237493</v>
+        <v>0.6627944929439183</v>
       </c>
       <c r="DF4">
-        <v>0.6834930880787068</v>
+        <v>0.6837737227189351</v>
       </c>
       <c r="DG4">
-        <v>0.6947483197322236</v>
+        <v>0.6950385553530118</v>
       </c>
       <c r="DH4">
-        <v>0.6957547199012424</v>
+        <v>0.6960377209902774</v>
       </c>
       <c r="DI4">
-        <v>0.6976096319441404</v>
+        <v>0.6978867923317453</v>
       </c>
       <c r="DJ4">
-        <v>0.7065643916684754</v>
+        <v>0.7068473741059838</v>
       </c>
       <c r="DK4">
-        <v>0.7085591160070694</v>
+        <v>0.7088364874094887</v>
       </c>
       <c r="DL4">
-        <v>0.7150385025076068</v>
+        <v>0.715317629723066</v>
       </c>
       <c r="DM4">
-        <v>0.7172697354389201</v>
+        <v>0.717543640126344</v>
       </c>
       <c r="DN4">
-        <v>0.7227108202714208</v>
+        <v>0.7229847751783696</v>
       </c>
       <c r="DO4">
-        <v>0.7357680118694657</v>
+        <v>0.7360545277938215</v>
       </c>
       <c r="DP4">
-        <v>0.7439532406174901</v>
+        <v>0.7442443145014725</v>
       </c>
       <c r="DQ4">
-        <v>0.7568435702206718</v>
+        <v>0.7571469310218212</v>
       </c>
       <c r="DR4">
-        <v>0.757048737584356</v>
+        <v>0.7573435476876329</v>
       </c>
       <c r="DS4">
-        <v>0.7643440948597744</v>
+        <v>0.7646420011519233</v>
       </c>
       <c r="DT4">
-        <v>0.772789030599804</v>
+        <v>0.7730919214660934</v>
       </c>
       <c r="DU4">
-        <v>0.7894953640855131</v>
+        <v>0.7898168103280078</v>
       </c>
       <c r="DV4">
-        <v>0.8086688684952724</v>
+        <v>0.8090129228771126</v>
       </c>
       <c r="DW4">
-        <v>0.8155953205820472</v>
+        <v>0.8159418651609587</v>
       </c>
       <c r="DX4">
-        <v>0.820739559423686</v>
+        <v>0.8210856666002563</v>
       </c>
       <c r="DY4">
-        <v>0.8208315453708543</v>
+        <v>0.8211689159291247</v>
       </c>
       <c r="DZ4">
-        <v>0.82182862824016</v>
+        <v>0.8221587489613699</v>
       </c>
       <c r="EA4">
-        <v>0.8219446239325892</v>
+        <v>0.8222660474757381</v>
       </c>
       <c r="EB4">
-        <v>0.8246979551478301</v>
+        <v>0.8250150138014072</v>
       </c>
       <c r="EC4">
-        <v>0.8298708159885878</v>
+        <v>0.8301874842565026</v>
       </c>
       <c r="ED4">
-        <v>0.8323518043122126</v>
+        <v>0.8326636603193492</v>
       </c>
       <c r="EE4">
-        <v>0.8354740717160961</v>
+        <v>0.8357821688763846</v>
       </c>
       <c r="EF4">
-        <v>0.8367061139781687</v>
+        <v>0.8370073472636165</v>
       </c>
       <c r="EG4">
-        <v>0.8376870100479726</v>
+        <v>0.8379809669066884</v>
       </c>
       <c r="EH4">
-        <v>0.8394877555925382</v>
+        <v>0.8397757827718022</v>
       </c>
       <c r="EI4">
-        <v>0.8396460507876652</v>
+        <v>0.8399254502732577</v>
       </c>
       <c r="EJ4">
-        <v>0.8396505351002271</v>
+        <v>0.8399254502732577</v>
       </c>
       <c r="EK4">
-        <v>0.8396555809600718</v>
+        <v>0.8399254502732577</v>
       </c>
       <c r="EL4">
-        <v>0.8400569328977164</v>
+        <v>0.840318573780775</v>
       </c>
       <c r="EM4">
-        <v>0.8418199652434429</v>
+        <v>0.8420756144964728</v>
       </c>
       <c r="EN4">
-        <v>0.8418598388122155</v>
+        <v>0.8421066658431779</v>
       </c>
       <c r="EO4">
-        <v>0.8423110349583258</v>
+        <v>0.8425497154370595</v>
       </c>
       <c r="EP4">
-        <v>0.8449491194771145</v>
+        <v>0.8451832457532625</v>
       </c>
       <c r="EQ4">
-        <v>0.8481279125792579</v>
+        <v>0.8483583728619811</v>
       </c>
       <c r="ER4">
-        <v>0.8540705173963197</v>
+        <v>0.8543018517335472</v>
       </c>
       <c r="ES4">
-        <v>0.8559449803386159</v>
+        <v>0.8561705060902119</v>
       </c>
       <c r="ET4">
-        <v>0.8562770346883939</v>
+        <v>0.8564942181763591</v>
       </c>
       <c r="EU4">
-        <v>0.8568030624222005</v>
+        <v>0.8570122222820106</v>
       </c>
       <c r="EV4">
-        <v>0.8590737433522995</v>
+        <v>0.8592777454843658</v>
       </c>
       <c r="EW4">
-        <v>0.8638830282042496</v>
+        <v>0.8640860427130029</v>
       </c>
       <c r="EX4">
-        <v>0.8704551700019315</v>
+        <v>0.8706600926906508</v>
       </c>
       <c r="EY4">
-        <v>0.8784233467566377</v>
+        <v>0.878632470858824</v>
       </c>
       <c r="EZ4">
-        <v>0.8838688129890034</v>
+        <v>0.8840779945079363</v>
       </c>
       <c r="FA4">
-        <v>0.8856940033328164</v>
+        <v>0.8858972953271894</v>
       </c>
       <c r="FB4">
-        <v>0.8858202076689313</v>
+        <v>0.8860148192547401</v>
       </c>
       <c r="FC4">
-        <v>0.8881880048960407</v>
+        <v>0.8883776182847426</v>
       </c>
       <c r="FD4">
-        <v>0.8935069290323019</v>
+        <v>0.8936963919700515</v>
       </c>
       <c r="FE4">
-        <v>0.8971454749202922</v>
+        <v>0.8973320270896101</v>
       </c>
       <c r="FF4">
-        <v>0.9013232970916814</v>
+        <v>0.9015078243489233</v>
       </c>
       <c r="FG4">
-        <v>0.9055550349614108</v>
+        <v>0.9057376258726152</v>
       </c>
       <c r="FH4">
-        <v>0.9128014382383361</v>
+        <v>0.9129870449228407</v>
       </c>
       <c r="FI4">
-        <v>0.9178046670843159</v>
+        <v>0.9179896047327049</v>
       </c>
       <c r="FJ4">
-        <v>0.9182958182691962</v>
+        <v>0.9184726749985506</v>
       </c>
       <c r="FK4">
-        <v>0.9187027937566677</v>
+        <v>0.9188714312935666</v>
       </c>
       <c r="FL4">
-        <v>0.9266250905127863</v>
+        <v>0.9267978540971672</v>
       </c>
       <c r="FM4">
-        <v>0.9387342091400169</v>
+        <v>0.9389179763648299</v>
       </c>
       <c r="FN4">
-        <v>0.9448600092514392</v>
+        <v>0.9450449514613199</v>
       </c>
       <c r="FO4">
-        <v>0.9503993727809145</v>
+        <v>0.9505845266504038</v>
       </c>
       <c r="FP4">
-        <v>0.9523492591208887</v>
+        <v>0.9525287283009725</v>
       </c>
       <c r="FQ4">
-        <v>0.9530630300989159</v>
+        <v>0.9532347840522173</v>
       </c>
       <c r="FR4">
-        <v>0.9539472307716965</v>
+        <v>0.9541115494590314</v>
       </c>
       <c r="FS4">
-        <v>0.9540890112973319</v>
+        <v>0.9542446751627396</v>
       </c>
       <c r="FT4">
-        <v>0.9567987527139148</v>
+        <v>0.9569499800858225</v>
       </c>
       <c r="FU4">
-        <v>0.9625521255368019</v>
+        <v>0.962703916116307</v>
       </c>
       <c r="FV4">
-        <v>0.9726340892264369</v>
+        <v>0.9727935534870548</v>
       </c>
       <c r="FW4">
-        <v>0.9767139637008413</v>
+        <v>0.9768712421530252</v>
       </c>
       <c r="FX4">
-        <v>0.9779148456638731</v>
+        <v>0.9780652090549324</v>
       </c>
       <c r="FY4">
-        <v>0.978036859770117</v>
+        <v>0.9781785358694209</v>
       </c>
       <c r="FZ4">
-        <v>0.9780546351495698</v>
+        <v>0.978187452726635</v>
       </c>
       <c r="GA4">
-        <v>0.9781712713659793</v>
+        <v>0.9782953928171569</v>
       </c>
       <c r="GB4">
-        <v>0.979687676619298</v>
+        <v>0.9798054013119738</v>
       </c>
       <c r="GC4">
-        <v>0.9845534150695102</v>
+        <v>0.9846702448738596</v>
       </c>
       <c r="GD4">
-        <v>0.9902261798948788</v>
+        <v>0.9903434404939805</v>
       </c>
       <c r="GE4">
-        <v>0.9928542378139762</v>
+        <v>0.9929669277400348</v>
       </c>
       <c r="GF4">
-        <v>0.9937819335854179</v>
+        <v>0.9938872596938766</v>
       </c>
       <c r="GG4">
-        <v>0.9941820965730992</v>
+        <v>0.9942791922983706</v>
       </c>
       <c r="GH4">
-        <v>0.9953720270364681</v>
+        <v>0.9954621897108463</v>
       </c>
       <c r="GI4">
-        <v>0.9961374045129066</v>
+        <v>0.996219936733273</v>
       </c>
       <c r="GJ4">
-        <v>0.996881571089998</v>
+        <v>0.9969564380137116</v>
       </c>
       <c r="GK4">
-        <v>0.9968990969554584</v>
+        <v>0.9969651049470626</v>
       </c>
       <c r="GL4">
-        <v>0.99736941454098</v>
+        <v>0.9974273073906903</v>
       </c>
       <c r="GM4">
-        <v>0.9983483710108436</v>
+        <v>0.9983989842476871</v>
       </c>
       <c r="GN4">
-        <v>0.9984523036376441</v>
+        <v>0.998494199880715</v>
       </c>
       <c r="GO4">
-        <v>0.9986789912106657</v>
+        <v>0.9987123721066016</v>
       </c>
       <c r="GP4">
-        <v>0.9993393246903379</v>
+        <v>0.9993649025789808</v>
       </c>
       <c r="GQ4">
-        <v>0.9996099872520058</v>
+        <v>0.9996271220301841</v>
       </c>
       <c r="GR4">
-        <v>0.9997145262387876</v>
+        <v>0.9997229450192464</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>8.819739289427329E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.224373705605515E-06</v>
+        <v>2.990337045786211E-06</v>
       </c>
       <c r="D5">
-        <v>2.168906919625496E-05</v>
+        <v>1.410812472197352E-05</v>
       </c>
       <c r="E5">
-        <v>3.663274667003784E-05</v>
+        <v>2.570519837319187E-05</v>
       </c>
       <c r="F5">
-        <v>3.667039008871228E-05</v>
+        <v>2.570519837319187E-05</v>
       </c>
       <c r="G5">
-        <v>5.631472339696927E-05</v>
+        <v>4.200591118881628E-05</v>
       </c>
       <c r="H5">
-        <v>7.122323887199032E-05</v>
+        <v>5.356780052527116E-05</v>
       </c>
       <c r="I5">
-        <v>8.841814126650001E-05</v>
+        <v>6.741752786522786E-05</v>
       </c>
       <c r="J5">
-        <v>8.859962014010954E-05</v>
+        <v>6.741752786522786E-05</v>
       </c>
       <c r="K5">
-        <v>9.195357952200535E-05</v>
+        <v>6.741752786522786E-05</v>
       </c>
       <c r="L5">
-        <v>9.521021280732835E-05</v>
+        <v>6.741752786522786E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001016881513792184</v>
+        <v>7.054348972763043E-05</v>
       </c>
       <c r="N5">
-        <v>0.0001198972877380135</v>
+        <v>8.540809472812476E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001393451760531879</v>
+        <v>0.0001015122378743984</v>
       </c>
       <c r="P5">
-        <v>0.0001426018093385109</v>
+        <v>0.0001015122378743984</v>
       </c>
       <c r="Q5">
-        <v>0.000153992226937416</v>
+        <v>0.0001095537965299826</v>
       </c>
       <c r="R5">
-        <v>0.0001790701040543396</v>
+        <v>0.0001312915016207115</v>
       </c>
       <c r="S5">
-        <v>0.0001853896040318088</v>
+        <v>0.0001342589243336606</v>
       </c>
       <c r="T5">
-        <v>0.000262120046329872</v>
+        <v>0.0002076819765511114</v>
       </c>
       <c r="U5">
-        <v>0.0002659993341932692</v>
+        <v>0.0002082076384388944</v>
       </c>
       <c r="V5">
-        <v>0.0002678691533274266</v>
+        <v>0.0002082076384388944</v>
       </c>
       <c r="W5">
-        <v>0.0002693796575742366</v>
+        <v>0.0002082076384388944</v>
       </c>
       <c r="X5">
-        <v>0.0002930038417423497</v>
+        <v>0.0002284907279764275</v>
       </c>
       <c r="Y5">
-        <v>0.0002969892883020087</v>
+        <v>0.0002291226159354148</v>
       </c>
       <c r="Z5">
-        <v>0.0002994624540149202</v>
+        <v>0.0002291226159354148</v>
       </c>
       <c r="AA5">
-        <v>0.0003548698770638386</v>
+        <v>0.0002812091159832506</v>
       </c>
       <c r="AB5">
-        <v>0.0003886353218748437</v>
+        <v>0.0003116399024413973</v>
       </c>
       <c r="AC5">
-        <v>0.0003941525836805624</v>
+        <v>0.000313804577832121</v>
       </c>
       <c r="AD5">
-        <v>0.0004042276493257855</v>
+        <v>0.0003205299497294783</v>
       </c>
       <c r="AE5">
-        <v>0.0004043441549016829</v>
+        <v>0.0003205299497294783</v>
       </c>
       <c r="AF5">
-        <v>0.0004232055262375106</v>
+        <v>0.0003360472036560792</v>
       </c>
       <c r="AG5">
-        <v>0.0004255952180533615</v>
+        <v>0.0003360472036560792</v>
       </c>
       <c r="AH5">
-        <v>0.0004257546074077489</v>
+        <v>0.0003360472036560792</v>
       </c>
       <c r="AI5">
-        <v>0.0004441538467598498</v>
+        <v>0.0003511020323011183</v>
       </c>
       <c r="AJ5">
-        <v>0.0004540597034110313</v>
+        <v>0.0003576580878138327</v>
       </c>
       <c r="AK5">
-        <v>0.0004625591021117389</v>
+        <v>0.0003628067927499697</v>
       </c>
       <c r="AL5">
-        <v>0.0004822034354199959</v>
+        <v>0.0003791075055655941</v>
       </c>
       <c r="AM5">
-        <v>0.000482437777281744</v>
+        <v>0.0003791075055655941</v>
       </c>
       <c r="AN5">
-        <v>0.0004829440415239167</v>
+        <v>0.0003791075055655941</v>
       </c>
       <c r="AO5">
-        <v>0.000499227140950534</v>
+        <v>0.0003920448512505174</v>
       </c>
       <c r="AP5">
-        <v>0.0005010969600846914</v>
+        <v>0.0003920448512505174</v>
       </c>
       <c r="AQ5">
-        <v>0.0005086366295191943</v>
+        <v>0.0003962332178162848</v>
       </c>
       <c r="AR5">
-        <v>0.0005132319436573778</v>
+        <v>0.0003974753604138719</v>
       </c>
       <c r="AS5">
-        <v>0.0005153405017831284</v>
+        <v>0.0003974753604138719</v>
       </c>
       <c r="AT5">
-        <v>0.0005318033962034145</v>
+        <v>0.0004105926152016021</v>
       </c>
       <c r="AU5">
-        <v>0.000536398710341598</v>
+        <v>0.0004118347577991892</v>
       </c>
       <c r="AV5">
-        <v>0.0005816279387489249</v>
+        <v>0.0004537366034870885</v>
       </c>
       <c r="AW5">
-        <v>0.007701964088017953</v>
+        <v>0.007575235675005196</v>
       </c>
       <c r="AX5">
-        <v>0.02684629341388176</v>
+        <v>0.02672835910055556</v>
       </c>
       <c r="AY5">
-        <v>0.04478193578230749</v>
+        <v>0.04467202846039499</v>
       </c>
       <c r="AZ5">
-        <v>0.0530625734907184</v>
+        <v>0.05295456549093052</v>
       </c>
       <c r="BA5">
-        <v>0.09830028189774662</v>
+        <v>0.09821762848655999</v>
       </c>
       <c r="BB5">
-        <v>0.1006977795133227</v>
+        <v>0.1006132916159261</v>
       </c>
       <c r="BC5">
-        <v>0.1024550694514426</v>
+        <v>0.1023683407520379</v>
       </c>
       <c r="BD5">
-        <v>0.1031100158583797</v>
+        <v>0.1030203467408778</v>
       </c>
       <c r="BE5">
-        <v>0.1157033884149247</v>
+        <v>0.1156183557505806</v>
       </c>
       <c r="BF5">
-        <v>0.1626903667603553</v>
+        <v>0.1626317988806255</v>
       </c>
       <c r="BG5">
-        <v>0.1748253953330401</v>
+        <v>0.1747711730127346</v>
       </c>
       <c r="BH5">
-        <v>0.1752386092284894</v>
+        <v>0.1751812930715292</v>
       </c>
       <c r="BI5">
-        <v>0.1755181153186471</v>
+        <v>0.1754576204657036</v>
       </c>
       <c r="BJ5">
-        <v>0.1804875434436568</v>
+        <v>0.1804268464123221</v>
       </c>
       <c r="BK5">
-        <v>0.1804901015163667</v>
+        <v>0.1804268464123221</v>
       </c>
       <c r="BL5">
-        <v>0.1806278193715172</v>
+        <v>0.1805612955838152</v>
       </c>
       <c r="BM5">
-        <v>0.1949328038677906</v>
+        <v>0.1948720028291404</v>
       </c>
       <c r="BN5">
-        <v>0.2038824725526427</v>
+        <v>0.2038239954449818</v>
       </c>
       <c r="BO5">
-        <v>0.213034162230381</v>
+        <v>0.2129781372688556</v>
       </c>
       <c r="BP5">
-        <v>0.2140497821946176</v>
+        <v>0.2139910457209725</v>
       </c>
       <c r="BQ5">
-        <v>0.2144489700805608</v>
+        <v>0.2143871308684789</v>
       </c>
       <c r="BR5">
-        <v>0.2145366161474745</v>
+        <v>0.2144714764730495</v>
       </c>
       <c r="BS5">
-        <v>0.2146246786843735</v>
+        <v>0.2145562388119233</v>
       </c>
       <c r="BT5">
-        <v>0.2190643342280383</v>
+        <v>0.2189953559504118</v>
       </c>
       <c r="BU5">
-        <v>0.2206300308729049</v>
+        <v>0.2205586901961939</v>
       </c>
       <c r="BV5">
-        <v>0.2208042341667706</v>
+        <v>0.2207296479623416</v>
       </c>
       <c r="BW5">
-        <v>0.2257894113912258</v>
+        <v>0.2257146330037682</v>
       </c>
       <c r="BX5">
-        <v>0.2374919589791397</v>
+        <v>0.2374212516716481</v>
       </c>
       <c r="BY5">
-        <v>0.2534954904156016</v>
+        <v>0.2534315838611905</v>
       </c>
       <c r="BZ5">
-        <v>0.2636488220580687</v>
+        <v>0.2635880033543755</v>
       </c>
       <c r="CA5">
-        <v>0.2755063146405265</v>
+        <v>0.2754496653545752</v>
       </c>
       <c r="CB5">
-        <v>0.2758611702080309</v>
+        <v>0.2758013900475831</v>
       </c>
       <c r="CC5">
-        <v>0.2763369844612759</v>
+        <v>0.2762741501942723</v>
       </c>
       <c r="CD5">
-        <v>0.2775972514168976</v>
+        <v>0.2775318609060429</v>
       </c>
       <c r="CE5">
-        <v>0.2816999288724286</v>
+        <v>0.2816337860890453</v>
       </c>
       <c r="CF5">
-        <v>0.2866819442969951</v>
+        <v>0.2866156073239073</v>
       </c>
       <c r="CG5">
-        <v>0.3048309156579088</v>
+        <v>0.3047727410681441</v>
       </c>
       <c r="CH5">
-        <v>0.3279135048450932</v>
+        <v>0.3278666238208211</v>
       </c>
       <c r="CI5">
-        <v>0.3342545656218031</v>
+        <v>0.3342083529429326</v>
       </c>
       <c r="CJ5">
-        <v>0.338291216479659</v>
+        <v>0.3382442096236551</v>
       </c>
       <c r="CK5">
-        <v>0.3402558833104765</v>
+        <v>0.3402067672667995</v>
       </c>
       <c r="CL5">
-        <v>0.3406336187371752</v>
+        <v>0.3405813863399901</v>
       </c>
       <c r="CM5">
-        <v>0.3441396551137159</v>
+        <v>0.34408629177829</v>
       </c>
       <c r="CN5">
-        <v>0.366730138318229</v>
+        <v>0.3666877562270879</v>
       </c>
       <c r="CO5">
-        <v>0.4109282847618637</v>
+        <v>0.4109105974883407</v>
       </c>
       <c r="CP5">
-        <v>0.4446700035737043</v>
+        <v>0.4446703748154123</v>
       </c>
       <c r="CQ5">
-        <v>0.4814776772775824</v>
+        <v>0.4814980528810844</v>
       </c>
       <c r="CR5">
-        <v>0.4901435029724295</v>
+        <v>0.4901660223624223</v>
       </c>
       <c r="CS5">
-        <v>0.4925690423870182</v>
+        <v>0.4925897450878789</v>
       </c>
       <c r="CT5">
-        <v>0.5196679004327762</v>
+        <v>0.51970244567432</v>
       </c>
       <c r="CU5">
-        <v>0.5676248947440492</v>
+        <v>0.5676865204029546</v>
       </c>
       <c r="CV5">
-        <v>0.6022358355252816</v>
+        <v>0.6023160713619966</v>
       </c>
       <c r="CW5">
-        <v>0.6179572859716764</v>
+        <v>0.6180441435352487</v>
       </c>
       <c r="CX5">
-        <v>0.6283247956066016</v>
+        <v>0.6284148769516297</v>
       </c>
       <c r="CY5">
-        <v>0.6313219210010628</v>
+        <v>0.6314105484211395</v>
       </c>
       <c r="CZ5">
-        <v>0.6324786136603318</v>
+        <v>0.6325646191018366</v>
       </c>
       <c r="DA5">
-        <v>0.6325795956167758</v>
+        <v>0.6326623090597264</v>
       </c>
       <c r="DB5">
-        <v>0.639136335385891</v>
+        <v>0.6392198540576092</v>
       </c>
       <c r="DC5">
-        <v>0.6582485807128846</v>
+        <v>0.6583408731217787</v>
       </c>
       <c r="DD5">
-        <v>0.6774003180384875</v>
+        <v>0.6775014092486478</v>
       </c>
       <c r="DE5">
-        <v>0.6964090873691249</v>
+        <v>0.6965188866441276</v>
       </c>
       <c r="DF5">
-        <v>0.7134888867676877</v>
+        <v>0.7136061698626747</v>
       </c>
       <c r="DG5">
-        <v>0.7194707109570476</v>
+        <v>0.7195884344034493</v>
       </c>
       <c r="DH5">
-        <v>0.7202403426899463</v>
+        <v>0.7203551985047252</v>
       </c>
       <c r="DI5">
-        <v>0.7222327908197855</v>
+        <v>0.7223455550786396</v>
       </c>
       <c r="DJ5">
-        <v>0.7316388784885656</v>
+        <v>0.7317542563504174</v>
       </c>
       <c r="DK5">
-        <v>0.7369824198004015</v>
+        <v>0.7370978329194684</v>
       </c>
       <c r="DL5">
-        <v>0.7433590555758587</v>
+        <v>0.7434751596184443</v>
       </c>
       <c r="DM5">
-        <v>0.7439457722551984</v>
+        <v>0.744058892576838</v>
       </c>
       <c r="DN5">
-        <v>0.7496042840559431</v>
+        <v>0.7497176395347523</v>
       </c>
       <c r="DO5">
-        <v>0.7585387647413301</v>
+        <v>0.7586544345118751</v>
       </c>
       <c r="DP5">
-        <v>0.7669809434440525</v>
+        <v>0.7670986150607317</v>
       </c>
       <c r="DQ5">
-        <v>0.7764859391093497</v>
+        <v>0.7766062871022219</v>
       </c>
       <c r="DR5">
-        <v>0.7764976937504358</v>
+        <v>0.7766146931155237</v>
       </c>
       <c r="DS5">
-        <v>0.7814075600775429</v>
+        <v>0.7815243194626006</v>
       </c>
       <c r="DT5">
-        <v>0.7902721947653892</v>
+        <v>0.7903912241135482</v>
       </c>
       <c r="DU5">
-        <v>0.8059880742119803</v>
+        <v>0.8061137217512919</v>
       </c>
       <c r="DV5">
-        <v>0.8187603047622271</v>
+        <v>0.8188907022691561</v>
       </c>
       <c r="DW5">
-        <v>0.8244787220608624</v>
+        <v>0.8246093927447333</v>
       </c>
       <c r="DX5">
-        <v>0.8279478740387018</v>
+        <v>0.8280773903751878</v>
       </c>
       <c r="DY5">
-        <v>0.8279677563650018</v>
+        <v>0.8280939292320403</v>
       </c>
       <c r="DZ5">
-        <v>0.8287777512364791</v>
+        <v>0.8289010820888648</v>
       </c>
       <c r="EA5">
-        <v>0.8302454700847958</v>
+        <v>0.8303663763552649</v>
       </c>
       <c r="EB5">
-        <v>0.8336440279651212</v>
+        <v>0.8337637350847795</v>
       </c>
       <c r="EC5">
-        <v>0.8366470178593758</v>
+        <v>0.8367652747760609</v>
       </c>
       <c r="ED5">
-        <v>0.83951370735843</v>
+        <v>0.8396304275673937</v>
       </c>
       <c r="EE5">
-        <v>0.8422202719631228</v>
+        <v>0.8423353538391011</v>
       </c>
       <c r="EF5">
-        <v>0.8428434133411798</v>
+        <v>0.8429555346136021</v>
       </c>
       <c r="EG5">
-        <v>0.8432946414252905</v>
+        <v>0.8434036929872377</v>
       </c>
       <c r="EH5">
-        <v>0.8434303749205109</v>
+        <v>0.8435361565394019</v>
       </c>
       <c r="EI5">
-        <v>0.8434461926169539</v>
+        <v>0.8435486281867295</v>
       </c>
       <c r="EJ5">
-        <v>0.8435228464842546</v>
+        <v>0.8436219746153504</v>
       </c>
       <c r="EK5">
-        <v>0.8436142064710375</v>
+        <v>0.8437100364968758</v>
       </c>
       <c r="EL5">
-        <v>0.8442769395477004</v>
+        <v>0.8443698340973487</v>
       </c>
       <c r="EM5">
-        <v>0.8455192225039555</v>
+        <v>0.8456095493959827</v>
       </c>
       <c r="EN5">
-        <v>0.8456866624380593</v>
+        <v>0.8457737395099177</v>
       </c>
       <c r="EO5">
-        <v>0.8461576272714751</v>
+        <v>0.8462416471590328</v>
       </c>
       <c r="EP5">
-        <v>0.8477350032159304</v>
+        <v>0.847816668116817</v>
       </c>
       <c r="EQ5">
-        <v>0.8506021798149676</v>
+        <v>0.8506823083172768</v>
       </c>
       <c r="ER5">
-        <v>0.8551104789562152</v>
+        <v>0.8551901126188646</v>
       </c>
       <c r="ES5">
-        <v>0.856710615899869</v>
+        <v>0.8567879090213997</v>
       </c>
       <c r="ET5">
-        <v>0.8568803729038913</v>
+        <v>0.8569544176758106</v>
       </c>
       <c r="EU5">
-        <v>0.8575237211812369</v>
+        <v>0.8575948181741611</v>
       </c>
       <c r="EV5">
-        <v>0.859151451423919</v>
+        <v>0.8592202253881563</v>
       </c>
       <c r="EW5">
-        <v>0.8644403460376793</v>
+        <v>0.8645091205769222</v>
       </c>
       <c r="EX5">
-        <v>0.8712031292995389</v>
+        <v>0.8712728398356254</v>
       </c>
       <c r="EY5">
-        <v>0.8798730919942404</v>
+        <v>0.8799449489424164</v>
       </c>
       <c r="EZ5">
-        <v>0.884297303438449</v>
+        <v>0.884368612179658</v>
       </c>
       <c r="FA5">
-        <v>0.8852359594053958</v>
+        <v>0.885304507788323</v>
       </c>
       <c r="FB5">
-        <v>0.8856693651601342</v>
+        <v>0.8857348325214223</v>
       </c>
       <c r="FC5">
-        <v>0.8894763986260757</v>
+        <v>0.889540926080685</v>
       </c>
       <c r="FD5">
-        <v>0.8938668584714728</v>
+        <v>0.8939308162982416</v>
       </c>
       <c r="FE5">
-        <v>0.8969808788618178</v>
+        <v>0.8970434569525041</v>
       </c>
       <c r="FF5">
-        <v>0.8994095037762977</v>
+        <v>0.8994702671361031</v>
       </c>
       <c r="FG5">
-        <v>0.9023439571729657</v>
+        <v>0.9024032268322537</v>
       </c>
       <c r="FH5">
-        <v>0.9100166966027827</v>
+        <v>0.9100774797739608</v>
       </c>
       <c r="FI5">
-        <v>0.9142489810537497</v>
+        <v>0.9143090942090977</v>
       </c>
       <c r="FJ5">
-        <v>0.9148880409612463</v>
+        <v>0.9149452036159317</v>
       </c>
       <c r="FK5">
-        <v>0.9164088730076927</v>
+        <v>0.916463644789416</v>
       </c>
       <c r="FL5">
-        <v>0.9268929956385115</v>
+        <v>0.9269510652115848</v>
       </c>
       <c r="FM5">
-        <v>0.9388390472178508</v>
+        <v>0.9389013424137393</v>
       </c>
       <c r="FN5">
-        <v>0.9452856989908426</v>
+        <v>0.9453487295467771</v>
       </c>
       <c r="FO5">
-        <v>0.9495324962412985</v>
+        <v>0.9495948659921323</v>
       </c>
       <c r="FP5">
-        <v>0.9507562878982048</v>
+        <v>0.9508160782556834</v>
       </c>
       <c r="FQ5">
-        <v>0.9515162914714425</v>
+        <v>0.9515732080866665</v>
       </c>
       <c r="FR5">
-        <v>0.952106904790645</v>
+        <v>0.9521608401579741</v>
       </c>
       <c r="FS5">
-        <v>0.9521541371189818</v>
+        <v>0.9522047463748838</v>
       </c>
       <c r="FT5">
-        <v>0.9543594951413237</v>
+        <v>0.9544081479672233</v>
       </c>
       <c r="FU5">
-        <v>0.9604424959271207</v>
+        <v>0.9604916533174257</v>
       </c>
       <c r="FV5">
-        <v>0.9718992515236898</v>
+        <v>0.9719523239990038</v>
       </c>
       <c r="FW5">
-        <v>0.9794118342591466</v>
+        <v>0.9794663186009043</v>
       </c>
       <c r="FX5">
-        <v>0.9815128655851622</v>
+        <v>0.9815653272846767</v>
       </c>
       <c r="FY5">
-        <v>0.9815657779632989</v>
+        <v>0.981614917156301</v>
       </c>
       <c r="FZ5">
-        <v>0.9816360836308232</v>
+        <v>0.9816819113561811</v>
       </c>
       <c r="GA5">
-        <v>0.981864467972781</v>
+        <v>0.9819070845570997</v>
       </c>
       <c r="GB5">
-        <v>0.9829092984359891</v>
+        <v>0.9829492220469961</v>
       </c>
       <c r="GC5">
-        <v>0.9867765649998096</v>
+        <v>0.9868155869318256</v>
       </c>
       <c r="GD5">
-        <v>0.991331100139429</v>
+        <v>0.991369656576039</v>
       </c>
       <c r="GE5">
-        <v>0.9935815118601845</v>
+        <v>0.9936181404606844</v>
       </c>
       <c r="GF5">
-        <v>0.9945644152255732</v>
+        <v>0.9945983115499554</v>
       </c>
       <c r="GG5">
-        <v>0.9945644227857848</v>
+        <v>0.9945983115499554</v>
       </c>
       <c r="GH5">
-        <v>0.9949172642733601</v>
+        <v>0.9949480208847733</v>
       </c>
       <c r="GI5">
-        <v>0.9954819356034762</v>
+        <v>0.9955096945025871</v>
       </c>
       <c r="GJ5">
-        <v>0.9962231216773766</v>
+        <v>0.9962479948914719</v>
       </c>
       <c r="GK5">
-        <v>0.9963704244721896</v>
+        <v>0.9963920350858291</v>
       </c>
       <c r="GL5">
-        <v>0.99711501524597</v>
+        <v>0.9971337423354292</v>
       </c>
       <c r="GM5">
-        <v>0.9974591953538503</v>
+        <v>0.9974747847934993</v>
       </c>
       <c r="GN5">
-        <v>0.9974596166394555</v>
+        <v>0.9974747847934993</v>
       </c>
       <c r="GO5">
-        <v>0.9978784686547063</v>
+        <v>0.9978905465503985</v>
       </c>
       <c r="GP5">
-        <v>0.9986950793259507</v>
+        <v>0.99870431940579</v>
       </c>
       <c r="GQ5">
-        <v>0.9990061589849966</v>
+        <v>0.9990122404074124</v>
       </c>
       <c r="GR5">
-        <v>0.9995440174660568</v>
+        <v>0.9995470841590609</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.444747033916452E-05</v>
+        <v>3.237824774361286E-05</v>
       </c>
       <c r="C6">
-        <v>5.214250548602372E-05</v>
+        <v>4.799721320166752E-05</v>
       </c>
       <c r="D6">
-        <v>5.214250643768727E-05</v>
+        <v>4.799721320166752E-05</v>
       </c>
       <c r="E6">
-        <v>6.313731090758851E-05</v>
+        <v>5.691320944930719E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001142614644427106</v>
+        <v>0.000105974956520603</v>
       </c>
       <c r="G6">
-        <v>0.0001650223439953474</v>
+        <v>0.0001546732811312487</v>
       </c>
       <c r="H6">
-        <v>0.0001761865644570805</v>
+        <v>0.0001637587626148081</v>
       </c>
       <c r="I6">
-        <v>0.0001771567753103032</v>
+        <v>0.0001637587626148081</v>
       </c>
       <c r="J6">
-        <v>0.0002316374926835934</v>
+        <v>0.0002161784454266459</v>
       </c>
       <c r="K6">
-        <v>0.0002375282443995792</v>
+        <v>0.0002199883027803688</v>
       </c>
       <c r="L6">
-        <v>0.00023893633883169</v>
+        <v>0.0002199883027803688</v>
       </c>
       <c r="M6">
-        <v>0.0002522488081898483</v>
+        <v>0.0002312229111975078</v>
       </c>
       <c r="N6">
-        <v>0.0002598082148253823</v>
+        <v>0.0002367021054871969</v>
       </c>
       <c r="O6">
-        <v>0.000323002131778578</v>
+        <v>0.0002978385491576062</v>
       </c>
       <c r="P6">
-        <v>0.0003467206336350244</v>
+        <v>0.0003194834432502036</v>
       </c>
       <c r="Q6">
-        <v>0.000348803084534622</v>
+        <v>0.0003194834432502036</v>
       </c>
       <c r="R6">
-        <v>0.0003508855354342196</v>
+        <v>0.0003194834432502036</v>
       </c>
       <c r="S6">
-        <v>0.0003541774617755041</v>
+        <v>0.0003206934130314323</v>
       </c>
       <c r="T6">
-        <v>0.0003573776892212097</v>
+        <v>0.0003218116464377018</v>
       </c>
       <c r="U6">
-        <v>0.0003582822065775997</v>
+        <v>0.0003218116464377018</v>
       </c>
       <c r="V6">
-        <v>0.0003626328503678396</v>
+        <v>0.0003240807663892794</v>
       </c>
       <c r="W6">
-        <v>0.0003654005002344013</v>
+        <v>0.0003247662454123171</v>
       </c>
       <c r="X6">
-        <v>0.0003740095048193305</v>
+        <v>0.0003312954666454524</v>
       </c>
       <c r="Y6">
-        <v>0.0004068821852344212</v>
+        <v>0.0003620982808132871</v>
       </c>
       <c r="Z6">
-        <v>0.0004439672664464171</v>
+        <v>0.0003971152174800209</v>
       </c>
       <c r="AA6">
-        <v>0.0005079417733619778</v>
+        <v>0.0004590325701572926</v>
       </c>
       <c r="AB6">
-        <v>0.0005709699103231664</v>
+        <v>0.0005200031660777211</v>
       </c>
       <c r="AC6">
-        <v>0.0006114348413722077</v>
+        <v>0.0005584013340013805</v>
       </c>
       <c r="AD6">
-        <v>0.0006944208813711545</v>
+        <v>0.0006393379901988977</v>
       </c>
       <c r="AE6">
-        <v>0.0007345626894357747</v>
+        <v>0.000677412903070578</v>
       </c>
       <c r="AF6">
-        <v>0.0007386085192407107</v>
+        <v>0.0006793770844525893</v>
       </c>
       <c r="AG6">
-        <v>0.0007403176659583066</v>
+        <v>0.0006793770844525893</v>
       </c>
       <c r="AH6">
-        <v>0.000762492245889191</v>
+        <v>0.0006994774255843587</v>
       </c>
       <c r="AI6">
-        <v>0.0008099518966009919</v>
+        <v>0.0007448731720684399</v>
       </c>
       <c r="AJ6">
-        <v>0.0008464432308416144</v>
+        <v>0.0007792961190861934</v>
       </c>
       <c r="AK6">
-        <v>0.0008659097449030642</v>
+        <v>0.0007966872875017128</v>
       </c>
       <c r="AL6">
-        <v>0.0008790371572701449</v>
+        <v>0.0008077367632908615</v>
       </c>
       <c r="AM6">
-        <v>0.0008838600020376183</v>
+        <v>0.0008104782772187255</v>
       </c>
       <c r="AN6">
-        <v>0.0008963061804375436</v>
+        <v>0.0008208462406052291</v>
       </c>
       <c r="AO6">
-        <v>0.0009133647366150897</v>
+        <v>0.0008358284669508448</v>
       </c>
       <c r="AP6">
-        <v>0.0009167496574518906</v>
+        <v>0.0008371314692365106</v>
       </c>
       <c r="AQ6">
-        <v>0.000928735113874029</v>
+        <v>0.0008470385223378969</v>
       </c>
       <c r="AR6">
-        <v>0.0009479777129462746</v>
+        <v>0.0008642056842451706</v>
       </c>
       <c r="AS6">
-        <v>0.0009479847443631356</v>
+        <v>0.0008642056842451706</v>
       </c>
       <c r="AT6">
-        <v>0.0009503653268483592</v>
+        <v>0.0008645039376838135</v>
       </c>
       <c r="AU6">
-        <v>0.0009617002583018618</v>
+        <v>0.0008737601999325255</v>
       </c>
       <c r="AV6">
-        <v>0.001073039932933779</v>
+        <v>0.0009830620795247755</v>
       </c>
       <c r="AW6">
-        <v>0.007985624599653402</v>
+        <v>0.007896388771461423</v>
       </c>
       <c r="AX6">
-        <v>0.01198827510667133</v>
+        <v>0.01189859194881618</v>
       </c>
       <c r="AY6">
-        <v>0.01239927670685548</v>
+        <v>0.01230767823246155</v>
       </c>
       <c r="AZ6">
-        <v>0.02005853373757537</v>
+        <v>0.01996798247001814</v>
       </c>
       <c r="BA6">
-        <v>0.09742323000754724</v>
+        <v>0.09736221611182216</v>
       </c>
       <c r="BB6">
-        <v>0.09748956397834904</v>
+        <v>0.0974264938927511</v>
       </c>
       <c r="BC6">
-        <v>0.1015341850833434</v>
+        <v>0.1014706848224002</v>
       </c>
       <c r="BD6">
-        <v>0.1018097475900576</v>
+        <v>0.1017442766556025</v>
       </c>
       <c r="BE6">
-        <v>0.1213535916477791</v>
+        <v>0.1212940254154868</v>
       </c>
       <c r="BF6">
-        <v>0.1563250879616785</v>
+        <v>0.1562777320565197</v>
       </c>
       <c r="BG6">
-        <v>0.1654569805213973</v>
+        <v>0.1654112737220039</v>
       </c>
       <c r="BH6">
-        <v>0.1708475562614984</v>
+        <v>0.1708019694083865</v>
       </c>
       <c r="BI6">
-        <v>0.1717502873179745</v>
+        <v>0.1717029861291009</v>
       </c>
       <c r="BJ6">
-        <v>0.1780558414139613</v>
+        <v>0.178009034143395</v>
       </c>
       <c r="BK6">
-        <v>0.1782065352766958</v>
+        <v>0.1781577062960227</v>
       </c>
       <c r="BL6">
-        <v>0.1785776257188042</v>
+        <v>0.1785268651090134</v>
       </c>
       <c r="BM6">
-        <v>0.1955946128983545</v>
+        <v>0.1955487242080604</v>
       </c>
       <c r="BN6">
-        <v>0.2057384434092842</v>
+        <v>0.2056946174263267</v>
       </c>
       <c r="BO6">
-        <v>0.2148732049688648</v>
+        <v>0.2148310292642968</v>
       </c>
       <c r="BP6">
-        <v>0.2149680219742933</v>
+        <v>0.2149238017215029</v>
       </c>
       <c r="BQ6">
-        <v>0.2154042425332616</v>
+        <v>0.2153581172714823</v>
       </c>
       <c r="BR6">
-        <v>0.2157418814369828</v>
+        <v>0.2156938108736973</v>
       </c>
       <c r="BS6">
-        <v>0.2161980877449874</v>
+        <v>0.2161481203413337</v>
       </c>
       <c r="BT6">
-        <v>0.2203357819454944</v>
+        <v>0.2202854224075418</v>
       </c>
       <c r="BU6">
-        <v>0.2212917803294024</v>
+        <v>0.2212397282272307</v>
       </c>
       <c r="BV6">
-        <v>0.2216922666500935</v>
+        <v>0.2216382949335542</v>
       </c>
       <c r="BW6">
-        <v>0.2271590943865182</v>
+        <v>0.227105273782149</v>
       </c>
       <c r="BX6">
-        <v>0.2377210558772884</v>
+        <v>0.2376694688796968</v>
       </c>
       <c r="BY6">
-        <v>0.250193133275965</v>
+        <v>0.2501445605920511</v>
       </c>
       <c r="BZ6">
-        <v>0.2562680783830702</v>
+        <v>0.2562199053624354</v>
       </c>
       <c r="CA6">
-        <v>0.2644961479863656</v>
+        <v>0.2644492546589305</v>
       </c>
       <c r="CB6">
-        <v>0.2646668331581363</v>
+        <v>0.2646179262914875</v>
       </c>
       <c r="CC6">
-        <v>0.2658354571017927</v>
+        <v>0.2657849445757253</v>
       </c>
       <c r="CD6">
-        <v>0.2680735226938876</v>
+        <v>0.2680218416130141</v>
       </c>
       <c r="CE6">
-        <v>0.2697272530141554</v>
+        <v>0.26967416454764</v>
       </c>
       <c r="CF6">
-        <v>0.2725470778782016</v>
+        <v>0.2724930586348474</v>
       </c>
       <c r="CG6">
-        <v>0.2935614748650225</v>
+        <v>0.2935139613715547</v>
       </c>
       <c r="CH6">
-        <v>0.3071226317111907</v>
+        <v>0.3070785776624189</v>
       </c>
       <c r="CI6">
-        <v>0.3140024873794883</v>
+        <v>0.3139591619788632</v>
       </c>
       <c r="CJ6">
-        <v>0.3187003445529878</v>
+        <v>0.3186568559691428</v>
       </c>
       <c r="CK6">
-        <v>0.3191707928203059</v>
+        <v>0.3191254132170984</v>
       </c>
       <c r="CL6">
-        <v>0.319688838495329</v>
+        <v>0.3196415873268795</v>
       </c>
       <c r="CM6">
-        <v>0.3210985651273611</v>
+        <v>0.3210498068435297</v>
       </c>
       <c r="CN6">
-        <v>0.3420987741148661</v>
+        <v>0.3420565157819699</v>
       </c>
       <c r="CO6">
-        <v>0.3859513400005773</v>
+        <v>0.3859249218856841</v>
       </c>
       <c r="CP6">
-        <v>0.4207074253248624</v>
+        <v>0.4206931294938352</v>
       </c>
       <c r="CQ6">
-        <v>0.4629444072884668</v>
+        <v>0.4629452913503228</v>
       </c>
       <c r="CR6">
-        <v>0.4753426996907009</v>
+        <v>0.4753465679086636</v>
       </c>
       <c r="CS6">
-        <v>0.4762505354469309</v>
+        <v>0.4762526914155363</v>
       </c>
       <c r="CT6">
-        <v>0.5056824580279128</v>
+        <v>0.5056945601765297</v>
       </c>
       <c r="CU6">
-        <v>0.5552478826381868</v>
+        <v>0.555278159977363</v>
       </c>
       <c r="CV6">
-        <v>0.5921970688567346</v>
+        <v>0.5922403648489413</v>
       </c>
       <c r="CW6">
-        <v>0.6094205040263313</v>
+        <v>0.6094687563179246</v>
       </c>
       <c r="CX6">
-        <v>0.6197410980287387</v>
+        <v>0.6197914852748432</v>
       </c>
       <c r="CY6">
-        <v>0.6238711563296138</v>
+        <v>0.6239211483204572</v>
       </c>
       <c r="CZ6">
-        <v>0.6264314726061718</v>
+        <v>0.6264804277532388</v>
       </c>
       <c r="DA6">
-        <v>0.6264331158599926</v>
+        <v>0.6264804277532388</v>
       </c>
       <c r="DB6">
-        <v>0.6315010666156486</v>
+        <v>0.6315483665911619</v>
       </c>
       <c r="DC6">
-        <v>0.6484853827967741</v>
+        <v>0.6485375413384196</v>
       </c>
       <c r="DD6">
-        <v>0.6688972498126452</v>
+        <v>0.6689556678367627</v>
       </c>
       <c r="DE6">
-        <v>0.6900402987932633</v>
+        <v>0.6901052751502016</v>
       </c>
       <c r="DF6">
-        <v>0.7069539339777966</v>
+        <v>0.70702374001197</v>
       </c>
       <c r="DG6">
-        <v>0.7145572136112154</v>
+        <v>0.7146280439730168</v>
       </c>
       <c r="DH6">
-        <v>0.7157317782545854</v>
+        <v>0.7158010053850644</v>
       </c>
       <c r="DI6">
-        <v>0.7174545172715261</v>
+        <v>0.7175223652217541</v>
       </c>
       <c r="DJ6">
-        <v>0.7260305598580444</v>
+        <v>0.7260998297257779</v>
       </c>
       <c r="DK6">
-        <v>0.7322488495582385</v>
+        <v>0.7323185776773778</v>
       </c>
       <c r="DL6">
-        <v>0.7385759777531851</v>
+        <v>0.7386462086084463</v>
       </c>
       <c r="DM6">
-        <v>0.7392872286188931</v>
+        <v>0.7393556668761754</v>
       </c>
       <c r="DN6">
-        <v>0.7442958937774075</v>
+        <v>0.7443642958856134</v>
       </c>
       <c r="DO6">
-        <v>0.7507887340643644</v>
+        <v>0.7508577066389138</v>
       </c>
       <c r="DP6">
-        <v>0.7595988831395957</v>
+        <v>0.7596693733161848</v>
       </c>
       <c r="DQ6">
-        <v>0.7684138107145966</v>
+        <v>0.7684858204463046</v>
       </c>
       <c r="DR6">
-        <v>0.7684452623680802</v>
+        <v>0.7685152016527357</v>
       </c>
       <c r="DS6">
-        <v>0.7723317706806978</v>
+        <v>0.7724012151657893</v>
       </c>
       <c r="DT6">
-        <v>0.7813231572471909</v>
+        <v>0.7813941934101201</v>
       </c>
       <c r="DU6">
-        <v>0.7986072764138619</v>
+        <v>0.7986832936790784</v>
       </c>
       <c r="DV6">
-        <v>0.8105081598400778</v>
+        <v>0.8105869579592779</v>
       </c>
       <c r="DW6">
-        <v>0.8161826479664905</v>
+        <v>0.8162616820732856</v>
       </c>
       <c r="DX6">
-        <v>0.8196306470002502</v>
+        <v>0.8197090070789758</v>
       </c>
       <c r="DY6">
-        <v>0.8197831729228964</v>
+        <v>0.8198595120403188</v>
       </c>
       <c r="DZ6">
-        <v>0.8204885538888874</v>
+        <v>0.8205630980091723</v>
       </c>
       <c r="EA6">
-        <v>0.8217272141291672</v>
+        <v>0.8218001812154271</v>
       </c>
       <c r="EB6">
-        <v>0.8246022629905508</v>
+        <v>0.8246743218712491</v>
       </c>
       <c r="EC6">
-        <v>0.8277063975408895</v>
+        <v>0.8277776418484477</v>
       </c>
       <c r="ED6">
-        <v>0.8300829884263056</v>
+        <v>0.8301531207974293</v>
       </c>
       <c r="EE6">
-        <v>0.8323621749164178</v>
+        <v>0.8324311555397621</v>
       </c>
       <c r="EF6">
-        <v>0.8330734257821258</v>
+        <v>0.8331406138074912</v>
       </c>
       <c r="EG6">
-        <v>0.8340718502339882</v>
+        <v>0.8341373630356131</v>
       </c>
       <c r="EH6">
-        <v>0.8348109692983526</v>
+        <v>0.8348747008923518</v>
       </c>
       <c r="EI6">
-        <v>0.8348586360520545</v>
+        <v>0.8349203038264735</v>
       </c>
       <c r="EJ6">
-        <v>0.8349067995677323</v>
+        <v>0.8349664037256089</v>
       </c>
       <c r="EK6">
-        <v>0.8350458559410279</v>
+        <v>0.8351034336322967</v>
       </c>
       <c r="EL6">
-        <v>0.8358568579419265</v>
+        <v>0.8359126838057263</v>
       </c>
       <c r="EM6">
-        <v>0.8368066920961317</v>
+        <v>0.8368608228762544</v>
       </c>
       <c r="EN6">
-        <v>0.8368548556118095</v>
+        <v>0.8369069227753898</v>
       </c>
       <c r="EO6">
-        <v>0.8372221092941029</v>
+        <v>0.8372722432603963</v>
       </c>
       <c r="EP6">
-        <v>0.8385391355306043</v>
+        <v>0.8385877244928003</v>
       </c>
       <c r="EQ6">
-        <v>0.8418422443713497</v>
+        <v>0.8418901000856283</v>
       </c>
       <c r="ER6">
-        <v>0.8471175984170061</v>
+        <v>0.8471655269838941</v>
       </c>
       <c r="ES6">
-        <v>0.8485599994474627</v>
+        <v>0.8486064342537232</v>
       </c>
       <c r="ET6">
-        <v>0.8485683236190614</v>
+        <v>0.8486126785255524</v>
       </c>
       <c r="EU6">
-        <v>0.8489949486984923</v>
+        <v>0.8490373946741083</v>
       </c>
       <c r="EV6">
-        <v>0.8511994312922063</v>
+        <v>0.8512406949868971</v>
       </c>
       <c r="EW6">
-        <v>0.856124400054756</v>
+        <v>0.8561655933917899</v>
       </c>
       <c r="EX6">
-        <v>0.8626473507402612</v>
+        <v>0.862689126850429</v>
       </c>
       <c r="EY6">
-        <v>0.871751328301326</v>
+        <v>0.8717947421077776</v>
       </c>
       <c r="EZ6">
-        <v>0.8774690568256539</v>
+        <v>0.877512724293014</v>
       </c>
       <c r="FA6">
-        <v>0.8781574190924655</v>
+        <v>0.8781992846067667</v>
       </c>
       <c r="FB6">
-        <v>0.8784959939161415</v>
+        <v>0.8785359145114678</v>
       </c>
       <c r="FC6">
-        <v>0.8816411261645035</v>
+        <v>0.8816802489433618</v>
       </c>
       <c r="FD6">
-        <v>0.8877717364689249</v>
+        <v>0.8878112816626679</v>
       </c>
       <c r="FE6">
-        <v>0.8920761182613953</v>
+        <v>0.8921153394497694</v>
       </c>
       <c r="FF6">
-        <v>0.8946710871362826</v>
+        <v>0.8947092856441687</v>
       </c>
       <c r="FG6">
-        <v>0.8993112479125639</v>
+        <v>0.899349259655428</v>
       </c>
       <c r="FH6">
-        <v>0.9081584294860097</v>
+        <v>0.90819797396692</v>
       </c>
       <c r="FI6">
-        <v>0.9122344016894925</v>
+        <v>0.9122735288089495</v>
       </c>
       <c r="FJ6">
-        <v>0.9133211294370975</v>
+        <v>0.9133586174243371</v>
       </c>
       <c r="FK6">
-        <v>0.9148088363653699</v>
+        <v>0.9148448491095109</v>
       </c>
       <c r="FL6">
-        <v>0.9267426307899991</v>
+        <v>0.9267814378395814</v>
       </c>
       <c r="FM6">
-        <v>0.9390725751955284</v>
+        <v>0.9391143384658696</v>
       </c>
       <c r="FN6">
-        <v>0.9462209673508789</v>
+        <v>0.9462635690262079</v>
       </c>
       <c r="FO6">
-        <v>0.9508562406273958</v>
+        <v>0.9508986535400727</v>
       </c>
       <c r="FP6">
-        <v>0.9521547195647915</v>
+        <v>0.9521955798926769</v>
       </c>
       <c r="FQ6">
-        <v>0.9530221210629709</v>
+        <v>0.9530612526151175</v>
       </c>
       <c r="FR6">
-        <v>0.9535236078387924</v>
+        <v>0.9535608610577062</v>
       </c>
       <c r="FS6">
-        <v>0.9536415278331071</v>
+        <v>0.9536767459465043</v>
       </c>
       <c r="FT6">
-        <v>0.9559168528234055</v>
+        <v>0.9559509176107424</v>
       </c>
       <c r="FU6">
-        <v>0.9614731071555187</v>
+        <v>0.9615073596056664</v>
       </c>
       <c r="FV6">
-        <v>0.9711963076867285</v>
+        <v>0.9712324509233748</v>
       </c>
       <c r="FW6">
-        <v>0.9769941490071938</v>
+        <v>0.9770305786486321</v>
       </c>
       <c r="FX6">
-        <v>0.9791662749024679</v>
+        <v>0.9792015090380779</v>
       </c>
       <c r="FY6">
-        <v>0.9791795113438297</v>
+        <v>0.9792126675874244</v>
       </c>
       <c r="FZ6">
-        <v>0.9795108731078536</v>
+        <v>0.9795420814843353</v>
       </c>
       <c r="GA6">
-        <v>0.9796723262200693</v>
+        <v>0.9797015172839891</v>
       </c>
       <c r="GB6">
-        <v>0.9806183837244564</v>
+        <v>0.9806458781610985</v>
       </c>
       <c r="GC6">
-        <v>0.9850187635122984</v>
+        <v>0.9850459731800898</v>
       </c>
       <c r="GD6">
-        <v>0.9893362555041367</v>
+        <v>0.9893631465249897</v>
       </c>
       <c r="GE6">
-        <v>0.991836832083575</v>
+        <v>0.9918626618437072</v>
       </c>
       <c r="GF6">
-        <v>0.9925791833477836</v>
+        <v>0.9926032332213621</v>
       </c>
       <c r="GG6">
-        <v>0.992691281552379</v>
+        <v>0.9927132939409459</v>
       </c>
       <c r="GH6">
-        <v>0.9935008347133475</v>
+        <v>0.9935210946822722</v>
       </c>
       <c r="GI6">
-        <v>0.995033525639451</v>
+        <v>0.9950523287512386</v>
       </c>
       <c r="GJ6">
-        <v>0.9961860990838813</v>
+        <v>0.9962032899760539</v>
       </c>
       <c r="GK6">
-        <v>0.9964820874396106</v>
+        <v>0.9964973160067707</v>
       </c>
       <c r="GL6">
-        <v>0.9974350613936643</v>
+        <v>0.9974485961604536</v>
       </c>
       <c r="GM6">
-        <v>0.997920056470281</v>
+        <v>0.9979317061633127</v>
       </c>
       <c r="GN6">
-        <v>0.9981329705800157</v>
+        <v>0.9981426239937409</v>
       </c>
       <c r="GO6">
-        <v>0.9984603296342326</v>
+        <v>0.9984680335448481</v>
       </c>
       <c r="GP6">
-        <v>0.9991774746996565</v>
+        <v>0.9991833884213838</v>
       </c>
       <c r="GQ6">
-        <v>0.9993272888924334</v>
+        <v>0.9993311805445132</v>
       </c>
       <c r="GR6">
-        <v>0.999651044976824</v>
+        <v>0.9996529856531802</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>97</v>
       </c>
       <c r="E2">
-        <v>0.0001927515573943327</v>
+        <v>0.06163638952813826</v>
       </c>
       <c r="F2">
-        <v>0.5058458805504916</v>
+        <v>0.5058466670755118</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.0008117423756870443</v>
+        <v>0.0005709332756168419</v>
       </c>
       <c r="F3">
-        <v>0.5201991653174608</v>
+        <v>0.5203353788291868</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.05869535002919633</v>
+        <v>0.07207481334001516</v>
       </c>
       <c r="F4">
-        <v>0.5185221425172031</v>
+        <v>0.5186295482350626</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>97</v>
       </c>
       <c r="E5">
-        <v>0.007701964088017953</v>
+        <v>0.04467202846039499</v>
       </c>
       <c r="F5">
-        <v>0.5196679004327762</v>
+        <v>0.51970244567432</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.007985624599653402</v>
+        <v>0.01230767823246155</v>
       </c>
       <c r="F6">
-        <v>0.5056824580279128</v>
+        <v>0.5056945601765297</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>110</v>
       </c>
       <c r="E2">
-        <v>0.0001927515573943327</v>
+        <v>0.06163638952813826</v>
       </c>
       <c r="F2">
-        <v>0.7044226254544216</v>
+        <v>0.7044260021592544</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0008117423756870443</v>
+        <v>0.0005709332756168419</v>
       </c>
       <c r="F3">
-        <v>0.7061894773000961</v>
+        <v>0.7065014205901767</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>113</v>
       </c>
       <c r="E4">
-        <v>0.05869535002919633</v>
+        <v>0.07207481334001516</v>
       </c>
       <c r="F4">
-        <v>0.7065643916684754</v>
+        <v>0.7068473741059838</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.007701964088017953</v>
+        <v>0.04467202846039499</v>
       </c>
       <c r="F5">
-        <v>0.7134888867676877</v>
+        <v>0.7136061698626747</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>109</v>
       </c>
       <c r="E6">
-        <v>0.007985624599653402</v>
+        <v>0.01230767823246155</v>
       </c>
       <c r="F6">
-        <v>0.7069539339777966</v>
+        <v>0.70702374001197</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>126</v>
       </c>
       <c r="E2">
-        <v>0.0001927515573943327</v>
+        <v>0.06163638952813826</v>
       </c>
       <c r="F2">
-        <v>0.8110416356305783</v>
+        <v>0.8110454796932856</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3">
-        <v>0.0008117423756870443</v>
+        <v>0.0005709332756168419</v>
       </c>
       <c r="F3">
-        <v>0.8015001291634579</v>
+        <v>0.8018301158731421</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.05869535002919633</v>
+        <v>0.07207481334001516</v>
       </c>
       <c r="F4">
-        <v>0.8086688684952724</v>
+        <v>0.8090129228771126</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.007701964088017953</v>
+        <v>0.04467202846039499</v>
       </c>
       <c r="F5">
-        <v>0.8059880742119803</v>
+        <v>0.8061137217512919</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>125</v>
       </c>
       <c r="E6">
-        <v>0.007985624599653402</v>
+        <v>0.01230767823246155</v>
       </c>
       <c r="F6">
-        <v>0.8105081598400778</v>
+        <v>0.8105869579592779</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.0001927515573943327</v>
+        <v>0.06163638952813826</v>
       </c>
       <c r="F2">
-        <v>0.9013658657174659</v>
+        <v>0.9013678080744499</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.0008117423756870443</v>
+        <v>0.0005709332756168419</v>
       </c>
       <c r="F3">
-        <v>0.9019810119140717</v>
+        <v>0.9021579681581628</v>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.05869535002919633</v>
+        <v>0.07207481334001516</v>
       </c>
       <c r="F4">
-        <v>0.9013232970916814</v>
+        <v>0.9015078243489233</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.007701964088017953</v>
+        <v>0.04467202846039499</v>
       </c>
       <c r="F5">
-        <v>0.9023439571729657</v>
+        <v>0.9024032268322537</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.007985624599653402</v>
+        <v>0.01230767823246155</v>
       </c>
       <c r="F6">
-        <v>0.9081584294860097</v>
+        <v>0.90819797396692</v>
       </c>
       <c r="G6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>44</v>

--- a/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
@@ -1994,28 +1994,28 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.667098483862347E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.426055163292072E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.667098483862347E-07</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.272670252805935E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.076326165999055E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.058433139133002E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.742822157916106E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.426055163292072E-07</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2027,64 +2027,64 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.821430951998222E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.426055163292072E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>8.9265510682357E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.050681585832412E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>4.121190833791689E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3.400328277467731E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.459330440581711E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.605958320920722E-06</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5.448306049827479E-07</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4.756523098603817E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.605958320920722E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.519199851604535E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.331956309079343E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.257450375048613E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.798863252439792E-07</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.345876047064194E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2093,505 +2093,505 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.920109110562194E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.474999973716778E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.262134963937101E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.86575152878799E-07</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.667098483862347E-07</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.160814463903634E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.784482398305598E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.252834637279266E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>8.720875500639877E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.262980561175254E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.181596671150816E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.134537540473801E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.511740497325203E-07</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>2.107891290254863E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.06142663845576217</v>
+        <v>0.2398393874511629</v>
       </c>
       <c r="AY2">
-        <v>0.001712807109800838</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.06750917774866669</v>
+        <v>0.2862603639112227</v>
       </c>
       <c r="BA2">
-        <v>0.002969100355207689</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.008809031850116621</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005010619454105818</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>7.3335806374458E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01266889418567798</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.007146506970765261</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01282694131133765</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.03331485649586773</v>
+        <v>0.02529472020455928</v>
       </c>
       <c r="BI2">
-        <v>0.000234564474954737</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.000470214835354767</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.004505400338239885</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0004222367865045301</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001534410981703875</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.02321753680362488</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.007512347905912715</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.002741075845622261</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.201525842042686E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.005303068513529945</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>7.216064313353959E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.002702764187941898</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.003584505925934419</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.71602814047238E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.006236605375862079</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.02891362445376898</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01028268999429636</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.004098774696503179</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001225264267784285</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0002733059111347251</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.007718608285074215</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001344884757759706</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.264018201181428E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.006087509327225683</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.004604519698499436</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02068563873089071</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.006779327709150049</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001099035495658471</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0005206529928579762</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.002193636219041525</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0009069554726684371</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.009023046082624197</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.009079809205214708</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.03725310938173999</v>
+        <v>0.05535084244319428</v>
       </c>
       <c r="CQ2">
-        <v>0.05151158936824086</v>
+        <v>0.1641693032761081</v>
       </c>
       <c r="CR2">
-        <v>0.01992951177715131</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0001403465516297161</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01661754327715347</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.04608571906211965</v>
+        <v>0.1227599205122993</v>
       </c>
       <c r="CV2">
-        <v>0.04079363140178537</v>
+        <v>0.0823715457110835</v>
       </c>
       <c r="CW2">
-        <v>0.01813262424054226</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.003249256695791696</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.002869908993524184</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.00163117619540604</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0005744625570366777</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.00143170775056698</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0134769171657525</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.03313917102137871</v>
+        <v>0.02395391649036991</v>
       </c>
       <c r="DE2">
-        <v>0.01540622432119224</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01413477017595195</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.007653765502694232</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0002422796975368229</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0009050420348268411</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.006621543988699674</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.007152775094728429</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002412736052125791</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003959280937768941</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.001021073829559507</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01089715714646422</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.01346954101987625</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.00724037722721456</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003186772160050186</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.004184428390455513</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01216770327374686</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01064416714314227</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.009114828897790677</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01339977064004437</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.002637274392766101</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002430544204313298</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>9.845192735989183E-06</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001968638369313616</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.00191303606968042</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.004109403906714492</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.004011433369174929</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001488908281808014</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0008762778059636624</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0009768317545947192</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0005689750885123434</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0003471522015749027</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>2.60980401646113E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0003776283242937909</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0008625887252380326</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001852072164012042</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.002076760107611014</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>1.71602814047238E-05</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0007926230715442668</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.003570464148233587</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002365368415347525</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.003912879020089468</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0002341323064078444</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.001353130596565661</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.004624784699275441</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.004631029222771868</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.008151935854888477</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.007023333834800023</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002485415989499286</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001878067278111109</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>8.739086130787092E-07</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.003115625553000992</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.005558407963316321</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.00465882017238674</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.005191695310929127</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.004223112755506819</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002470302890611195</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.005122481942113116</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001407497971776055</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.000764595587251507</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.006591700498492206</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.01027624686687219</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0104631885639728</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003401427605238869</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001852299268503432</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0002564977087229821</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0004175339934985333</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>5.468603754250256E-05</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.002592682310879311</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.005378535306018399</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.007782791154403257</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0123965848002813</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.001119987785756831</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>8.720875500639877E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>8.533072786511144E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0002470293214689836</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0009540145733448589</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001137125624687715</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.007706516645940799</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.005575924609738789</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001598898157051103</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>1.11381085756722E-06</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001404056203709043</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002865938615002971</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001157155420812136</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001483439297919246</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>3.270861687038368E-07</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.000920134333303568</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>7.08015862558013E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>9.566010787675496E-05</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0009112661979206051</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0007601600195303599</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0003523026334337445</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.000359128808433352</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2776,28 +2776,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.776487197256137E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.558969436356806E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.79923174958265E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.379422614518439E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.136483710385435E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.299517195303992E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.288867309600326E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.68475879097143E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.09527753497845E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.480997670443122E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.358495829977021E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.43958877260074E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>2.940894970045157E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5.273747907371225E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.252164010101331E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>8.17369969977774E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.643112839211345E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.897680222633506E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>4.933666426121452E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>3.914542094353635E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2911,445 +2911,445 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.458348042208785E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.05813001082155458</v>
+        <v>0.2029193911598333</v>
       </c>
       <c r="AZ3">
-        <v>0.05042397389854648</v>
+        <v>0.1472569180218938</v>
       </c>
       <c r="BA3">
-        <v>0.01005608653476747</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001420199326631823</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007831002711982272</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001201629463994991</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001040626586859632</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.07382006653564142</v>
+        <v>0.3162522642622915</v>
       </c>
       <c r="BG3">
-        <v>0.00579076340594446</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.005092459116202278</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0158874552108921</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.004069999787217714</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.000233901847074028</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>6.877137631591239E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001764639469669422</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.02362831936391166</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.007921429921118521</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.007821678460777158</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001214362644414671</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01282570162027758</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.926393704180971E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0005809358946407536</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.008323541509313951</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.002710404879506979</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0004333545610206754</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01686956126384488</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01444520487244754</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005390118359214083</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.003385871464052603</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.003756578453393226</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.002102453184860791</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002477576223700738</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.000936378193396245</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0009548723198579481</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.00874545336027255</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.005859289140821482</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.02101106514707302</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.003086995361189646</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.00175577822612619</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001285491238507181</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0004497811574651606</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.007193005595850821</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0185327452777828</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.0210846926795482</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.03638533321065199</v>
+        <v>0.04585259463356529</v>
       </c>
       <c r="CR3">
-        <v>0.04283854831816761</v>
+        <v>0.09246564829062169</v>
       </c>
       <c r="CS3">
-        <v>0.009660033206028507</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.003115389859400312</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02309418899793916</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0487310844828101</v>
+        <v>0.1350287892742125</v>
       </c>
       <c r="CW3">
-        <v>0.03837499721729604</v>
+        <v>0.06022439435758198</v>
       </c>
       <c r="CX3">
-        <v>0.01118896502863541</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.005100111111527994</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0014677080390476</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.001972225845121386</v>
+        <v>0</v>
       </c>
       <c r="DB3">
         <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.002583651849910489</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01950385452319185</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02137383160008124</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01186762729747161</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01826594249585088</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.005328372286386769</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>8.261680269465121E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002271067395173755</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01023833408230166</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001227418780440378</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.005184538851062312</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0002175125576496707</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002625926762976354</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01255090061384254</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.006437773697832657</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0104724879635853</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>6.242397994197127E-05</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.008495751715754944</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.01161071763620608</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01094119934304149</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.009788212114941937</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.006685253546552902</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001159191501724379</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>1.332660741474525E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001098268687166732</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0008510177483128078</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003797737360753628</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.004026385426937918</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003548479594660739</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001666950461584415</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0003646866588548712</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001498221475848454</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0003347832143675494</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001629381359890529</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>3.059682024428411E-05</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0006974002389891142</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0009154463611398884</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001842290050980887</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>3.350419688484412E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>9.832701822103747E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.002583651849910489</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.003333901332794903</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.003350162386223095</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001662569665967199</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>8.328852335391677E-05</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.002239322976938292</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.003159706893648478</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.00391672642388748</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.006451878856186291</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.004892683278392439</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.001992594977345833</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.000881133266934682</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0002695417992517447</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.004345755853368031</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.004555614201307514</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001920910314356454</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.003575653126744213</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002921157193786493</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0039463734364437</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00467500407704419</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0005198967022109225</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.00262863109628506</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.008358838958008626</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.009903421200750512</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.005902408043843367</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003873941731674096</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0002244280172526434</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0003735578776442897</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0005852064918304623</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0007632453868513159</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003010206597081404</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.004697862513927101</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.01005238788173841</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.004360830293173471</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.000201162538245695</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>3.203748716262606E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
         <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0004741532878804444</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001026456829773158</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.004117230574852675</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.005902408043843367</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.003027692322300531</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0007242888956684221</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0003045418934692119</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001289853305499528</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.000874807748999793</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.000293763019014871</v>
+        <v>0</v>
       </c>
       <c r="GL3">
         <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0003085935760694025</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001581047266961443</v>
+        <v>0</v>
       </c>
       <c r="GO3">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0006186062200451717</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0001643203986421933</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>5.149329145474387E-05</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,28 +3540,28 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.045432212949408E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.439018223369062E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.424784929876912E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.907305239821587E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.864387408235868E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.887317315333241E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.980902235330656E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3573,40 +3573,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.795489515868423E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.500841261738516E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001393622713771373</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>7.079374230955466E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.61043804040886E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4.780750599499234E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6.352131187577435E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>6.084237855484205E-07</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.232661805675824E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001120161450540669</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3.067658611586972E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.692787247020354E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.192286352948329E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.795489515868423E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>5.891582910703108E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.765211764983017E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.459089187197906E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.262213921294524E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3678,280 +3678,280 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>2.057705236954518E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003427670253247533</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.02205176167540136</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.02726000193724779</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0001177757405117379</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.007745674084452963</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01184889947541597</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.001776350983602193</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002598135069712628</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.02823329509089291</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.04607193259264896</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BG4">
-        <v>0.001497578910901107</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001499886795720463</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001163243316715171</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003770514801706472</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.000194596552924431</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.02546174087617944</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01979134870758333</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.002139749940295392</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>6.523469574235349E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.00570141339590685</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0009953948533624956</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003072145023084596</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.004499865415397768</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003874004033034902</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0008238470232274199</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01029575639596886</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.009124327809808132</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.008684776466888821</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001615937212785288</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.003450264120095167</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0003101229406064418</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001005548004037988</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0002747145425481007</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001567299936006387</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.005254081292917768</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0162518971784558</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01561896920722937</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.002406544670735112</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005189598544332343</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.007148712396189095</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.310258111440064E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.005634237731069162</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01341154013042713</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.04329934167779746</v>
+        <v>0.2236358838950597</v>
       </c>
       <c r="CP4">
-        <v>0.02997753856573538</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.04273220760537932</v>
+        <v>0.214070153722158</v>
       </c>
       <c r="CR4">
-        <v>0.01902898847371327</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.001468597182269446</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02230003883792632</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.03383069755991588</v>
+        <v>0.06393027081366276</v>
       </c>
       <c r="CV4">
-        <v>0.04355589441185903</v>
+        <v>0.2279631044739422</v>
       </c>
       <c r="CW4">
-        <v>0.02048596284112913</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01206998704833049</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.005697117150272032</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.002362924235333155</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0003635484959303075</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.004271179982360536</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01971856234146722</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01856708297105437</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01707268523111961</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02097922977501672</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01126483263407669</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0009991656372655153</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001849071341467973</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.008960581774238382</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001989113303504881</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.006481142313577355</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.002226010403277951</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.005441135052025562</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01306975261545192</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.008189786707651074</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01290261652034868</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0001966166658117523</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.007298453464290319</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.008449920314170098</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.01672488886191442</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01919611254910476</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.006928942283846121</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.005143801439297581</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>8.324932886841169E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0009898330322451665</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0001072985143681697</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.002748966325669147</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005172470455095336</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002476176062846623</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.003118508557035353</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.001225178387231922</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0009736196430719748</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.001794815865113802</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0001496675014554865</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
         <v>0</v>
@@ -3960,184 +3960,184 @@
         <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0003931235075172881</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001757040715697833</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>3.105134670509014E-05</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0004430495938815043</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.002633530316203034</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003175127108718644</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.005943478871566121</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.001868654356664686</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0003237120861471421</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0005180041056515096</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.002265523202355229</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004808297228637212</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.00657404997764784</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.007972378168173254</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.005445523649112287</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.001819300819253029</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0001175239275506745</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.002362799030002475</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.005318773685308884</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003635635119558623</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.00417579725931317</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004229801523691863</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.007249419050225498</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.005002559809864231</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0004830702658457246</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0003987562950160465</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.007926422803600513</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01212012226766264</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.006126975096490109</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.005539575189083866</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001944201650568689</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0007060557512448219</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0008767654068141943</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0001331257037081348</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002705304923082992</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.005753936030484411</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01008963737074779</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.004077688665970506</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.00119396690190725</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0001133268144884767</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>8.916857214076859E-06</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0001079400905219969</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001510008494816888</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004864843561885766</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.005673195620120866</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.002623487246054276</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0009203319538418273</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0003919326044939934</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001182997412475725</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0007577470224266687</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0007365012804385271</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>8.666933351042797E-06</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.000462202443627707</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0009716768569968812</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>9.521563302782466E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0002181722258865548</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0006525304723791763</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0002622194512033076</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>9.582298906231304E-05</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0002770549807534335</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,25 +4316,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.990337045786211E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.111778767618731E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.159707365121835E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.630071281562441E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.156188933645487E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.38497273399567E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4346,31 +4346,31 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.125961862402574E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.486460500049434E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.610414314627364E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8.041558655584236E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.17377050907289E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.967422712949036E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.34230522174508E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5.256618877830434E-07</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -4379,31 +4379,31 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2.028308953753314E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>6.318879589872404E-07</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.208650004783582E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.043078645814673E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.164675390723666E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>6.725371897357336E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.55172539266009E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4412,16 +4412,16 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.505482864503907E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>6.55605551271443E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.148704936136984E-06</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.630071281562441E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -4430,487 +4430,487 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.293734568492324E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.1883665657674E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.242142597587113E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.311725478773025E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.242142597587113E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>4.190184568789926E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.007121499071518108</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01915312342555036</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01794366935983943</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.008282537030535534</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.04526306299562947</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BB5">
-        <v>0.002395663129366076</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001755049136111873</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0006520059888398344</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01259800900970286</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.04701344313004487</v>
+        <v>0.2135647976274703</v>
       </c>
       <c r="BG5">
-        <v>0.01213937413210907</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0004101200587946298</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0002763273941744227</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.004969225946618471</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.000134449171493119</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01431070724532516</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.008951992615841446</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00915414182387379</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001012908452116907</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0003960851475064285</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>8.434560457056277E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>8.476233887377495E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.004439117138488452</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001563334245782141</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001709577661476923</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.004984985041426545</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01170661866787993</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0160103321895424</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01015641949318505</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01186166200019969</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0003517246930079538</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0004727601466891531</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001257710711770549</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.004101925183002422</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004981821234862098</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01815713374423675</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.023093882752677</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.00634172912211143</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.004035856680722616</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001962557643144322</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0003746190731906618</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003504905438299913</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02260146444879788</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.04422284126125276</v>
+        <v>0.1785028632084935</v>
       </c>
       <c r="CP5">
-        <v>0.03375977732707164</v>
+        <v>0.04704188140939172</v>
       </c>
       <c r="CQ5">
-        <v>0.03682767806567207</v>
+        <v>0.08558787956974477</v>
       </c>
       <c r="CR5">
-        <v>0.008667969481337983</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.002423722725456588</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02711270058644105</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.04798407472863463</v>
+        <v>0.225760095650929</v>
       </c>
       <c r="CV5">
-        <v>0.03462955095904201</v>
+        <v>0.05796997057343301</v>
       </c>
       <c r="CW5">
-        <v>0.01572807217325216</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.01037073341638091</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.002995671469509801</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.001154070680697026</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>9.7689957889804E-05</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.006557544997882798</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01912101906416957</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01916053612686905</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0190174773954799</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.01708728321854707</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.005982264540774682</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0007667641012758078</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.001990356573914434</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.009408701271777778</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.005343576569051016</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.006377326698975966</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0005837329583936899</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.005658746957914306</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.008936794977122723</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.008444180548856661</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.009507672041490148</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>8.406013301743635E-06</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004909626347076934</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.008866904650947588</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.01572249763774373</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01277698051786413</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.00571869047557723</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.003467997630454452</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>1.653885685246831E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0008071528568244812</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001465294266400041</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.003397358729514668</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.003001539691281329</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.002865152791332851</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002704926271707377</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0006201807745010039</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0004481583736356165</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0001324635521641827</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>1.247164732749567E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>7.334642862086887E-05</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>8.806188152541141E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.000659797600472829</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001239715298634025</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0001641901139351123</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0004679076491150584</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.00157502095778422</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.002865640200459786</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.004507804301587777</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001597796402535133</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0001665086544108821</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0006404004983504488</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.001625407213995322</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.005288895188765892</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.006763719258703266</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.008672109106790929</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.004423663237241689</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0009358956086649827</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0004303247330992809</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.003806093559262742</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.004389890217556485</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003112640654262578</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.002426810183598978</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.002932959696150581</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.007674252941707109</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.004231614435136841</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0006361094068339745</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001518441173484272</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01048742042216881</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01195027720215462</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.006447387133037734</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004246136445355243</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001221212263551096</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0007571298309830725</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0005876320713076303</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>4.390621690975037E-05</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.002203401592339475</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.006083505350202439</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.01146067068157808</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.007513994601900488</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.002099008683772406</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>4.958987162428057E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>6.699419988013939E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0002251732009186355</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.00104213748989629</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.003866364884829554</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.004554069644213461</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.002248483884645358</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0009801710892709111</v>
+        <v>0</v>
       </c>
       <c r="GG5">
         <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0003497093348178955</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0005616736178137711</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0007383003888847333</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0001440401943572645</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0007417072496001426</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0003410424580700961</v>
+        <v>0</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0004157617568992393</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0008137728553914636</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0003079210016224291</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0005348437516484221</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.000452915840939161</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,49 +5086,49 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.237824774361286E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.561896545805467E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.915996247639667E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.906174707129581E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4.869832461064568E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9.085481483559394E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.241968281183781E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.809857353722977E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.123460841713897E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.479194289689073E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.11364436704094E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.164489409259739E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5137,553 +5137,553 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1.209969781228631E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.11823340626948E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2.269119951577615E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>6.854790230377354E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>6.529221233135227E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.080281416783473E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.501693666673386E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>6.191735267727169E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>6.097059592042844E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>3.839816792365935E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>8.093665619751715E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.807491287168026E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.964181382011366E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.010034113176927E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.539574648408122E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.442294701775365E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1.739116841551938E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.104947578914871E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.741513927863981E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.036796338650352E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.498222634561575E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.303002285665856E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>9.907053101386358E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.716716190727361E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.982534386429007E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>9.256262248711991E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.00010930187959225</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.006913326691936648</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.004002203177354759</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0004090862836453681</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.007660304237556594</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.07739423364180402</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BB6">
-        <v>6.427778092893683E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.004044190929649067</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002735918332023433</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01954974875988424</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.03498370664103291</v>
+        <v>0.04532049051555537</v>
       </c>
       <c r="BG6">
-        <v>0.009133541665484232</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.005390695686382583</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0009010167207143853</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.00630604801429408</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001486721526277352</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0003691588129907075</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01702185909904694</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01014589321826636</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.009136411837970027</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>9.277245720608937E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0004343155499794225</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0003356936022149946</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0004543094676364483</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.004137302066208072</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0009543058196888857</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0003985667063234978</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.005466978848594835</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01056419509754784</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01247509171235426</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.006075344770384341</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.008229349296495025</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001686716325569886</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001167018284237786</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002236897037288819</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001652322934625998</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.002818894087207334</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02102090273670734</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01356461629086419</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.00688058431644427</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.004697693990279599</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0004685572479556585</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0005161741097810939</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001408219516650209</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02100670893844019</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.04386840610371418</v>
+        <v>0.1262809104543157</v>
       </c>
       <c r="CP6">
-        <v>0.03476820760815111</v>
+        <v>0.04335678963047867</v>
       </c>
       <c r="CQ6">
-        <v>0.04225216185648761</v>
+        <v>0.1115531401421413</v>
       </c>
       <c r="CR6">
-        <v>0.01240127655834084</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0009061235068727142</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.02944186876099334</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.04958359980083332</v>
+        <v>0.1783597099335369</v>
       </c>
       <c r="CV6">
-        <v>0.03696220487157834</v>
+        <v>0.06334924300919488</v>
       </c>
       <c r="CW6">
-        <v>0.0172283914689834</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01032272895691853</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.004129663045614035</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.002559279432781553</v>
+        <v>0</v>
       </c>
       <c r="DA6">
         <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.005067938837923158</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01698917474725765</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.02041812649834313</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02114960731343885</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01691846486176843</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.007604303961046861</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001172961412047605</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001721359836689638</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.008577464504023802</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.006218747951599922</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.006327630931068504</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0007094582677290918</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.005008629009437993</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.006493410753300485</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.008811666677270966</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.008816447130119826</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>2.938120643100172E-05</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003886013513053653</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.008992978244330756</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.01728910026895833</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01190366428019949</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.005674724114007694</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.003447325005690155</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0001505049613430814</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0007035859688533942</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.001237083206254861</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002874140655822052</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.003103319977198638</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.00237547894898164</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002278034742332802</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0007094582677290918</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.000996749228121955</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0007373378567387376</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>4.560293412169918E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>4.609989913542843E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0001370299066877799</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.000809250173429626</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0009481390705281602</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>4.609989913542843E-05</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0003653204850065304</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001315481232404016</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.003302375592827991</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005275426898265922</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.001440907269828985</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>6.244271829284802E-06</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0004247161485559264</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.002203300312788817</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.004924898404892781</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.006523533458639044</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.009105615257348642</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.005717982185236288</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0006865603137526535</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0003366299047011942</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.003144334431893981</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006131032719306042</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004304057787101571</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002593946194399298</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.004639974011259207</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.008848714311492039</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004075554842029497</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001085088615387564</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001486231685173791</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01193658873007054</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01233290062628814</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.007149230560338339</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.004635084513864877</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001296926352604151</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0008656727224406678</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0004996084425886731</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0001158848887981532</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002274171664238029</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.005556441994923985</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.009725091317708472</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.005798127725257241</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.002170930389445781</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>1.11585493464697E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003294138969108843</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.000159435799653809</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0009443608771093792</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00440009501899125</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.004317173344899859</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.002499515318717511</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0007405713776549423</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0001100607195837632</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0008078007413263422</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001531234068966425</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001150961224815242</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002940260307168104</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0009512801536828844</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0004831100028591472</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000210917830428146</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0003254095511072516</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0007153548765355686</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0001477921231294499</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0003218051086669762</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0003470143468193765</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.667098483862347E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.709315364715442E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.676025213101676E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.948695465907611E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.671195712589816E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.877039026503117E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.651321242294727E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.725581793927648E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.725581793927648E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.725581793927648E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.725581793927648E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.90772488912747E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.981985440760391E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.981985440760391E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.874640547583961E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.079708706167203E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.079708706167203E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.491827789546372E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5.831860617293145E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>8.291191057874856E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>8.751786889966928E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>8.806269950465202E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>9.281922260325584E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>9.281922260325584E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.742518092417656E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>9.994438077578109E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001082763370848604</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001082763370848604</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001105337874599091</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000110813673785153</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001121595498322172</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001121595498322172</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001121595498322172</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001180796589427794</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001328296586799472</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001454510083193182</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.000145937583472197</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.000145937583472197</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001469042933205833</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001490651077844869</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001491229526084699</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0001533757872457492</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001620966627463891</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001653596433075643</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001771756100190725</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001885209854238105</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.000188672159473543</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0002097510723760916</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.06163638952813826</v>
+        <v>0.2398393874511629</v>
       </c>
       <c r="AY2">
-        <v>0.0633491966379391</v>
+        <v>0.2398393874511629</v>
       </c>
       <c r="AZ2">
-        <v>0.1308583743866058</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BA2">
-        <v>0.1338274747418135</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BB2">
-        <v>0.1426365065919301</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BC2">
-        <v>0.1431375685373407</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BD2">
-        <v>0.1432109043437151</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BE2">
-        <v>0.1558797985293931</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BF2">
-        <v>0.1630263055001584</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BG2">
-        <v>0.1758532468114961</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="BH2">
-        <v>0.2091681033073638</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BI2">
-        <v>0.2094026677823185</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BJ2">
-        <v>0.2098728826176733</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BK2">
-        <v>0.2143782829559132</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BL2">
-        <v>0.2148005197424177</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BM2">
-        <v>0.2163349307241215</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BN2">
-        <v>0.2395524675277464</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BO2">
-        <v>0.2470648154336591</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BP2">
-        <v>0.2498058912792814</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BQ2">
-        <v>0.2498279065377018</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BR2">
-        <v>0.2551309750512318</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BS2">
-        <v>0.2552031356943653</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BT2">
-        <v>0.2579058998823072</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BU2">
-        <v>0.2614904058082416</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BV2">
-        <v>0.2615075660896464</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BW2">
-        <v>0.2677441714655084</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BX2">
-        <v>0.2966577959192774</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BY2">
-        <v>0.3069404859135738</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="BZ2">
-        <v>0.311039260610077</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CA2">
-        <v>0.3122645248778613</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CB2">
-        <v>0.312537830788996</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CC2">
-        <v>0.3202564390740702</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CD2">
-        <v>0.3203909275498462</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CE2">
-        <v>0.320403567731858</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CF2">
-        <v>0.3264910770590836</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CG2">
-        <v>0.3310955967575831</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CH2">
-        <v>0.3517812354884738</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CI2">
-        <v>0.3585605631976239</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CJ2">
-        <v>0.3586704667471897</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CK2">
-        <v>0.3591911197400477</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CL2">
-        <v>0.3613847559590892</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CM2">
-        <v>0.3622917114317576</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CN2">
-        <v>0.3713147575143819</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CO2">
-        <v>0.3803945667195966</v>
+        <v>0.5513944715669449</v>
       </c>
       <c r="CP2">
-        <v>0.4176476761013366</v>
+        <v>0.6067453140101392</v>
       </c>
       <c r="CQ2">
-        <v>0.4691592654695774</v>
+        <v>0.7709146172862473</v>
       </c>
       <c r="CR2">
-        <v>0.4890887772467287</v>
+        <v>0.7709146172862473</v>
       </c>
       <c r="CS2">
-        <v>0.4892291237983584</v>
+        <v>0.7709146172862473</v>
       </c>
       <c r="CT2">
-        <v>0.5058466670755118</v>
+        <v>0.7709146172862473</v>
       </c>
       <c r="CU2">
-        <v>0.5519323861376315</v>
+        <v>0.8936745377985467</v>
       </c>
       <c r="CV2">
-        <v>0.5927260175394169</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="CW2">
-        <v>0.6108586417799592</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="CX2">
-        <v>0.6141078984757509</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="CY2">
-        <v>0.616977807469275</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="CZ2">
-        <v>0.6186089836646811</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="DA2">
-        <v>0.6191834462217177</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="DB2">
-        <v>0.6206151539722847</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="DC2">
-        <v>0.6340920711380372</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="DD2">
-        <v>0.667231242159416</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.6826374664806082</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.6967722366565602</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.7044260021592544</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.7046682818567913</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.7055733238916182</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.7121948678803178</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.7193476429750463</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.721760379027172</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.725719659964941</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.7267407337945005</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.7376378909409648</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.7511074319608411</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.7583478091880557</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.7615345813481058</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.7657190097385613</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.7778867130123082</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.7885308801554505</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.7976457090532412</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.8110454796932856</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.8136827540860516</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.8161132982903649</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.8161231434831009</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.8180917818524145</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8200048179220949</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.8241142218288093</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8281256551979843</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.8296145634797923</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.830490841285756</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8314676730403507</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8320366481288631</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.832383800330438</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8324098983706026</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8327875266948964</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8336501154201345</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8355021875841465</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8375789476917576</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8375961079731623</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8383887310447066</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8419591951929402</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8443245636082877</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8482374426283772</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8484715749347851</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8498247055313507</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8544494902306261</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.859080519453398</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8672324553082865</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8742557891430865</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8767412051325858</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8786192724106969</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.87862014631931</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.881735771872311</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8872941798356273</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.891953000008014</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8971446953189431</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9013678080744499</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9038381109650612</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9089605929071742</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9103680908789503</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9111326864662018</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.917724386964694</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9280006338315663</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.938463822395539</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9418652500007779</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9437175492692813</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9439740469780042</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9443915809715028</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9444462670090453</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9470389493199246</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.952417484625943</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9602002757803463</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9725968605806276</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9737168483663844</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.973725569241885</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9737341023146715</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9739811316361405</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9749351462094854</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9760722718341731</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9837787884801139</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9893547130898527</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9909536112469037</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9909547250577613</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9923587812614704</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9952247198764733</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9963818752972855</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9965302192270774</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9965305463132461</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9974506806465496</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9975214822328055</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9976171423406822</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9985284085386028</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9992885685581332</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.999640871191567</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7427,763 +7427,763 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.776487197256137E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.23661815608242E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.035849905665069E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.415272520183508E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001255175623056894</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001255175623056894</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001318170795009934</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001341059468105938</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001341059468105938</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001341059468105938</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001609535347203081</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002219063100700926</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002867162867745238</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.000310301245074294</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.000310301245074294</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.000310301245074294</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003346971328003014</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003346971328003014</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003346971328003014</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000364106082500753</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0004168435615744652</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004293652016754785</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004293652016754785</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004293652016754785</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0004375389013752563</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004639700297673697</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0004678677099900033</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0004678677099900033</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0005172043742512177</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.000556349795194754</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.000556349795194754</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.000556349795194754</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.000556349795194754</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0005709332756168419</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.05870094409717143</v>
+        <v>0.2029193911598333</v>
       </c>
       <c r="AZ3">
-        <v>0.1091249179957179</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BA3">
-        <v>0.1191810045304854</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BB3">
-        <v>0.1206012038571172</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BC3">
-        <v>0.1284322065690995</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BD3">
-        <v>0.1296338360330945</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BE3">
-        <v>0.1306744626199541</v>
+        <v>0.350176309181727</v>
       </c>
       <c r="BF3">
-        <v>0.2044945291555955</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BG3">
-        <v>0.21028529256154</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BH3">
-        <v>0.2153777516777423</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BI3">
-        <v>0.2312652068886344</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BJ3">
-        <v>0.2353352066758521</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BK3">
-        <v>0.2355691085229261</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BL3">
-        <v>0.235637879899242</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BM3">
-        <v>0.2374025193689115</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BN3">
-        <v>0.2610308387328231</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BO3">
-        <v>0.2689522686539416</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BP3">
-        <v>0.2767739471147188</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BQ3">
-        <v>0.2768953833791602</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BR3">
-        <v>0.2897210849994378</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BS3">
-        <v>0.2897403489364796</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BT3">
-        <v>0.2903212848311204</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BU3">
-        <v>0.2986448263404343</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BV3">
-        <v>0.3013552312199413</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BW3">
-        <v>0.301788585780962</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BX3">
-        <v>0.3186581470448068</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BY3">
-        <v>0.3331033519172544</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="BZ3">
-        <v>0.3384934702764685</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CA3">
-        <v>0.3418793417405211</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CB3">
-        <v>0.3456359201939143</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CC3">
-        <v>0.3477383733787751</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CD3">
-        <v>0.3502159496024759</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CE3">
-        <v>0.3511523277958721</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CF3">
-        <v>0.3521072001157301</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CG3">
-        <v>0.3608526534760026</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CH3">
-        <v>0.3667119426168241</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CI3">
-        <v>0.3877230077638971</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CJ3">
-        <v>0.3908100031250868</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CK3">
-        <v>0.392565781351213</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CL3">
-        <v>0.3938512725897202</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CM3">
-        <v>0.3943010537471853</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CN3">
-        <v>0.4014940593430362</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CO3">
-        <v>0.420026804620819</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CP3">
-        <v>0.4411114973003672</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="CQ3">
-        <v>0.4774968305110192</v>
+        <v>0.7122811680775838</v>
       </c>
       <c r="CR3">
-        <v>0.5203353788291868</v>
+        <v>0.8047468163682054</v>
       </c>
       <c r="CS3">
-        <v>0.5299954120352153</v>
+        <v>0.8047468163682054</v>
       </c>
       <c r="CT3">
-        <v>0.5331108018946156</v>
+        <v>0.8047468163682054</v>
       </c>
       <c r="CU3">
-        <v>0.5562049908925547</v>
+        <v>0.8047468163682054</v>
       </c>
       <c r="CV3">
-        <v>0.6049360753753648</v>
+        <v>0.9397756056424179</v>
       </c>
       <c r="CW3">
-        <v>0.6433110725926608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX3">
-        <v>0.6545000376212963</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY3">
-        <v>0.6596001487328242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ3">
-        <v>0.6610678567718719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA3">
-        <v>0.6630400826169932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB3">
-        <v>0.6630400826169932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC3">
-        <v>0.6656237344669037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD3">
-        <v>0.6851275889900955</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE3">
-        <v>0.7065014205901767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF3">
-        <v>0.7183690478876483</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG3">
-        <v>0.7366349903834992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH3">
-        <v>0.7419633626698859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI3">
-        <v>0.7420459794725806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ3">
-        <v>0.7443170468677544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK3">
-        <v>0.754555380950056</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL3">
-        <v>0.7557827997304964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM3">
-        <v>0.7609673385815587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN3">
-        <v>0.7611848511392084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO3">
-        <v>0.7638107779021848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP3">
-        <v>0.7763616785160273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ3">
-        <v>0.7827994522138599</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR3">
-        <v>0.7932719401774453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS3">
-        <v>0.7933343641573872</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT3">
-        <v>0.8018301158731421</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU3">
-        <v>0.8134408335093481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV3">
-        <v>0.8243820328523896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW3">
-        <v>0.8341702449673316</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX3">
-        <v>0.8408554985138845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY3">
-        <v>0.8420146900156089</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ3">
-        <v>0.8420280166230236</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA3">
-        <v>0.8431262853101904</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB3">
-        <v>0.8439773030585032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC3">
-        <v>0.8477750404192568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED3">
-        <v>0.8518014258461947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE3">
-        <v>0.8553499054408554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF3">
-        <v>0.8570168559024398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG3">
-        <v>0.8573815425612947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH3">
-        <v>0.8588797640371432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI3">
-        <v>0.8592145472515107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ3">
-        <v>0.8593774853874997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.859408082207744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.8601054824467331</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.8610209288078731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.862863218858854</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.8628967230557388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.8629950500739598</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.8655787019238703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.8689126032566652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.8722627656428883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.8739253353088555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.8740086238322095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.8762479468091477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.8794076537027963</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.8833243801266838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.88977625898287</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.8946689422612625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.8966615372386083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.897542670505543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.8978122123047948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.9021579681581628</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.9067135823594704</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.9086344926738269</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.9122101458005711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.9151313029943576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.9190776764308013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.9237526805078455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.9242725772100565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.9269012083063416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9352600472643502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9451634684651007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.951065876508944</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9549398182406181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9551642462578708</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.955537804135515</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9561230106273455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9568862560141969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9598964626112783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9645943251252054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9746467130069438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9790075433001173</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9792087058383629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9792407433255256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9792407433255256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.979714896613406</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9807413534431793</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9848585840180319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9907609920618753</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9937886843841758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9945129732798442</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9948175151733134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.996107368478813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9969821762278128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9972759392468277</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9972759392468277</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9975845328228971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9991655800898585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9991655800898585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9991655800898585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9997841863099036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9999485067085458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.045432212949408E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.48445043631847E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9.909235366195381E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>9.909235366195381E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001281654060601697</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001668092801425284</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002256824532958608</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002554914756491673</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002554914756491673</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002554914756491673</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002554914756491673</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002572869651650357</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0003022953777824209</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0004416576491595582</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0005124513914691129</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0005124513914691129</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0005140618295095217</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000561869335504514</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0005682214666920915</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0005688298904776399</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0005811565085343982</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0006931726535884651</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0007238492397043348</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0007238492397043348</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0007238492397043348</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0007238492397043348</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0007907771121745383</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0008726999757040216</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00087449546521989</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.00087449546521989</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00087449546521989</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0008803870481305932</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0008803870481305932</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0008841522598955762</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0008841522598955762</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0008841522598955762</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0009087431517675553</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0009087431517675553</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0009087431517675553</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0009087431517675553</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0009110053656888499</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.000931582418058395</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001274349443383148</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0233261111187845</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.05058611305603229</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.05070388879654403</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.05844956288099699</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.07029846235641296</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.07207481334001516</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.07467294840972778</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.1029062435006207</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.1489781760932697</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BG4">
-        <v>0.1504757550041708</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BH4">
-        <v>0.1519756417998912</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BI4">
-        <v>0.1531388851166064</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BJ4">
-        <v>0.1531388851166064</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BK4">
-        <v>0.153515936596777</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BL4">
-        <v>0.1537105331497015</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BM4">
-        <v>0.1791722740258809</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BN4">
-        <v>0.1989636227334642</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BO4">
-        <v>0.2011033726737596</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BP4">
-        <v>0.201168607369502</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BQ4">
-        <v>0.2068700207654088</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BR4">
-        <v>0.2078654156187713</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BS4">
-        <v>0.2109375606418559</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BT4">
-        <v>0.2154374260572537</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BU4">
-        <v>0.2193114300902886</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BV4">
-        <v>0.220135277113516</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BW4">
-        <v>0.2304310335094849</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BX4">
-        <v>0.239555361319293</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BY4">
-        <v>0.2482401377861818</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="BZ4">
-        <v>0.2498560749989671</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CA4">
-        <v>0.2533063391190623</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CB4">
-        <v>0.2536164620596687</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CC4">
-        <v>0.2546220100637067</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CD4">
-        <v>0.2548967246062548</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CE4">
-        <v>0.2550534545998555</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CF4">
-        <v>0.2603075358927732</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CG4">
-        <v>0.276559433071229</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CH4">
-        <v>0.2921784022784584</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CI4">
-        <v>0.2945849469491935</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CJ4">
-        <v>0.2997745454935258</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CK4">
-        <v>0.3069232578897149</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CL4">
-        <v>0.3069463604708293</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CM4">
-        <v>0.3125805982018984</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CN4">
-        <v>0.3259921383323255</v>
+        <v>0.2704005870951772</v>
       </c>
       <c r="CO4">
-        <v>0.369291480010123</v>
+        <v>0.494036470990237</v>
       </c>
       <c r="CP4">
-        <v>0.3992690185758584</v>
+        <v>0.494036470990237</v>
       </c>
       <c r="CQ4">
-        <v>0.4420012261812377</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="CR4">
-        <v>0.461030214654951</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="CS4">
-        <v>0.4624988118372204</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="CT4">
-        <v>0.4847988506751467</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="CU4">
-        <v>0.5186295482350626</v>
+        <v>0.7720368955260578</v>
       </c>
       <c r="CV4">
-        <v>0.5621854426469216</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.5826714054880507</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.5947413925363813</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6004385096866532</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6028014339219864</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6031649824179167</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6074361624002772</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.6271547247417444</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6457218077127987</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.6627944929439183</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6837737227189351</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.6950385553530118</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6960377209902774</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6978867923317453</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7068473741059838</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7088364874094887</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.715317629723066</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.717543640126344</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7229847751783696</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7360545277938215</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7442443145014725</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7571469310218212</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7573435476876329</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7646420011519233</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7730919214660934</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7898168103280078</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.8090129228771126</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8159418651609587</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8210856666002563</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8211689159291247</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8221587489613699</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8222660474757381</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8250150138014072</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8301874842565026</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8326636603193492</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8357821688763846</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8370073472636165</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8379809669066884</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8397757827718022</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8399254502732577</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8399254502732577</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8399254502732577</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.840318573780775</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8420756144964728</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8421066658431779</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8425497154370595</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8451832457532625</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8483583728619811</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8543018517335472</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8561705060902119</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8564942181763591</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8570122222820106</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8592777454843658</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8640860427130029</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8706600926906508</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.878632470858824</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8840779945079363</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8858972953271894</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8860148192547401</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8883776182847426</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8936963919700515</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8973320270896101</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9015078243489233</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9057376258726152</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9129870449228407</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9179896047327049</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9184726749985506</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9188714312935666</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9267978540971672</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9389179763648299</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9450449514613199</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9505845266504038</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9525287283009725</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9532347840522173</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9541115494590314</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9542446751627396</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9569499800858225</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.962703916116307</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9727935534870548</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9768712421530252</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9780652090549324</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9781785358694209</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.978187452726635</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9782953928171569</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9798054013119738</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9846702448738596</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9903434404939805</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9929669277400348</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9938872596938766</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9942791922983706</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9954621897108463</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.996219936733273</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9969564380137116</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9969651049470626</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9974273073906903</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9983989842476871</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.998494199880715</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9987123721066016</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9993649025789808</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9996271220301841</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9997229450192464</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.990337045786211E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.410812472197352E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.570519837319187E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.570519837319187E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4.200591118881628E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5.356780052527116E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>6.741752786522786E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.741752786522786E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.741752786522786E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.741752786522786E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>7.054348972763043E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>8.540809472812476E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001015122378743984</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001015122378743984</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001095537965299826</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001312915016207115</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001342589243336606</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002076819765511114</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002082076384388944</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002082076384388944</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002082076384388944</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002284907279764275</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002291226159354148</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002291226159354148</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0002812091159832506</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0003116399024413973</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.000313804577832121</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003205299497294783</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003205299497294783</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0003360472036560792</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0003360472036560792</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0003360472036560792</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003511020323011183</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0003576580878138327</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0003628067927499697</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0003791075055655941</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0003791075055655941</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0003791075055655941</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0003920448512505174</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0003920448512505174</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0003962332178162848</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0003974753604138719</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003974753604138719</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0004105926152016021</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0004118347577991892</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0004537366034870885</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.007575235675005196</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.02672835910055556</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.04467202846039499</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.05295456549093052</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.09821762848655999</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BB5">
-        <v>0.1006132916159261</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BC5">
-        <v>0.1023683407520379</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BD5">
-        <v>0.1030203467408778</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BE5">
-        <v>0.1156183557505806</v>
+        <v>0.1915725119605376</v>
       </c>
       <c r="BF5">
-        <v>0.1626317988806255</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BG5">
-        <v>0.1747711730127346</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BH5">
-        <v>0.1751812930715292</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BI5">
-        <v>0.1754576204657036</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BJ5">
-        <v>0.1804268464123221</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BK5">
-        <v>0.1804268464123221</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BL5">
-        <v>0.1805612955838152</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BM5">
-        <v>0.1948720028291404</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BN5">
-        <v>0.2038239954449818</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BO5">
-        <v>0.2129781372688556</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BP5">
-        <v>0.2139910457209725</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BQ5">
-        <v>0.2143871308684789</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BR5">
-        <v>0.2144714764730495</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BS5">
-        <v>0.2145562388119233</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BT5">
-        <v>0.2189953559504118</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BU5">
-        <v>0.2205586901961939</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BV5">
-        <v>0.2207296479623416</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BW5">
-        <v>0.2257146330037682</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BX5">
-        <v>0.2374212516716481</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BY5">
-        <v>0.2534315838611905</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="BZ5">
-        <v>0.2635880033543755</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CA5">
-        <v>0.2754496653545752</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CB5">
-        <v>0.2758013900475831</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CC5">
-        <v>0.2762741501942723</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CD5">
-        <v>0.2775318609060429</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CE5">
-        <v>0.2816337860890453</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CF5">
-        <v>0.2866156073239073</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CG5">
-        <v>0.3047727410681441</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CH5">
-        <v>0.3278666238208211</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CI5">
-        <v>0.3342083529429326</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CJ5">
-        <v>0.3382442096236551</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CK5">
-        <v>0.3402067672667995</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CL5">
-        <v>0.3405813863399901</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CM5">
-        <v>0.34408629177829</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CN5">
-        <v>0.3666877562270879</v>
+        <v>0.4051373095880079</v>
       </c>
       <c r="CO5">
-        <v>0.4109105974883407</v>
+        <v>0.5836401727965014</v>
       </c>
       <c r="CP5">
-        <v>0.4446703748154123</v>
+        <v>0.6306820542058931</v>
       </c>
       <c r="CQ5">
-        <v>0.4814980528810844</v>
+        <v>0.7162699337756379</v>
       </c>
       <c r="CR5">
-        <v>0.4901660223624223</v>
+        <v>0.7162699337756379</v>
       </c>
       <c r="CS5">
-        <v>0.4925897450878789</v>
+        <v>0.7162699337756379</v>
       </c>
       <c r="CT5">
-        <v>0.51970244567432</v>
+        <v>0.7162699337756379</v>
       </c>
       <c r="CU5">
-        <v>0.5676865204029546</v>
+        <v>0.9420300294265669</v>
       </c>
       <c r="CV5">
-        <v>0.6023160713619966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW5">
-        <v>0.6180441435352487</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX5">
-        <v>0.6284148769516297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY5">
-        <v>0.6314105484211395</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ5">
-        <v>0.6325646191018366</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA5">
-        <v>0.6326623090597264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB5">
-        <v>0.6392198540576092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC5">
-        <v>0.6583408731217787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD5">
-        <v>0.6775014092486478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.6965188866441276</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.7136061698626747</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.7195884344034493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.7203551985047252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.7223455550786396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.7317542563504174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.7370978329194684</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.7434751596184443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.744058892576838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>0.7497176395347523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>0.7586544345118751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP5">
-        <v>0.7670986150607317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ5">
-        <v>0.7766062871022219</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR5">
-        <v>0.7766146931155237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS5">
-        <v>0.7815243194626006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT5">
-        <v>0.7903912241135482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU5">
-        <v>0.8061137217512919</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV5">
-        <v>0.8188907022691561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW5">
-        <v>0.8246093927447333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX5">
-        <v>0.8280773903751878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY5">
-        <v>0.8280939292320403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ5">
-        <v>0.8289010820888648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA5">
-        <v>0.8303663763552649</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB5">
-        <v>0.8337637350847795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC5">
-        <v>0.8367652747760609</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED5">
-        <v>0.8396304275673937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE5">
-        <v>0.8423353538391011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF5">
-        <v>0.8429555346136021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG5">
-        <v>0.8434036929872377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH5">
-        <v>0.8435361565394019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI5">
-        <v>0.8435486281867295</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ5">
-        <v>0.8436219746153504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.8437100364968758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.8443698340973487</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.8456095493959827</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.8457737395099177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.8462416471590328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.847816668116817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.8506823083172768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.8551901126188646</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.8567879090213997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.8569544176758106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8575948181741611</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.8592202253881563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8645091205769222</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8712728398356254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8799449489424164</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.884368612179658</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.885304507788323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8857348325214223</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.889540926080685</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8939308162982416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8970434569525041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8994702671361031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.9024032268322537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.9100774797739608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9143090942090977</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9149452036159317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.916463644789416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9269510652115848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9389013424137393</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9453487295467771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9495948659921323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9508160782556834</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9515732080866665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9521608401579741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9522047463748838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9544081479672233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9604916533174257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9719523239990038</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9794663186009043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9815653272846767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.981614917156301</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9816819113561811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9819070845570997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9829492220469961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9868155869318256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.991369656576039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9936181404606844</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9945983115499554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9945983115499554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9949480208847733</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9955096945025871</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9962479948914719</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9963920350858291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9971337423354292</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9974747847934993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9974747847934993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9978905465503985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.99870431940579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9990122404074124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9995470841590609</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.237824774361286E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.799721320166752E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.799721320166752E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.691320944930719E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000105974956520603</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001546732811312487</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001637587626148081</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001637587626148081</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002161784454266459</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002199883027803688</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0002199883027803688</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0002312229111975078</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002367021054871969</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002978385491576062</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0003194834432502036</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003194834432502036</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0003194834432502036</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0003206934130314323</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003218116464377018</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0003218116464377018</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0003240807663892794</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003247662454123171</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0003312954666454524</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003620982808132871</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0003971152174800209</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0004590325701572926</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0005200031660777211</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0005584013340013805</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0006393379901988977</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.000677412903070578</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0006793770844525893</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0006793770844525893</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0006994774255843587</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0007448731720684399</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0007792961190861934</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0007966872875017128</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0008077367632908615</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0008104782772187255</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0008208462406052291</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0008358284669508448</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0008371314692365106</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0008470385223378969</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0008642056842451706</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0008642056842451706</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0008645039376838135</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0008737601999325255</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0009830620795247755</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.007896388771461423</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01189859194881618</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01230767823246155</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01996798247001814</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.09736221611182216</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BB6">
-        <v>0.0974264938927511</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BC6">
-        <v>0.1014706848224002</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BD6">
-        <v>0.1017442766556025</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BE6">
-        <v>0.1212940254154868</v>
+        <v>0.431779716314777</v>
       </c>
       <c r="BF6">
-        <v>0.1562777320565197</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BG6">
-        <v>0.1654112737220039</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BH6">
-        <v>0.1708019694083865</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BI6">
-        <v>0.1717029861291009</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BJ6">
-        <v>0.178009034143395</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BK6">
-        <v>0.1781577062960227</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BL6">
-        <v>0.1785268651090134</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BM6">
-        <v>0.1955487242080604</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BN6">
-        <v>0.2056946174263267</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BO6">
-        <v>0.2148310292642968</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BP6">
-        <v>0.2149238017215029</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BQ6">
-        <v>0.2153581172714823</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BR6">
-        <v>0.2156938108736973</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BS6">
-        <v>0.2161481203413337</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BT6">
-        <v>0.2202854224075418</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BU6">
-        <v>0.2212397282272307</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BV6">
-        <v>0.2216382949335542</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BW6">
-        <v>0.227105273782149</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BX6">
-        <v>0.2376694688796968</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BY6">
-        <v>0.2501445605920511</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="BZ6">
-        <v>0.2562199053624354</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CA6">
-        <v>0.2644492546589305</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CB6">
-        <v>0.2646179262914875</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CC6">
-        <v>0.2657849445757253</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CD6">
-        <v>0.2680218416130141</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CE6">
-        <v>0.26967416454764</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CF6">
-        <v>0.2724930586348474</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CG6">
-        <v>0.2935139613715547</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CH6">
-        <v>0.3070785776624189</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CI6">
-        <v>0.3139591619788632</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CJ6">
-        <v>0.3186568559691428</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CK6">
-        <v>0.3191254132170984</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CL6">
-        <v>0.3196415873268795</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CM6">
-        <v>0.3210498068435297</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CN6">
-        <v>0.3420565157819699</v>
+        <v>0.4771002068303324</v>
       </c>
       <c r="CO6">
-        <v>0.3859249218856841</v>
+        <v>0.6033811172846482</v>
       </c>
       <c r="CP6">
-        <v>0.4206931294938352</v>
+        <v>0.6467379069151268</v>
       </c>
       <c r="CQ6">
-        <v>0.4629452913503228</v>
+        <v>0.7582910470572681</v>
       </c>
       <c r="CR6">
-        <v>0.4753465679086636</v>
+        <v>0.7582910470572681</v>
       </c>
       <c r="CS6">
-        <v>0.4762526914155363</v>
+        <v>0.7582910470572681</v>
       </c>
       <c r="CT6">
-        <v>0.5056945601765297</v>
+        <v>0.7582910470572681</v>
       </c>
       <c r="CU6">
-        <v>0.555278159977363</v>
+        <v>0.936650756990805</v>
       </c>
       <c r="CV6">
-        <v>0.5922403648489413</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW6">
-        <v>0.6094687563179246</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX6">
-        <v>0.6197914852748432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY6">
-        <v>0.6239211483204572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ6">
-        <v>0.6264804277532388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA6">
-        <v>0.6264804277532388</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB6">
-        <v>0.6315483665911619</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC6">
-        <v>0.6485375413384196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD6">
-        <v>0.6689556678367627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE6">
-        <v>0.6901052751502016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF6">
-        <v>0.70702374001197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG6">
-        <v>0.7146280439730168</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH6">
-        <v>0.7158010053850644</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI6">
-        <v>0.7175223652217541</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ6">
-        <v>0.7260998297257779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK6">
-        <v>0.7323185776773778</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL6">
-        <v>0.7386462086084463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM6">
-        <v>0.7393556668761754</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN6">
-        <v>0.7443642958856134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO6">
-        <v>0.7508577066389138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP6">
-        <v>0.7596693733161848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ6">
-        <v>0.7684858204463046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.7685152016527357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS6">
-        <v>0.7724012151657893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT6">
-        <v>0.7813941934101201</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU6">
-        <v>0.7986832936790784</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV6">
-        <v>0.8105869579592779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW6">
-        <v>0.8162616820732856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX6">
-        <v>0.8197090070789758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY6">
-        <v>0.8198595120403188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ6">
-        <v>0.8205630980091723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA6">
-        <v>0.8218001812154271</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB6">
-        <v>0.8246743218712491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC6">
-        <v>0.8277776418484477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED6">
-        <v>0.8301531207974293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE6">
-        <v>0.8324311555397621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF6">
-        <v>0.8331406138074912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG6">
-        <v>0.8341373630356131</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH6">
-        <v>0.8348747008923518</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI6">
-        <v>0.8349203038264735</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.8349664037256089</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.8351034336322967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.8359126838057263</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.8368608228762544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.8369069227753898</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.8372722432603963</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.8385877244928003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.8418901000856283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.8471655269838941</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.8486064342537232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.8486126785255524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.8490373946741083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.8512406949868971</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.8561655933917899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.862689126850429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.8717947421077776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.877512724293014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.8781992846067667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.8785359145114678</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.8816802489433618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.8878112816626679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8921153394497694</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8947092856441687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.899349259655428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.90819797396692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9122735288089495</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.9133586174243371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.9148448491095109</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.9267814378395814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9391143384658696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9462635690262079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.9508986535400727</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9521955798926769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9530612526151175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9535608610577062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9536767459465043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9559509176107424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9615073596056664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9712324509233748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9770305786486321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9792015090380779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9792126675874244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9795420814843353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9797015172839891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9806458781610985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9850459731800898</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9893631465249897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9918626618437072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9926032332213621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9927132939409459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9935210946822722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9950523287512386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9962032899760539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9964973160067707</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9974485961604536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9979317061633127</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9981426239937409</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9984680335448481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9991833884213838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9993311805445132</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9996529856531802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>0.06163638952813826</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5058466670755118</v>
+        <v>0.5260997513623856</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>0.0005709332756168419</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5203353788291868</v>
+        <v>0.6664285734440185</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07207481334001516</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5186295482350626</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10693,16 +10693,16 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.04467202846039499</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.51970244567432</v>
+        <v>0.5836401727965014</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10734,16 +10734,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E6">
-        <v>0.01230767823246155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5056945601765297</v>
+        <v>0.6033811172846482</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.06163638952813826</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7044260021592544</v>
+        <v>0.7709146172862473</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.0005709332756168419</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7065014205901767</v>
+        <v>0.7122811680775838</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07207481334001516</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7068473741059838</v>
+        <v>0.708106624712395</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -10952,16 +10952,16 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.04467202846039499</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7136061698626747</v>
+        <v>0.7162699337756379</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -10993,16 +10993,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.01230767823246155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.70702374001197</v>
+        <v>0.7582910470572681</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>0.06163638952813826</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8110454796932856</v>
+        <v>0.8936745377985467</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.0005709332756168419</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8018301158731421</v>
+        <v>0.8047468163682054</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.07207481334001516</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8090129228771126</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11211,16 +11211,16 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.04467202846039499</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8061137217512919</v>
+        <v>0.9420300294265669</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11252,16 +11252,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01230767823246155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8105869579592779</v>
+        <v>0.936650756990805</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>0.06163638952813826</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9013678080744499</v>
+        <v>0.9760460835096302</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.0005709332756168419</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9021579681581628</v>
+        <v>0.9397756056424179</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.07207481334001516</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9015078243489233</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -11470,16 +11470,16 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.04467202846039499</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9024032268322537</v>
+        <v>0.9420300294265669</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -11511,16 +11511,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01230767823246155</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.90819797396692</v>
+        <v>0.936650756990805</v>
       </c>
       <c r="G6">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>44</v>

--- a/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/44_225-80R17.xlsx
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.298964435782013</v>
+        <v>0.2322838788058234</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3340527993051541</v>
+        <v>0.2565491549287454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02237471229987421</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01769548327186663</v>
+        <v>0.03777298937769286</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01574234655326109</v>
       </c>
       <c r="N2">
-        <v>0.01860721022205722</v>
+        <v>0.03840349202796589</v>
       </c>
       <c r="O2">
-        <v>0.1367959108959153</v>
+        <v>0.1201366128835211</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.005206092100606968</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.07854747107340754</v>
+        <v>0.07985503990305431</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01720180795267639</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.00838825625866833</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.001532337420433319</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01211244588483981</v>
       </c>
       <c r="AE2">
-        <v>0.1114065097911814</v>
+        <v>0.1025786316457903</v>
       </c>
       <c r="AF2">
-        <v>0.003930179658405001</v>
+        <v>0.02825362570385796</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.003583926915926361</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.0180246493372624</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -799,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.261593826354759</v>
+        <v>0.2029300480133553</v>
       </c>
       <c r="G3">
-        <v>0.2192804485634511</v>
+        <v>0.1743099004836132</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0243839523784519</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01612001231296669</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3477469633861435</v>
+        <v>0.2612027650757788</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.008542583017184489</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.005949087554763117</v>
       </c>
       <c r="P3">
-        <v>0.02964253514208188</v>
+        <v>0.04604159994469997</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.002151683372682401</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07214714712492334</v>
+        <v>0.07479109547406096</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01645585810400555</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01608538213304919</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01283063329448553</v>
+        <v>0.03467027635274147</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01794929670189378</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -874,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03503521945762746</v>
+        <v>0.04968913244502298</v>
       </c>
       <c r="AF3">
-        <v>0.02172322667652831</v>
+        <v>0.04068509596301505</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.00705459114029016</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0009876395324247742</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1086845883430517</v>
+        <v>0.09920926753084587</v>
       </c>
       <c r="F4">
-        <v>0.1478528586949175</v>
+        <v>0.1256738871696395</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001096482136698537</v>
+        <v>0.02651577652828388</v>
       </c>
       <c r="I4">
-        <v>0.03195455191608729</v>
+        <v>0.04736548656558134</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0003595980011707987</v>
       </c>
       <c r="L4">
-        <v>0.1551724536938005</v>
+        <v>0.1306194795028028</v>
       </c>
       <c r="M4">
-        <v>0.2893268976614076</v>
+        <v>0.2212629084967883</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1343291401523732</v>
+        <v>0.1165363872464782</v>
       </c>
       <c r="U4">
-        <v>0.09168528305390372</v>
+        <v>0.08772343615357127</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -966,37 +966,37 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.01612827924609601</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.002768183721166776</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01002285616973044</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.006842668121921212</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02027422900998796</v>
+        <v>0.03947350409632015</v>
       </c>
       <c r="AE4">
-        <v>0.01146456792411844</v>
+        <v>0.03352112663135218</v>
       </c>
       <c r="AF4">
-        <v>0.008158947413653431</v>
+        <v>0.03128763537187704</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.004689519446374135</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.02018260650069554</v>
       </c>
       <c r="E5">
-        <v>0.08450537415577504</v>
+        <v>0.07574603178797346</v>
       </c>
       <c r="F5">
-        <v>0.07512258177542534</v>
+        <v>0.07016063378674665</v>
       </c>
       <c r="G5">
-        <v>0.0001727334307021044</v>
+        <v>0.02554441335181604</v>
       </c>
       <c r="H5">
-        <v>0.287062998289707</v>
+        <v>0.1963247361980084</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03365162175867085</v>
+        <v>0.04547375936846133</v>
       </c>
       <c r="M5">
-        <v>0.3006422270124238</v>
+        <v>0.2044081930082545</v>
       </c>
       <c r="N5">
-        <v>0.03009359011708042</v>
+        <v>0.04335573074610145</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01024316162988733</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.04693851905442661</v>
+        <v>0.05338319683546135</v>
       </c>
       <c r="U5">
-        <v>0.005366285581935431</v>
+        <v>0.02863603625349264</v>
       </c>
       <c r="V5">
-        <v>0.00693453368874111</v>
+        <v>0.02956958454978924</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.007795058174530614</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.0103159389425093</v>
       </c>
       <c r="AE5">
-        <v>0.02673632770634378</v>
+        <v>0.04135721623161707</v>
       </c>
       <c r="AF5">
-        <v>0.06012399540129383</v>
+        <v>0.0612322603389075</v>
       </c>
       <c r="AG5">
-        <v>0.01471007766781778</v>
+        <v>0.03419821812055224</v>
       </c>
       <c r="AH5">
-        <v>0.02793913435965709</v>
+        <v>0.04207322417519559</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1132,46 +1132,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.02051331462385681</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006555557844093176</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.02409479471203695</v>
       </c>
       <c r="H6">
-        <v>0.5363818764151423</v>
+        <v>0.3584431042379857</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.006756873532457942</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08985942822594783</v>
+        <v>0.08110026839183615</v>
       </c>
       <c r="M6">
-        <v>0.2089997174412036</v>
+        <v>0.155100368069891</v>
       </c>
       <c r="N6">
-        <v>0.009452967659628273</v>
+        <v>0.03115842138224091</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01321286408151596</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01760163875795359</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.07034573591088254</v>
+        <v>0.06897997570232654</v>
       </c>
       <c r="U6">
-        <v>0.01726767453616404</v>
+        <v>0.03601227134036555</v>
       </c>
       <c r="V6">
-        <v>0.009475123556559478</v>
+        <v>0.03117218279403674</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.007203306873766927</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01357861353158792</v>
       </c>
       <c r="AE6">
-        <v>0.02049669765911502</v>
+        <v>0.03801787359746096</v>
       </c>
       <c r="AF6">
-        <v>0.03524759805042454</v>
+        <v>0.04717991363016376</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.01649550232964162</v>
       </c>
       <c r="AH6">
-        <v>0.002473180544932336</v>
+        <v>0.02682315456678177</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1374,97 +1374,97 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.298964435782013</v>
+        <v>0.2322838788058234</v>
       </c>
       <c r="F2">
-        <v>0.298964435782013</v>
+        <v>0.2322838788058234</v>
       </c>
       <c r="G2">
-        <v>0.6330172350871671</v>
+        <v>0.4888330337345688</v>
       </c>
       <c r="H2">
-        <v>0.6330172350871671</v>
+        <v>0.4888330337345688</v>
       </c>
       <c r="I2">
-        <v>0.6330172350871671</v>
+        <v>0.511207746034443</v>
       </c>
       <c r="J2">
-        <v>0.6330172350871671</v>
+        <v>0.511207746034443</v>
       </c>
       <c r="K2">
-        <v>0.6330172350871671</v>
+        <v>0.511207746034443</v>
       </c>
       <c r="L2">
-        <v>0.6507127183590338</v>
+        <v>0.5489807354121359</v>
       </c>
       <c r="M2">
-        <v>0.6507127183590338</v>
+        <v>0.564723081965397</v>
       </c>
       <c r="N2">
-        <v>0.669319928581091</v>
+        <v>0.6031265739933629</v>
       </c>
       <c r="O2">
-        <v>0.8061158394770063</v>
+        <v>0.7232631868768841</v>
       </c>
       <c r="P2">
-        <v>0.8061158394770063</v>
+        <v>0.7232631868768841</v>
       </c>
       <c r="Q2">
-        <v>0.8061158394770063</v>
+        <v>0.7232631868768841</v>
       </c>
       <c r="R2">
-        <v>0.8061158394770063</v>
+        <v>0.728469278977491</v>
       </c>
       <c r="S2">
-        <v>0.8061158394770063</v>
+        <v>0.728469278977491</v>
       </c>
       <c r="T2">
-        <v>0.8061158394770063</v>
+        <v>0.728469278977491</v>
       </c>
       <c r="U2">
-        <v>0.8846633105504138</v>
+        <v>0.8083243188805453</v>
       </c>
       <c r="V2">
-        <v>0.8846633105504138</v>
+        <v>0.8255261268332217</v>
       </c>
       <c r="W2">
-        <v>0.8846633105504138</v>
+        <v>0.8255261268332217</v>
       </c>
       <c r="X2">
-        <v>0.8846633105504138</v>
+        <v>0.8255261268332217</v>
       </c>
       <c r="Y2">
-        <v>0.8846633105504138</v>
+        <v>0.83391438309189</v>
       </c>
       <c r="Z2">
-        <v>0.8846633105504138</v>
+        <v>0.83391438309189</v>
       </c>
       <c r="AA2">
-        <v>0.8846633105504138</v>
+        <v>0.83391438309189</v>
       </c>
       <c r="AB2">
-        <v>0.8846633105504138</v>
+        <v>0.8354467205123234</v>
       </c>
       <c r="AC2">
-        <v>0.8846633105504138</v>
+        <v>0.8354467205123234</v>
       </c>
       <c r="AD2">
-        <v>0.8846633105504138</v>
+        <v>0.8475591663971632</v>
       </c>
       <c r="AE2">
-        <v>0.9960698203415952</v>
+        <v>0.9501377980429535</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9783914237468114</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9819753506627378</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9819753506627378</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9819753506627378</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -1490,100 +1490,100 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.261593826354759</v>
+        <v>0.2029300480133553</v>
       </c>
       <c r="G3">
-        <v>0.4808742749182102</v>
+        <v>0.3772399484969685</v>
       </c>
       <c r="H3">
-        <v>0.4808742749182102</v>
+        <v>0.4016239008754204</v>
       </c>
       <c r="I3">
-        <v>0.4808742749182102</v>
+        <v>0.4016239008754204</v>
       </c>
       <c r="J3">
-        <v>0.4808742749182102</v>
+        <v>0.4177439131883871</v>
       </c>
       <c r="K3">
-        <v>0.4808742749182102</v>
+        <v>0.4177439131883871</v>
       </c>
       <c r="L3">
-        <v>0.4808742749182102</v>
+        <v>0.4177439131883871</v>
       </c>
       <c r="M3">
-        <v>0.8286212383043536</v>
+        <v>0.6789466782641659</v>
       </c>
       <c r="N3">
-        <v>0.8286212383043536</v>
+        <v>0.6874892612813504</v>
       </c>
       <c r="O3">
-        <v>0.8286212383043536</v>
+        <v>0.6934383488361134</v>
       </c>
       <c r="P3">
-        <v>0.8582637734464356</v>
+        <v>0.7394799487808135</v>
       </c>
       <c r="Q3">
-        <v>0.8582637734464356</v>
+        <v>0.7416316321534959</v>
       </c>
       <c r="R3">
-        <v>0.8582637734464356</v>
+        <v>0.7416316321534959</v>
       </c>
       <c r="S3">
-        <v>0.8582637734464356</v>
+        <v>0.7416316321534959</v>
       </c>
       <c r="T3">
-        <v>0.8582637734464356</v>
+        <v>0.7416316321534959</v>
       </c>
       <c r="U3">
-        <v>0.9304109205713589</v>
+        <v>0.8164227276275569</v>
       </c>
       <c r="V3">
-        <v>0.9304109205713589</v>
+        <v>0.8328785857315624</v>
       </c>
       <c r="W3">
-        <v>0.9304109205713589</v>
+        <v>0.8489639678646116</v>
       </c>
       <c r="X3">
-        <v>0.9304109205713589</v>
+        <v>0.8489639678646116</v>
       </c>
       <c r="Y3">
-        <v>0.9432415538658444</v>
+        <v>0.883634244217353</v>
       </c>
       <c r="Z3">
-        <v>0.9432415538658444</v>
+        <v>0.883634244217353</v>
       </c>
       <c r="AA3">
-        <v>0.9432415538658444</v>
+        <v>0.883634244217353</v>
       </c>
       <c r="AB3">
-        <v>0.9432415538658444</v>
+        <v>0.9015835409192469</v>
       </c>
       <c r="AC3">
-        <v>0.9432415538658444</v>
+        <v>0.9015835409192469</v>
       </c>
       <c r="AD3">
-        <v>0.9432415538658444</v>
+        <v>0.9015835409192469</v>
       </c>
       <c r="AE3">
-        <v>0.9782767733234718</v>
+        <v>0.9512726733642698</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9919577693272849</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.999012360467575</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.999012360467575</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1600,103 +1600,103 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1086845883430517</v>
+        <v>0.09920926753084587</v>
       </c>
       <c r="F4">
-        <v>0.2565374470379692</v>
+        <v>0.2248831547004854</v>
       </c>
       <c r="G4">
-        <v>0.2565374470379692</v>
+        <v>0.2248831547004854</v>
       </c>
       <c r="H4">
-        <v>0.2576339291746678</v>
+        <v>0.2513989312287693</v>
       </c>
       <c r="I4">
-        <v>0.2895884810907551</v>
+        <v>0.2987644177943506</v>
       </c>
       <c r="J4">
-        <v>0.2895884810907551</v>
+        <v>0.2987644177943506</v>
       </c>
       <c r="K4">
-        <v>0.2895884810907551</v>
+        <v>0.2991240157955214</v>
       </c>
       <c r="L4">
-        <v>0.4447609347845556</v>
+        <v>0.4297434952983242</v>
       </c>
       <c r="M4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="N4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="O4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="P4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="Q4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="R4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="S4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="T4">
-        <v>0.8684169725983364</v>
+        <v>0.7675427910415907</v>
       </c>
       <c r="U4">
-        <v>0.9601022556522401</v>
+        <v>0.855266227195162</v>
       </c>
       <c r="V4">
-        <v>0.9601022556522401</v>
+        <v>0.855266227195162</v>
       </c>
       <c r="W4">
-        <v>0.9601022556522401</v>
+        <v>0.855266227195162</v>
       </c>
       <c r="X4">
-        <v>0.9601022556522401</v>
+        <v>0.871394506441258</v>
       </c>
       <c r="Y4">
-        <v>0.9601022556522401</v>
+        <v>0.871394506441258</v>
       </c>
       <c r="Z4">
-        <v>0.9601022556522401</v>
+        <v>0.8741626901624249</v>
       </c>
       <c r="AA4">
-        <v>0.9601022556522401</v>
+        <v>0.8841855463321553</v>
       </c>
       <c r="AB4">
-        <v>0.9601022556522401</v>
+        <v>0.8910282144540765</v>
       </c>
       <c r="AC4">
-        <v>0.9601022556522401</v>
+        <v>0.8910282144540765</v>
       </c>
       <c r="AD4">
-        <v>0.980376484662228</v>
+        <v>0.9305017185503967</v>
       </c>
       <c r="AE4">
-        <v>0.9918410525863465</v>
+        <v>0.9640228451817489</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9953104805536259</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9953104805536259</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1710,94 +1710,94 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.02018260650069554</v>
       </c>
       <c r="E5">
-        <v>0.08450537415577504</v>
+        <v>0.095928638288669</v>
       </c>
       <c r="F5">
-        <v>0.1596279559312004</v>
+        <v>0.1660892720754157</v>
       </c>
       <c r="G5">
-        <v>0.1598006893619025</v>
+        <v>0.1916336854272317</v>
       </c>
       <c r="H5">
-        <v>0.4468636876516094</v>
+        <v>0.3879584216252401</v>
       </c>
       <c r="I5">
-        <v>0.4468636876516094</v>
+        <v>0.3879584216252401</v>
       </c>
       <c r="J5">
-        <v>0.4468636876516094</v>
+        <v>0.3879584216252401</v>
       </c>
       <c r="K5">
-        <v>0.4468636876516094</v>
+        <v>0.3879584216252401</v>
       </c>
       <c r="L5">
-        <v>0.4805153094102803</v>
+        <v>0.4334321809937014</v>
       </c>
       <c r="M5">
-        <v>0.7811575364227041</v>
+        <v>0.6378403740019559</v>
       </c>
       <c r="N5">
-        <v>0.8112511265397846</v>
+        <v>0.6811961047480574</v>
       </c>
       <c r="O5">
-        <v>0.8112511265397846</v>
+        <v>0.6811961047480574</v>
       </c>
       <c r="P5">
-        <v>0.8112511265397846</v>
+        <v>0.6811961047480574</v>
       </c>
       <c r="Q5">
-        <v>0.8112511265397846</v>
+        <v>0.6914392663779447</v>
       </c>
       <c r="R5">
-        <v>0.8112511265397846</v>
+        <v>0.6914392663779447</v>
       </c>
       <c r="S5">
-        <v>0.8112511265397846</v>
+        <v>0.6914392663779447</v>
       </c>
       <c r="T5">
-        <v>0.8581896455942112</v>
+        <v>0.7448224632134061</v>
       </c>
       <c r="U5">
-        <v>0.8635559311761466</v>
+        <v>0.7734584994668987</v>
       </c>
       <c r="V5">
-        <v>0.8704904648648877</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="W5">
-        <v>0.8704904648648877</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="X5">
-        <v>0.8704904648648877</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="Y5">
-        <v>0.8704904648648877</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="Z5">
-        <v>0.8704904648648877</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="AA5">
-        <v>0.8704904648648877</v>
+        <v>0.8108231421912185</v>
       </c>
       <c r="AB5">
-        <v>0.8704904648648877</v>
+        <v>0.8108231421912185</v>
       </c>
       <c r="AC5">
-        <v>0.8704904648648877</v>
+        <v>0.8108231421912185</v>
       </c>
       <c r="AD5">
-        <v>0.8704904648648877</v>
+        <v>0.8211390811337278</v>
       </c>
       <c r="AE5">
-        <v>0.8972267925712315</v>
+        <v>0.8624962973653448</v>
       </c>
       <c r="AF5">
-        <v>0.9573507879725254</v>
+        <v>0.9237285577042523</v>
       </c>
       <c r="AG5">
-        <v>0.9720608656403431</v>
+        <v>0.9579267758248046</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -1823,106 +1823,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.02051331462385681</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02706887246794999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.02706887246794999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.05116366717998694</v>
       </c>
       <c r="H6">
-        <v>0.5363818764151423</v>
+        <v>0.4096067714179726</v>
       </c>
       <c r="I6">
-        <v>0.5363818764151423</v>
+        <v>0.4096067714179726</v>
       </c>
       <c r="J6">
-        <v>0.5363818764151423</v>
+        <v>0.4163636449504306</v>
       </c>
       <c r="K6">
-        <v>0.5363818764151423</v>
+        <v>0.4163636449504306</v>
       </c>
       <c r="L6">
-        <v>0.6262413046410902</v>
+        <v>0.4974639133422668</v>
       </c>
       <c r="M6">
-        <v>0.8352410220822938</v>
+        <v>0.6525642814121577</v>
       </c>
       <c r="N6">
-        <v>0.844693989741922</v>
+        <v>0.6837227027943986</v>
       </c>
       <c r="O6">
-        <v>0.844693989741922</v>
+        <v>0.6969355668759146</v>
       </c>
       <c r="P6">
-        <v>0.844693989741922</v>
+        <v>0.6969355668759146</v>
       </c>
       <c r="Q6">
-        <v>0.844693989741922</v>
+        <v>0.7145372056338682</v>
       </c>
       <c r="R6">
-        <v>0.844693989741922</v>
+        <v>0.7145372056338682</v>
       </c>
       <c r="S6">
-        <v>0.844693989741922</v>
+        <v>0.7145372056338682</v>
       </c>
       <c r="T6">
-        <v>0.9150397256528046</v>
+        <v>0.7835171813361947</v>
       </c>
       <c r="U6">
-        <v>0.9323074001889686</v>
+        <v>0.8195294526765603</v>
       </c>
       <c r="V6">
-        <v>0.9417825237455281</v>
+        <v>0.8507016354705971</v>
       </c>
       <c r="W6">
-        <v>0.9417825237455281</v>
+        <v>0.8507016354705971</v>
       </c>
       <c r="X6">
-        <v>0.9417825237455281</v>
+        <v>0.8507016354705971</v>
       </c>
       <c r="Y6">
-        <v>0.9417825237455281</v>
+        <v>0.8507016354705971</v>
       </c>
       <c r="Z6">
-        <v>0.9417825237455281</v>
+        <v>0.8507016354705971</v>
       </c>
       <c r="AA6">
-        <v>0.9417825237455281</v>
+        <v>0.857904942344364</v>
       </c>
       <c r="AB6">
-        <v>0.9417825237455281</v>
+        <v>0.857904942344364</v>
       </c>
       <c r="AC6">
-        <v>0.9417825237455281</v>
+        <v>0.857904942344364</v>
       </c>
       <c r="AD6">
-        <v>0.9417825237455281</v>
+        <v>0.8714835558759519</v>
       </c>
       <c r="AE6">
-        <v>0.9622792214046431</v>
+        <v>0.9095014294734129</v>
       </c>
       <c r="AF6">
-        <v>0.9975268194550676</v>
+        <v>0.9566813431035767</v>
       </c>
       <c r="AG6">
-        <v>0.9975268194550676</v>
+        <v>0.9731768454332183</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1990,16 +1990,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.511207746034443</v>
+      </c>
+      <c r="G2">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.6330172350871671</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8286212383043536</v>
+        <v>0.6789466782641659</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7340878324459632</v>
+        <v>0.6510064037951125</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7811575364227041</v>
+        <v>0.6378403740019559</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2151,19 +2151,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02706887246794999</v>
       </c>
       <c r="F6">
-        <v>0.5363818764151423</v>
+        <v>0.6525642814121577</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8061158394770063</v>
+        <v>0.7232631868768841</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -2290,16 +2290,16 @@
         <v>3</v>
       </c>
       <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.7394799487808135</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8286212383043536</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2331,16 +2331,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7340878324459632</v>
+        <v>0.7675427910415907</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -2372,16 +2372,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7811575364227041</v>
+        <v>0.7448224632134061</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2410,19 +2410,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0.02706887246794999</v>
+      </c>
+      <c r="F6">
+        <v>0.7145372056338682</v>
+      </c>
+      <c r="G6">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8352410220822938</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2508,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8061158394770063</v>
+        <v>0.8083243188805453</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -2549,16 +2549,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8286212383043536</v>
+        <v>0.8164227276275569</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2590,16 +2590,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8684169725983364</v>
+        <v>0.855266227195162</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -2631,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8112511265397846</v>
+        <v>0.8030280840166879</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>44</v>
@@ -2669,19 +2669,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02706887246794999</v>
       </c>
       <c r="F6">
-        <v>0.8352410220822938</v>
+        <v>0.8195294526765603</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9960698203415952</v>
+        <v>0.9501377980429535</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -2808,16 +2808,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9304109205713589</v>
+        <v>0.9015835409192469</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -2849,16 +2849,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9601022556522401</v>
+        <v>0.9305017185503967</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9573507879725254</v>
+        <v>0.9237285577042523</v>
       </c>
       <c r="G5">
         <v>29</v>
@@ -2928,19 +2928,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02706887246794999</v>
       </c>
       <c r="F6">
-        <v>0.9150397256528046</v>
+        <v>0.9095014294734129</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>44</v>
